--- a/data-viz/inputs/report_outline_1.xlsx
+++ b/data-viz/inputs/report_outline_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-gpp-report\data-viz\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_B99231273C69EBC4C805B6D83FDC14E2921C2AF0" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4C88FEE-AF35-45A1-8870-9E28D9C9683A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1746E86-9C4F-44D5-A1B1-2FACC9C2F412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outline" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="766">
   <si>
     <t>chapter</t>
   </si>
@@ -2276,6 +2276,54 @@
   </si>
   <si>
     <t>Civic Participation B</t>
+  </si>
+  <si>
+    <t>Corruption Perceptions</t>
+  </si>
+  <si>
+    <t>Justice System Evaluation</t>
+  </si>
+  <si>
+    <t>Problem Resolution</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
+    <t>Security Violence</t>
+  </si>
+  <si>
+    <t>Law Enforcement Performance</t>
+  </si>
+  <si>
+    <t>Criminal Justice Performance</t>
+  </si>
+  <si>
+    <t>Perceptions on Authoritarian Behavior</t>
+  </si>
+  <si>
+    <t>Civic Participation A</t>
+  </si>
+  <si>
+    <t>Civic Participation A Civic Participation B</t>
+  </si>
+  <si>
+    <t>Corruption Change</t>
+  </si>
+  <si>
+    <t>Opinions regarding Corruption</t>
+  </si>
+  <si>
+    <t>Corruption</t>
+  </si>
+  <si>
+    <t>Bribe Victimization</t>
+  </si>
+  <si>
+    <t>Information Provision</t>
+  </si>
+  <si>
+    <t>Information Requests</t>
   </si>
 </sst>
 </file>
@@ -2611,19 +2659,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P86" sqref="P86"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="149.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="149.36328125" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" customWidth="1"/>
+    <col min="8" max="8" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2664,7 +2712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2705,7 +2753,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2746,7 +2794,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2787,7 +2835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2828,7 +2876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2850,6 +2898,9 @@
       <c r="G6" t="s">
         <v>41</v>
       </c>
+      <c r="H6" t="s">
+        <v>750</v>
+      </c>
       <c r="I6" t="s">
         <v>42</v>
       </c>
@@ -2866,7 +2917,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2888,6 +2939,9 @@
       <c r="G7" t="s">
         <v>48</v>
       </c>
+      <c r="H7" t="s">
+        <v>750</v>
+      </c>
       <c r="I7" t="s">
         <v>42</v>
       </c>
@@ -2904,7 +2958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2926,6 +2980,9 @@
       <c r="G8" t="s">
         <v>52</v>
       </c>
+      <c r="H8" t="s">
+        <v>750</v>
+      </c>
       <c r="I8" t="s">
         <v>42</v>
       </c>
@@ -2942,7 +2999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2964,6 +3021,9 @@
       <c r="G9" t="s">
         <v>56</v>
       </c>
+      <c r="H9" t="s">
+        <v>750</v>
+      </c>
       <c r="I9" t="s">
         <v>42</v>
       </c>
@@ -2980,7 +3040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3002,6 +3062,9 @@
       <c r="G10" t="s">
         <v>63</v>
       </c>
+      <c r="H10" t="s">
+        <v>751</v>
+      </c>
       <c r="I10" t="s">
         <v>64</v>
       </c>
@@ -3018,7 +3081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3040,6 +3103,9 @@
       <c r="G11" t="s">
         <v>69</v>
       </c>
+      <c r="H11" t="s">
+        <v>751</v>
+      </c>
       <c r="I11" t="s">
         <v>64</v>
       </c>
@@ -3056,7 +3122,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3078,6 +3144,9 @@
       <c r="G12" t="s">
         <v>74</v>
       </c>
+      <c r="H12" t="s">
+        <v>751</v>
+      </c>
       <c r="I12" t="s">
         <v>64</v>
       </c>
@@ -3094,7 +3163,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3116,6 +3185,9 @@
       <c r="G13" t="s">
         <v>79</v>
       </c>
+      <c r="H13" t="s">
+        <v>751</v>
+      </c>
       <c r="I13" t="s">
         <v>64</v>
       </c>
@@ -3132,7 +3204,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3154,6 +3226,9 @@
       <c r="G14" t="s">
         <v>84</v>
       </c>
+      <c r="H14" t="s">
+        <v>751</v>
+      </c>
       <c r="I14" t="s">
         <v>64</v>
       </c>
@@ -3170,7 +3245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3192,6 +3267,9 @@
       <c r="G15" t="s">
         <v>89</v>
       </c>
+      <c r="H15" t="s">
+        <v>751</v>
+      </c>
       <c r="I15" t="s">
         <v>64</v>
       </c>
@@ -3208,7 +3286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3230,6 +3308,9 @@
       <c r="G16" t="s">
         <v>94</v>
       </c>
+      <c r="H16" t="s">
+        <v>751</v>
+      </c>
       <c r="I16" t="s">
         <v>64</v>
       </c>
@@ -3246,7 +3327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3268,6 +3349,9 @@
       <c r="G17" t="s">
         <v>99</v>
       </c>
+      <c r="H17" t="s">
+        <v>751</v>
+      </c>
       <c r="I17" t="s">
         <v>64</v>
       </c>
@@ -3284,7 +3368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3306,6 +3390,9 @@
       <c r="G18" t="s">
         <v>104</v>
       </c>
+      <c r="H18" t="s">
+        <v>751</v>
+      </c>
       <c r="I18" t="s">
         <v>64</v>
       </c>
@@ -3322,7 +3409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3357,7 +3444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3392,7 +3479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3427,7 +3514,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3462,7 +3549,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3497,7 +3584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3532,7 +3619,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3567,7 +3654,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3602,7 +3689,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3637,7 +3724,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3659,6 +3746,9 @@
       <c r="G28" t="s">
         <v>155</v>
       </c>
+      <c r="H28" t="s">
+        <v>752</v>
+      </c>
       <c r="I28" t="s">
         <v>156</v>
       </c>
@@ -3675,7 +3765,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3710,7 +3800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3745,7 +3835,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3767,6 +3857,9 @@
       <c r="G31" t="s">
         <v>172</v>
       </c>
+      <c r="H31" t="s">
+        <v>753</v>
+      </c>
       <c r="I31" t="s">
         <v>173</v>
       </c>
@@ -3783,7 +3876,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3805,6 +3898,9 @@
       <c r="G32" t="s">
         <v>178</v>
       </c>
+      <c r="H32" t="s">
+        <v>753</v>
+      </c>
       <c r="I32" t="s">
         <v>173</v>
       </c>
@@ -3821,7 +3917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -3843,6 +3939,9 @@
       <c r="G33" t="s">
         <v>184</v>
       </c>
+      <c r="H33" t="s">
+        <v>754</v>
+      </c>
       <c r="I33" t="s">
         <v>161</v>
       </c>
@@ -3859,7 +3958,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -3881,6 +3980,9 @@
       <c r="G34" t="s">
         <v>189</v>
       </c>
+      <c r="H34" t="s">
+        <v>754</v>
+      </c>
       <c r="I34" t="s">
         <v>161</v>
       </c>
@@ -3897,7 +3999,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -3919,6 +4021,9 @@
       <c r="G35" t="s">
         <v>194</v>
       </c>
+      <c r="H35" t="s">
+        <v>754</v>
+      </c>
       <c r="I35" t="s">
         <v>161</v>
       </c>
@@ -3935,7 +4040,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -3957,6 +4062,9 @@
       <c r="G36" t="s">
         <v>199</v>
       </c>
+      <c r="H36" t="s">
+        <v>754</v>
+      </c>
       <c r="I36" t="s">
         <v>161</v>
       </c>
@@ -3973,7 +4081,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -3995,6 +4103,9 @@
       <c r="G37" t="s">
         <v>204</v>
       </c>
+      <c r="H37" t="s">
+        <v>754</v>
+      </c>
       <c r="I37" t="s">
         <v>161</v>
       </c>
@@ -4011,7 +4122,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -4033,6 +4144,9 @@
       <c r="G38" t="s">
         <v>209</v>
       </c>
+      <c r="H38" t="s">
+        <v>754</v>
+      </c>
       <c r="I38" t="s">
         <v>161</v>
       </c>
@@ -4049,7 +4163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -4071,6 +4185,9 @@
       <c r="G39" t="s">
         <v>214</v>
       </c>
+      <c r="H39" t="s">
+        <v>754</v>
+      </c>
       <c r="I39" t="s">
         <v>161</v>
       </c>
@@ -4087,7 +4204,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -4109,6 +4226,9 @@
       <c r="G40" t="s">
         <v>220</v>
       </c>
+      <c r="H40" t="s">
+        <v>755</v>
+      </c>
       <c r="I40" t="s">
         <v>64</v>
       </c>
@@ -4125,7 +4245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -4147,6 +4267,9 @@
       <c r="G41" t="s">
         <v>225</v>
       </c>
+      <c r="H41" t="s">
+        <v>755</v>
+      </c>
       <c r="I41" t="s">
         <v>64</v>
       </c>
@@ -4163,7 +4286,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -4185,6 +4308,9 @@
       <c r="G42" t="s">
         <v>230</v>
       </c>
+      <c r="H42" t="s">
+        <v>755</v>
+      </c>
       <c r="I42" t="s">
         <v>64</v>
       </c>
@@ -4201,7 +4327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4223,6 +4349,9 @@
       <c r="G43" t="s">
         <v>235</v>
       </c>
+      <c r="H43" t="s">
+        <v>755</v>
+      </c>
       <c r="I43" t="s">
         <v>64</v>
       </c>
@@ -4239,7 +4368,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -4261,6 +4390,9 @@
       <c r="G44" t="s">
         <v>240</v>
       </c>
+      <c r="H44" t="s">
+        <v>755</v>
+      </c>
       <c r="I44" t="s">
         <v>64</v>
       </c>
@@ -4277,7 +4409,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -4299,6 +4431,9 @@
       <c r="G45" t="s">
         <v>245</v>
       </c>
+      <c r="H45" t="s">
+        <v>755</v>
+      </c>
       <c r="I45" t="s">
         <v>64</v>
       </c>
@@ -4315,7 +4450,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -4337,6 +4472,9 @@
       <c r="G46" t="s">
         <v>250</v>
       </c>
+      <c r="H46" t="s">
+        <v>755</v>
+      </c>
       <c r="I46" t="s">
         <v>64</v>
       </c>
@@ -4353,7 +4491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -4375,6 +4513,9 @@
       <c r="G47" t="s">
         <v>254</v>
       </c>
+      <c r="H47" t="s">
+        <v>755</v>
+      </c>
       <c r="I47" t="s">
         <v>64</v>
       </c>
@@ -4391,7 +4532,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -4413,6 +4554,9 @@
       <c r="G48" t="s">
         <v>259</v>
       </c>
+      <c r="H48" t="s">
+        <v>756</v>
+      </c>
       <c r="I48" t="s">
         <v>64</v>
       </c>
@@ -4429,7 +4573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -4451,6 +4595,9 @@
       <c r="G49" t="s">
         <v>264</v>
       </c>
+      <c r="H49" t="s">
+        <v>756</v>
+      </c>
       <c r="I49" t="s">
         <v>64</v>
       </c>
@@ -4467,7 +4614,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -4489,6 +4636,9 @@
       <c r="G50" t="s">
         <v>270</v>
       </c>
+      <c r="H50" t="s">
+        <v>756</v>
+      </c>
       <c r="I50" t="s">
         <v>64</v>
       </c>
@@ -4505,7 +4655,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4527,6 +4677,9 @@
       <c r="G51" t="s">
         <v>275</v>
       </c>
+      <c r="H51" t="s">
+        <v>756</v>
+      </c>
       <c r="I51" t="s">
         <v>64</v>
       </c>
@@ -4543,7 +4696,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -4565,6 +4718,9 @@
       <c r="G52" t="s">
         <v>280</v>
       </c>
+      <c r="H52" t="s">
+        <v>756</v>
+      </c>
       <c r="I52" t="s">
         <v>64</v>
       </c>
@@ -4581,7 +4737,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -4603,6 +4759,9 @@
       <c r="G53" t="s">
         <v>286</v>
       </c>
+      <c r="H53" t="s">
+        <v>755</v>
+      </c>
       <c r="I53" t="s">
         <v>64</v>
       </c>
@@ -4619,7 +4778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4641,6 +4800,9 @@
       <c r="G54" t="s">
         <v>291</v>
       </c>
+      <c r="H54" t="s">
+        <v>755</v>
+      </c>
       <c r="I54" t="s">
         <v>64</v>
       </c>
@@ -4657,7 +4819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -4679,6 +4841,9 @@
       <c r="G55" t="s">
         <v>296</v>
       </c>
+      <c r="H55" t="s">
+        <v>755</v>
+      </c>
       <c r="I55" t="s">
         <v>64</v>
       </c>
@@ -4695,7 +4860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4717,6 +4882,9 @@
       <c r="G56" t="s">
         <v>301</v>
       </c>
+      <c r="H56" t="s">
+        <v>756</v>
+      </c>
       <c r="I56" t="s">
         <v>64</v>
       </c>
@@ -4733,7 +4901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -4755,6 +4923,9 @@
       <c r="G57" t="s">
         <v>306</v>
       </c>
+      <c r="H57" t="s">
+        <v>756</v>
+      </c>
       <c r="I57" t="s">
         <v>64</v>
       </c>
@@ -4771,7 +4942,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -4793,6 +4964,9 @@
       <c r="G58" t="s">
         <v>311</v>
       </c>
+      <c r="H58" t="s">
+        <v>756</v>
+      </c>
       <c r="I58" t="s">
         <v>64</v>
       </c>
@@ -4809,7 +4983,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -4831,6 +5005,9 @@
       <c r="G59" t="s">
         <v>316</v>
       </c>
+      <c r="H59" t="s">
+        <v>756</v>
+      </c>
       <c r="I59" t="s">
         <v>64</v>
       </c>
@@ -4847,7 +5024,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>319</v>
       </c>
@@ -4869,6 +5046,9 @@
       <c r="G60" t="s">
         <v>324</v>
       </c>
+      <c r="H60" t="s">
+        <v>757</v>
+      </c>
       <c r="I60" t="s">
         <v>64</v>
       </c>
@@ -4885,7 +5065,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>319</v>
       </c>
@@ -4907,6 +5087,9 @@
       <c r="G61" t="s">
         <v>330</v>
       </c>
+      <c r="H61" t="s">
+        <v>757</v>
+      </c>
       <c r="I61" t="s">
         <v>64</v>
       </c>
@@ -4923,7 +5106,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>319</v>
       </c>
@@ -4945,6 +5128,9 @@
       <c r="G62" t="s">
         <v>335</v>
       </c>
+      <c r="H62" t="s">
+        <v>757</v>
+      </c>
       <c r="I62" t="s">
         <v>64</v>
       </c>
@@ -4961,7 +5147,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>319</v>
       </c>
@@ -4983,6 +5169,9 @@
       <c r="G63" t="s">
         <v>340</v>
       </c>
+      <c r="H63" t="s">
+        <v>757</v>
+      </c>
       <c r="I63" t="s">
         <v>64</v>
       </c>
@@ -4999,7 +5188,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>319</v>
       </c>
@@ -5021,6 +5210,9 @@
       <c r="G64" t="s">
         <v>345</v>
       </c>
+      <c r="H64" t="s">
+        <v>757</v>
+      </c>
       <c r="I64" t="s">
         <v>64</v>
       </c>
@@ -5037,7 +5229,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>319</v>
       </c>
@@ -5059,6 +5251,9 @@
       <c r="G65" t="s">
         <v>350</v>
       </c>
+      <c r="H65" t="s">
+        <v>757</v>
+      </c>
       <c r="I65" t="s">
         <v>64</v>
       </c>
@@ -5075,7 +5270,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>319</v>
       </c>
@@ -5097,6 +5292,9 @@
       <c r="G66" t="s">
         <v>355</v>
       </c>
+      <c r="H66" t="s">
+        <v>757</v>
+      </c>
       <c r="I66" t="s">
         <v>64</v>
       </c>
@@ -5113,7 +5311,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>319</v>
       </c>
@@ -5135,6 +5333,9 @@
       <c r="G67" t="s">
         <v>360</v>
       </c>
+      <c r="H67" t="s">
+        <v>757</v>
+      </c>
       <c r="I67" t="s">
         <v>64</v>
       </c>
@@ -5151,7 +5352,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>319</v>
       </c>
@@ -5173,6 +5374,9 @@
       <c r="G68" t="s">
         <v>365</v>
       </c>
+      <c r="H68" t="s">
+        <v>757</v>
+      </c>
       <c r="I68" t="s">
         <v>64</v>
       </c>
@@ -5189,7 +5393,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>319</v>
       </c>
@@ -5211,6 +5415,9 @@
       <c r="G69" t="s">
         <v>371</v>
       </c>
+      <c r="H69" t="s">
+        <v>757</v>
+      </c>
       <c r="I69" t="s">
         <v>64</v>
       </c>
@@ -5227,7 +5434,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>319</v>
       </c>
@@ -5249,6 +5456,9 @@
       <c r="G70" t="s">
         <v>376</v>
       </c>
+      <c r="H70" t="s">
+        <v>757</v>
+      </c>
       <c r="I70" t="s">
         <v>64</v>
       </c>
@@ -5265,7 +5475,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>319</v>
       </c>
@@ -5287,6 +5497,9 @@
       <c r="G71" t="s">
         <v>381</v>
       </c>
+      <c r="H71" t="s">
+        <v>757</v>
+      </c>
       <c r="I71" t="s">
         <v>64</v>
       </c>
@@ -5303,7 +5516,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>319</v>
       </c>
@@ -5325,6 +5538,9 @@
       <c r="G72" t="s">
         <v>386</v>
       </c>
+      <c r="H72" t="s">
+        <v>757</v>
+      </c>
       <c r="I72" t="s">
         <v>64</v>
       </c>
@@ -5341,7 +5557,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>319</v>
       </c>
@@ -5363,6 +5579,9 @@
       <c r="G73" t="s">
         <v>391</v>
       </c>
+      <c r="H73" t="s">
+        <v>757</v>
+      </c>
       <c r="I73" t="s">
         <v>64</v>
       </c>
@@ -5379,7 +5598,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>319</v>
       </c>
@@ -5401,6 +5620,9 @@
       <c r="G74" t="s">
         <v>396</v>
       </c>
+      <c r="H74" t="s">
+        <v>757</v>
+      </c>
       <c r="I74" t="s">
         <v>64</v>
       </c>
@@ -5417,7 +5639,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>319</v>
       </c>
@@ -5439,6 +5661,9 @@
       <c r="G75" t="s">
         <v>402</v>
       </c>
+      <c r="H75" t="s">
+        <v>751</v>
+      </c>
       <c r="I75" t="s">
         <v>64</v>
       </c>
@@ -5455,7 +5680,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>319</v>
       </c>
@@ -5477,6 +5702,9 @@
       <c r="G76" t="s">
         <v>407</v>
       </c>
+      <c r="H76" t="s">
+        <v>751</v>
+      </c>
       <c r="I76" t="s">
         <v>64</v>
       </c>
@@ -5493,7 +5721,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>319</v>
       </c>
@@ -5515,6 +5743,9 @@
       <c r="G77" t="s">
         <v>412</v>
       </c>
+      <c r="H77" t="s">
+        <v>757</v>
+      </c>
       <c r="I77" t="s">
         <v>64</v>
       </c>
@@ -5531,7 +5762,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>319</v>
       </c>
@@ -5553,6 +5784,9 @@
       <c r="G78" t="s">
         <v>417</v>
       </c>
+      <c r="H78" t="s">
+        <v>757</v>
+      </c>
       <c r="I78" t="s">
         <v>64</v>
       </c>
@@ -5569,7 +5803,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>319</v>
       </c>
@@ -5591,6 +5825,9 @@
       <c r="G79" t="s">
         <v>422</v>
       </c>
+      <c r="H79" t="s">
+        <v>757</v>
+      </c>
       <c r="I79" t="s">
         <v>64</v>
       </c>
@@ -5607,7 +5844,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>319</v>
       </c>
@@ -5629,6 +5866,9 @@
       <c r="G80" t="s">
         <v>429</v>
       </c>
+      <c r="H80" t="s">
+        <v>758</v>
+      </c>
       <c r="I80" t="s">
         <v>64</v>
       </c>
@@ -5645,7 +5885,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>319</v>
       </c>
@@ -5667,6 +5907,9 @@
       <c r="G81" t="s">
         <v>434</v>
       </c>
+      <c r="H81" t="s">
+        <v>758</v>
+      </c>
       <c r="I81" t="s">
         <v>64</v>
       </c>
@@ -5683,7 +5926,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>319</v>
       </c>
@@ -5705,6 +5948,9 @@
       <c r="G82" t="s">
         <v>439</v>
       </c>
+      <c r="H82" t="s">
+        <v>749</v>
+      </c>
       <c r="I82" t="s">
         <v>64</v>
       </c>
@@ -5721,7 +5967,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>319</v>
       </c>
@@ -5743,6 +5989,9 @@
       <c r="G83" t="s">
         <v>444</v>
       </c>
+      <c r="H83" t="s">
+        <v>749</v>
+      </c>
       <c r="I83" t="s">
         <v>64</v>
       </c>
@@ -5759,7 +6008,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>319</v>
       </c>
@@ -5781,6 +6030,9 @@
       <c r="G84" t="s">
         <v>449</v>
       </c>
+      <c r="H84" t="s">
+        <v>749</v>
+      </c>
       <c r="I84" t="s">
         <v>64</v>
       </c>
@@ -5797,7 +6049,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>319</v>
       </c>
@@ -5819,6 +6071,9 @@
       <c r="G85" t="s">
         <v>454</v>
       </c>
+      <c r="H85" t="s">
+        <v>749</v>
+      </c>
       <c r="I85" t="s">
         <v>64</v>
       </c>
@@ -5835,7 +6090,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>319</v>
       </c>
@@ -5857,6 +6112,9 @@
       <c r="G86" t="s">
         <v>460</v>
       </c>
+      <c r="H86" t="s">
+        <v>758</v>
+      </c>
       <c r="I86" t="s">
         <v>64</v>
       </c>
@@ -5873,7 +6131,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>319</v>
       </c>
@@ -5895,6 +6153,9 @@
       <c r="G87" t="s">
         <v>465</v>
       </c>
+      <c r="H87" t="s">
+        <v>758</v>
+      </c>
       <c r="I87" t="s">
         <v>64</v>
       </c>
@@ -5911,7 +6172,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>319</v>
       </c>
@@ -5933,6 +6194,9 @@
       <c r="G88" t="s">
         <v>470</v>
       </c>
+      <c r="H88" t="s">
+        <v>758</v>
+      </c>
       <c r="I88" t="s">
         <v>64</v>
       </c>
@@ -5949,7 +6213,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>319</v>
       </c>
@@ -5990,7 +6254,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>319</v>
       </c>
@@ -6031,7 +6295,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>319</v>
       </c>
@@ -6072,7 +6336,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>319</v>
       </c>
@@ -6113,7 +6377,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>319</v>
       </c>
@@ -6135,6 +6399,9 @@
       <c r="G93" t="s">
         <v>496</v>
       </c>
+      <c r="H93" t="s">
+        <v>758</v>
+      </c>
       <c r="I93" t="s">
         <v>64</v>
       </c>
@@ -6151,7 +6418,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>319</v>
       </c>
@@ -6173,6 +6440,9 @@
       <c r="G94" t="s">
         <v>501</v>
       </c>
+      <c r="H94" t="s">
+        <v>758</v>
+      </c>
       <c r="I94" t="s">
         <v>64</v>
       </c>
@@ -6189,7 +6459,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>319</v>
       </c>
@@ -6211,6 +6481,9 @@
       <c r="G95" t="s">
         <v>507</v>
       </c>
+      <c r="H95" t="s">
+        <v>759</v>
+      </c>
       <c r="I95" t="s">
         <v>161</v>
       </c>
@@ -6227,7 +6500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>319</v>
       </c>
@@ -6249,6 +6522,9 @@
       <c r="G96" t="s">
         <v>512</v>
       </c>
+      <c r="H96" t="s">
+        <v>759</v>
+      </c>
       <c r="I96" t="s">
         <v>161</v>
       </c>
@@ -6265,7 +6541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>319</v>
       </c>
@@ -6287,6 +6563,9 @@
       <c r="G97" t="s">
         <v>517</v>
       </c>
+      <c r="H97" t="s">
+        <v>759</v>
+      </c>
       <c r="I97" t="s">
         <v>161</v>
       </c>
@@ -6303,7 +6582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>319</v>
       </c>
@@ -6325,6 +6604,9 @@
       <c r="G98" t="s">
         <v>522</v>
       </c>
+      <c r="H98" t="s">
+        <v>758</v>
+      </c>
       <c r="I98" t="s">
         <v>64</v>
       </c>
@@ -6341,7 +6623,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>319</v>
       </c>
@@ -6363,6 +6645,9 @@
       <c r="G99" t="s">
         <v>527</v>
       </c>
+      <c r="H99" t="s">
+        <v>758</v>
+      </c>
       <c r="I99" t="s">
         <v>64</v>
       </c>
@@ -6379,7 +6664,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>319</v>
       </c>
@@ -6401,6 +6686,9 @@
       <c r="G100" t="s">
         <v>532</v>
       </c>
+      <c r="H100" t="s">
+        <v>749</v>
+      </c>
       <c r="I100" t="s">
         <v>64</v>
       </c>
@@ -6417,7 +6705,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>319</v>
       </c>
@@ -6439,6 +6727,9 @@
       <c r="G101" t="s">
         <v>537</v>
       </c>
+      <c r="H101" t="s">
+        <v>749</v>
+      </c>
       <c r="I101" t="s">
         <v>64</v>
       </c>
@@ -6455,7 +6746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>319</v>
       </c>
@@ -6477,6 +6768,9 @@
       <c r="G102" t="s">
         <v>543</v>
       </c>
+      <c r="H102" t="s">
+        <v>540</v>
+      </c>
       <c r="I102" t="s">
         <v>161</v>
       </c>
@@ -6493,7 +6787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>319</v>
       </c>
@@ -6515,6 +6809,9 @@
       <c r="G103" t="s">
         <v>548</v>
       </c>
+      <c r="H103" t="s">
+        <v>540</v>
+      </c>
       <c r="I103" t="s">
         <v>161</v>
       </c>
@@ -6531,7 +6828,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>319</v>
       </c>
@@ -6553,6 +6850,9 @@
       <c r="G104" t="s">
         <v>553</v>
       </c>
+      <c r="H104" t="s">
+        <v>540</v>
+      </c>
       <c r="I104" t="s">
         <v>161</v>
       </c>
@@ -6569,7 +6869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>319</v>
       </c>
@@ -6591,6 +6891,9 @@
       <c r="G105" t="s">
         <v>558</v>
       </c>
+      <c r="H105" t="s">
+        <v>540</v>
+      </c>
       <c r="I105" t="s">
         <v>161</v>
       </c>
@@ -6607,7 +6910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>319</v>
       </c>
@@ -6629,6 +6932,9 @@
       <c r="G106" t="s">
         <v>563</v>
       </c>
+      <c r="H106" t="s">
+        <v>540</v>
+      </c>
       <c r="I106" t="s">
         <v>161</v>
       </c>
@@ -6645,7 +6951,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>319</v>
       </c>
@@ -6667,6 +6973,9 @@
       <c r="G107" t="s">
         <v>568</v>
       </c>
+      <c r="H107" t="s">
+        <v>540</v>
+      </c>
       <c r="I107" t="s">
         <v>161</v>
       </c>
@@ -6683,7 +6992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>319</v>
       </c>
@@ -6705,6 +7014,9 @@
       <c r="G108" t="s">
         <v>573</v>
       </c>
+      <c r="H108" t="s">
+        <v>540</v>
+      </c>
       <c r="I108" t="s">
         <v>161</v>
       </c>
@@ -6721,7 +7033,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>319</v>
       </c>
@@ -6743,6 +7055,9 @@
       <c r="G109" t="s">
         <v>578</v>
       </c>
+      <c r="H109" t="s">
+        <v>540</v>
+      </c>
       <c r="I109" t="s">
         <v>161</v>
       </c>
@@ -6759,7 +7074,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>319</v>
       </c>
@@ -6781,6 +7096,9 @@
       <c r="G110" t="s">
         <v>583</v>
       </c>
+      <c r="H110" t="s">
+        <v>540</v>
+      </c>
       <c r="I110" t="s">
         <v>161</v>
       </c>
@@ -6797,7 +7115,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>319</v>
       </c>
@@ -6819,6 +7137,9 @@
       <c r="G111" t="s">
         <v>588</v>
       </c>
+      <c r="H111" t="s">
+        <v>540</v>
+      </c>
       <c r="I111" t="s">
         <v>161</v>
       </c>
@@ -6835,7 +7156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>319</v>
       </c>
@@ -6857,6 +7178,9 @@
       <c r="G112" t="s">
         <v>593</v>
       </c>
+      <c r="H112" t="s">
+        <v>540</v>
+      </c>
       <c r="I112" t="s">
         <v>161</v>
       </c>
@@ -6873,7 +7197,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>319</v>
       </c>
@@ -6911,7 +7235,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>602</v>
       </c>
@@ -6933,6 +7257,9 @@
       <c r="G114" t="s">
         <v>607</v>
       </c>
+      <c r="H114" t="s">
+        <v>760</v>
+      </c>
       <c r="I114" t="s">
         <v>608</v>
       </c>
@@ -6949,7 +7276,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>602</v>
       </c>
@@ -6971,6 +7298,9 @@
       <c r="G115" t="s">
         <v>613</v>
       </c>
+      <c r="H115" t="s">
+        <v>761</v>
+      </c>
       <c r="I115" t="s">
         <v>64</v>
       </c>
@@ -6987,7 +7317,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>602</v>
       </c>
@@ -7009,6 +7339,9 @@
       <c r="G116" t="s">
         <v>618</v>
       </c>
+      <c r="H116" t="s">
+        <v>761</v>
+      </c>
       <c r="I116" t="s">
         <v>64</v>
       </c>
@@ -7025,7 +7358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>602</v>
       </c>
@@ -7047,6 +7380,9 @@
       <c r="G117" t="s">
         <v>623</v>
       </c>
+      <c r="H117" t="s">
+        <v>761</v>
+      </c>
       <c r="I117" t="s">
         <v>64</v>
       </c>
@@ -7063,7 +7399,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>602</v>
       </c>
@@ -7085,6 +7421,9 @@
       <c r="G118" t="s">
         <v>628</v>
       </c>
+      <c r="H118" t="s">
+        <v>761</v>
+      </c>
       <c r="I118" t="s">
         <v>64</v>
       </c>
@@ -7101,7 +7440,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>602</v>
       </c>
@@ -7123,6 +7462,9 @@
       <c r="G119" t="s">
         <v>633</v>
       </c>
+      <c r="H119" t="s">
+        <v>761</v>
+      </c>
       <c r="I119" t="s">
         <v>64</v>
       </c>
@@ -7139,7 +7481,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>602</v>
       </c>
@@ -7161,6 +7503,9 @@
       <c r="G120" t="s">
         <v>639</v>
       </c>
+      <c r="H120" t="s">
+        <v>762</v>
+      </c>
       <c r="I120" t="s">
         <v>42</v>
       </c>
@@ -7177,7 +7522,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>602</v>
       </c>
@@ -7199,6 +7544,9 @@
       <c r="G121" t="s">
         <v>644</v>
       </c>
+      <c r="H121" t="s">
+        <v>762</v>
+      </c>
       <c r="I121" t="s">
         <v>42</v>
       </c>
@@ -7215,7 +7563,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>602</v>
       </c>
@@ -7237,6 +7585,9 @@
       <c r="G122" t="s">
         <v>649</v>
       </c>
+      <c r="H122" t="s">
+        <v>762</v>
+      </c>
       <c r="I122" t="s">
         <v>42</v>
       </c>
@@ -7253,7 +7604,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>602</v>
       </c>
@@ -7275,6 +7626,9 @@
       <c r="G123" t="s">
         <v>41</v>
       </c>
+      <c r="H123" t="s">
+        <v>762</v>
+      </c>
       <c r="I123" t="s">
         <v>42</v>
       </c>
@@ -7291,7 +7645,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>602</v>
       </c>
@@ -7313,6 +7667,9 @@
       <c r="G124" t="s">
         <v>48</v>
       </c>
+      <c r="H124" t="s">
+        <v>762</v>
+      </c>
       <c r="I124" t="s">
         <v>42</v>
       </c>
@@ -7329,7 +7686,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>602</v>
       </c>
@@ -7351,6 +7708,9 @@
       <c r="G125" t="s">
         <v>52</v>
       </c>
+      <c r="H125" t="s">
+        <v>762</v>
+      </c>
       <c r="I125" t="s">
         <v>42</v>
       </c>
@@ -7367,7 +7727,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>602</v>
       </c>
@@ -7389,6 +7749,9 @@
       <c r="G126" t="s">
         <v>56</v>
       </c>
+      <c r="H126" t="s">
+        <v>762</v>
+      </c>
       <c r="I126" t="s">
         <v>42</v>
       </c>
@@ -7405,7 +7768,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>602</v>
       </c>
@@ -7427,6 +7790,9 @@
       <c r="G127" t="s">
         <v>660</v>
       </c>
+      <c r="H127" t="s">
+        <v>762</v>
+      </c>
       <c r="I127" t="s">
         <v>42</v>
       </c>
@@ -7443,7 +7809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>602</v>
       </c>
@@ -7465,6 +7831,9 @@
       <c r="G128" t="s">
         <v>665</v>
       </c>
+      <c r="H128" t="s">
+        <v>762</v>
+      </c>
       <c r="I128" t="s">
         <v>42</v>
       </c>
@@ -7481,7 +7850,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>602</v>
       </c>
@@ -7503,6 +7872,9 @@
       <c r="G129" t="s">
         <v>670</v>
       </c>
+      <c r="H129" t="s">
+        <v>762</v>
+      </c>
       <c r="I129" t="s">
         <v>42</v>
       </c>
@@ -7519,7 +7891,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>602</v>
       </c>
@@ -7541,6 +7913,9 @@
       <c r="G130" t="s">
         <v>675</v>
       </c>
+      <c r="H130" t="s">
+        <v>762</v>
+      </c>
       <c r="I130" t="s">
         <v>42</v>
       </c>
@@ -7557,7 +7932,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>602</v>
       </c>
@@ -7579,6 +7954,9 @@
       <c r="G131" t="s">
         <v>681</v>
       </c>
+      <c r="H131" t="s">
+        <v>763</v>
+      </c>
       <c r="I131" t="s">
         <v>161</v>
       </c>
@@ -7595,7 +7973,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>602</v>
       </c>
@@ -7617,6 +7995,9 @@
       <c r="G132" t="s">
         <v>686</v>
       </c>
+      <c r="H132" t="s">
+        <v>763</v>
+      </c>
       <c r="I132" t="s">
         <v>161</v>
       </c>
@@ -7633,7 +8014,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>602</v>
       </c>
@@ -7655,6 +8036,9 @@
       <c r="G133" t="s">
         <v>691</v>
       </c>
+      <c r="H133" t="s">
+        <v>763</v>
+      </c>
       <c r="I133" t="s">
         <v>161</v>
       </c>
@@ -7671,7 +8055,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>602</v>
       </c>
@@ -7693,6 +8077,9 @@
       <c r="G134" t="s">
         <v>696</v>
       </c>
+      <c r="H134" t="s">
+        <v>763</v>
+      </c>
       <c r="I134" t="s">
         <v>161</v>
       </c>
@@ -7709,7 +8096,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>602</v>
       </c>
@@ -7731,6 +8118,9 @@
       <c r="G135" t="s">
         <v>701</v>
       </c>
+      <c r="H135" t="s">
+        <v>763</v>
+      </c>
       <c r="I135" t="s">
         <v>161</v>
       </c>
@@ -7747,7 +8137,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>602</v>
       </c>
@@ -7769,6 +8159,9 @@
       <c r="G136" t="s">
         <v>708</v>
       </c>
+      <c r="H136" t="s">
+        <v>764</v>
+      </c>
       <c r="I136" t="s">
         <v>64</v>
       </c>
@@ -7785,7 +8178,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>602</v>
       </c>
@@ -7807,6 +8200,9 @@
       <c r="G137" t="s">
         <v>713</v>
       </c>
+      <c r="H137" t="s">
+        <v>764</v>
+      </c>
       <c r="I137" t="s">
         <v>64</v>
       </c>
@@ -7823,7 +8219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>602</v>
       </c>
@@ -7845,6 +8241,9 @@
       <c r="G138" t="s">
         <v>718</v>
       </c>
+      <c r="H138" t="s">
+        <v>764</v>
+      </c>
       <c r="I138" t="s">
         <v>64</v>
       </c>
@@ -7861,7 +8260,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>602</v>
       </c>
@@ -7883,6 +8282,9 @@
       <c r="G139" t="s">
         <v>723</v>
       </c>
+      <c r="H139" t="s">
+        <v>764</v>
+      </c>
       <c r="I139" t="s">
         <v>64</v>
       </c>
@@ -7899,7 +8301,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>602</v>
       </c>
@@ -7921,6 +8323,9 @@
       <c r="G140" t="s">
         <v>729</v>
       </c>
+      <c r="H140" t="s">
+        <v>765</v>
+      </c>
       <c r="I140" t="s">
         <v>730</v>
       </c>
@@ -7937,7 +8342,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>602</v>
       </c>
@@ -7959,6 +8364,9 @@
       <c r="G141" t="s">
         <v>735</v>
       </c>
+      <c r="H141" t="s">
+        <v>765</v>
+      </c>
       <c r="I141" t="s">
         <v>730</v>
       </c>
@@ -7975,7 +8383,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>602</v>
       </c>
@@ -7997,6 +8405,9 @@
       <c r="G142" t="s">
         <v>740</v>
       </c>
+      <c r="H142" t="s">
+        <v>765</v>
+      </c>
       <c r="I142" t="s">
         <v>730</v>
       </c>
@@ -8013,7 +8424,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>602</v>
       </c>
@@ -8034,6 +8445,9 @@
       </c>
       <c r="G143" t="s">
         <v>745</v>
+      </c>
+      <c r="H143" t="s">
+        <v>765</v>
       </c>
       <c r="I143" t="s">
         <v>730</v>
@@ -8058,6 +8472,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -8306,15 +8729,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -8327,6 +8741,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E88BA6A-AC61-4AC2-A996-5A1D6BDE06E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B06C0B83-8F91-4FA8-B18E-5FF0700E1417}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8345,14 +8767,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E88BA6A-AC61-4AC2-A996-5A1D6BDE06E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8432CF-B2BE-4FBE-BA17-BEF2C1145140}">
   <ds:schemaRefs>

--- a/data-viz/inputs/report_outline_1.xlsx
+++ b/data-viz/inputs/report_outline_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhabiby\Documents\GitHub\eu-gpp-report\data-viz\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1746E86-9C4F-44D5-A1B1-2FACC9C2F412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F4A626-9191-49EA-A01D-390A9F6068D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="766">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="771">
   <si>
     <t>chapter</t>
   </si>
@@ -2324,6 +2324,21 @@
   </si>
   <si>
     <t>Information Requests</t>
+  </si>
+  <si>
+    <t>q154</t>
+  </si>
+  <si>
+    <t>q155</t>
+  </si>
+  <si>
+    <t>Information and Advice</t>
+  </si>
+  <si>
+    <t>AJD_information</t>
+  </si>
+  <si>
+    <t>AJD_inst_advice</t>
   </si>
 </sst>
 </file>
@@ -2657,11 +2672,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H140" sqref="H140"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3566,7 +3581,13 @@
         <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>130</v>
+        <v>766</v>
+      </c>
+      <c r="G23" t="s">
+        <v>769</v>
+      </c>
+      <c r="H23" t="s">
+        <v>768</v>
       </c>
       <c r="I23" t="s">
         <v>131</v>
@@ -3595,25 +3616,31 @@
         <v>107</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>130</v>
+        <v>767</v>
+      </c>
+      <c r="G24" t="s">
+        <v>770</v>
+      </c>
+      <c r="H24" t="s">
+        <v>768</v>
       </c>
       <c r="I24" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="J24" t="s">
         <v>20</v>
       </c>
       <c r="K24" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="L24" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="M24" t="s">
         <v>23</v>
@@ -3630,25 +3657,25 @@
         <v>107</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F25" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="I25" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="J25" t="s">
         <v>20</v>
       </c>
       <c r="K25" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L25" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="M25" t="s">
         <v>23</v>
@@ -3665,25 +3692,25 @@
         <v>107</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E26" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="I26" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="J26" t="s">
         <v>20</v>
       </c>
       <c r="K26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="L26" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="M26" t="s">
         <v>23</v>
@@ -3700,25 +3727,25 @@
         <v>107</v>
       </c>
       <c r="D27">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="J27" t="s">
         <v>20</v>
       </c>
       <c r="K27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="M27" t="s">
         <v>23</v>
@@ -3735,31 +3762,25 @@
         <v>107</v>
       </c>
       <c r="D28">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E28" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>154</v>
-      </c>
-      <c r="G28" t="s">
-        <v>155</v>
-      </c>
-      <c r="H28" t="s">
-        <v>752</v>
+        <v>149</v>
       </c>
       <c r="I28" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="J28" t="s">
         <v>20</v>
       </c>
       <c r="K28" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="L28" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="M28" t="s">
         <v>23</v>
@@ -3776,25 +3797,31 @@
         <v>107</v>
       </c>
       <c r="D29">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>154</v>
+      </c>
+      <c r="G29" t="s">
+        <v>155</v>
+      </c>
+      <c r="H29" t="s">
+        <v>752</v>
       </c>
       <c r="I29" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="J29" t="s">
         <v>20</v>
       </c>
       <c r="K29" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="L29" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="M29" t="s">
         <v>23</v>
@@ -3811,13 +3838,13 @@
         <v>107</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E30" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="I30" t="s">
         <v>161</v>
@@ -3826,10 +3853,10 @@
         <v>20</v>
       </c>
       <c r="K30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="M30" t="s">
         <v>23</v>
@@ -3840,37 +3867,31 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>168</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
-        <v>171</v>
-      </c>
-      <c r="G31" t="s">
-        <v>172</v>
-      </c>
-      <c r="H31" t="s">
-        <v>753</v>
+        <v>165</v>
       </c>
       <c r="I31" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="J31" t="s">
         <v>20</v>
       </c>
       <c r="K31" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="L31" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="M31" t="s">
         <v>23</v>
@@ -3887,16 +3908,16 @@
         <v>169</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F32" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="G32" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H32" t="s">
         <v>753</v>
@@ -3908,10 +3929,10 @@
         <v>20</v>
       </c>
       <c r="K32" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="L32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="M32" t="s">
         <v>23</v>
@@ -3925,37 +3946,37 @@
         <v>168</v>
       </c>
       <c r="C33" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="F33" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="G33" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H33" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="I33" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K33" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="L33" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="M33" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
@@ -3969,16 +3990,16 @@
         <v>181</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="F34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G34" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="H34" t="s">
         <v>754</v>
@@ -3990,10 +4011,10 @@
         <v>43</v>
       </c>
       <c r="K34" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L34" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M34" t="s">
         <v>46</v>
@@ -4010,16 +4031,16 @@
         <v>181</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E35" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="F35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="H35" t="s">
         <v>754</v>
@@ -4031,10 +4052,10 @@
         <v>43</v>
       </c>
       <c r="K35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L35" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="M35" t="s">
         <v>46</v>
@@ -4051,16 +4072,16 @@
         <v>181</v>
       </c>
       <c r="D36">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E36" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F36" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G36" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="H36" t="s">
         <v>754</v>
@@ -4072,10 +4093,10 @@
         <v>43</v>
       </c>
       <c r="K36" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L36" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s">
         <v>46</v>
@@ -4092,16 +4113,16 @@
         <v>181</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F37" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G37" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H37" t="s">
         <v>754</v>
@@ -4113,10 +4134,10 @@
         <v>43</v>
       </c>
       <c r="K37" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="L37" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="M37" t="s">
         <v>46</v>
@@ -4133,16 +4154,16 @@
         <v>181</v>
       </c>
       <c r="D38">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E38" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G38" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H38" t="s">
         <v>754</v>
@@ -4154,10 +4175,10 @@
         <v>43</v>
       </c>
       <c r="K38" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="L38" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="M38" t="s">
         <v>46</v>
@@ -4174,16 +4195,16 @@
         <v>181</v>
       </c>
       <c r="D39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E39" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="F39" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="G39" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H39" t="s">
         <v>754</v>
@@ -4195,10 +4216,10 @@
         <v>43</v>
       </c>
       <c r="K39" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="L39" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="M39" t="s">
         <v>46</v>
@@ -4212,37 +4233,37 @@
         <v>168</v>
       </c>
       <c r="C40" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="D40">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E40" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F40" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="G40" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H40" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I40" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="J40" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K40" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L40" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M40" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
@@ -4256,16 +4277,16 @@
         <v>217</v>
       </c>
       <c r="D41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E41" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F41" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G41" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="H41" t="s">
         <v>755</v>
@@ -4277,10 +4298,10 @@
         <v>20</v>
       </c>
       <c r="K41" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="L41" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="M41" t="s">
         <v>23</v>
@@ -4297,16 +4318,16 @@
         <v>217</v>
       </c>
       <c r="D42">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E42" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G42" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H42" t="s">
         <v>755</v>
@@ -4318,10 +4339,10 @@
         <v>20</v>
       </c>
       <c r="K42" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="L42" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="M42" t="s">
         <v>23</v>
@@ -4338,16 +4359,16 @@
         <v>217</v>
       </c>
       <c r="D43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E43" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F43" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G43" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="H43" t="s">
         <v>755</v>
@@ -4359,10 +4380,10 @@
         <v>20</v>
       </c>
       <c r="K43" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="L43" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="M43" t="s">
         <v>23</v>
@@ -4379,16 +4400,16 @@
         <v>217</v>
       </c>
       <c r="D44">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G44" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="H44" t="s">
         <v>755</v>
@@ -4400,10 +4421,10 @@
         <v>20</v>
       </c>
       <c r="K44" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="L44" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M44" t="s">
         <v>23</v>
@@ -4420,16 +4441,16 @@
         <v>217</v>
       </c>
       <c r="D45">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E45" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F45" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="H45" t="s">
         <v>755</v>
@@ -4441,10 +4462,10 @@
         <v>20</v>
       </c>
       <c r="K45" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="L45" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="M45" t="s">
         <v>23</v>
@@ -4461,16 +4482,16 @@
         <v>217</v>
       </c>
       <c r="D46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="F46" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G46" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="H46" t="s">
         <v>755</v>
@@ -4482,7 +4503,7 @@
         <v>20</v>
       </c>
       <c r="K46" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="L46" t="s">
         <v>247</v>
@@ -4502,16 +4523,16 @@
         <v>217</v>
       </c>
       <c r="D47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E47" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F47" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G47" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="H47" t="s">
         <v>755</v>
@@ -4523,10 +4544,10 @@
         <v>20</v>
       </c>
       <c r="K47" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M47" t="s">
         <v>23</v>
@@ -4543,19 +4564,19 @@
         <v>217</v>
       </c>
       <c r="D48">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F48" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G48" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="H48" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I48" t="s">
         <v>64</v>
@@ -4564,10 +4585,10 @@
         <v>20</v>
       </c>
       <c r="K48" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="L48" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="M48" t="s">
         <v>23</v>
@@ -4584,16 +4605,16 @@
         <v>217</v>
       </c>
       <c r="D49">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E49" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="F49" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G49" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="H49" t="s">
         <v>756</v>
@@ -4605,10 +4626,10 @@
         <v>20</v>
       </c>
       <c r="K49" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L49" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="M49" t="s">
         <v>23</v>
@@ -4622,19 +4643,19 @@
         <v>168</v>
       </c>
       <c r="C50" t="s">
-        <v>267</v>
+        <v>217</v>
       </c>
       <c r="D50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F50" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="G50" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="H50" t="s">
         <v>756</v>
@@ -4646,10 +4667,10 @@
         <v>20</v>
       </c>
       <c r="K50" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="L50" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="M50" t="s">
         <v>23</v>
@@ -4666,16 +4687,16 @@
         <v>267</v>
       </c>
       <c r="D51">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="F51" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G51" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="H51" t="s">
         <v>756</v>
@@ -4687,10 +4708,10 @@
         <v>20</v>
       </c>
       <c r="K51" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="L51" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="M51" t="s">
         <v>23</v>
@@ -4707,16 +4728,16 @@
         <v>267</v>
       </c>
       <c r="D52">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="F52" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="G52" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="H52" t="s">
         <v>756</v>
@@ -4728,10 +4749,10 @@
         <v>20</v>
       </c>
       <c r="K52" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L52" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="M52" t="s">
         <v>23</v>
@@ -4745,22 +4766,22 @@
         <v>168</v>
       </c>
       <c r="C53" t="s">
-        <v>283</v>
+        <v>267</v>
       </c>
       <c r="D53">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F53" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="G53" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H53" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="I53" t="s">
         <v>64</v>
@@ -4769,10 +4790,10 @@
         <v>20</v>
       </c>
       <c r="K53" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="L53" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="M53" t="s">
         <v>23</v>
@@ -4789,16 +4810,16 @@
         <v>283</v>
       </c>
       <c r="D54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="F54" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="G54" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="H54" t="s">
         <v>755</v>
@@ -4810,10 +4831,10 @@
         <v>20</v>
       </c>
       <c r="K54" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L54" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="M54" t="s">
         <v>23</v>
@@ -4830,16 +4851,16 @@
         <v>283</v>
       </c>
       <c r="D55">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E55" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F55" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H55" t="s">
         <v>755</v>
@@ -4851,10 +4872,10 @@
         <v>20</v>
       </c>
       <c r="K55" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="L55" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="M55" t="s">
         <v>23</v>
@@ -4871,19 +4892,19 @@
         <v>283</v>
       </c>
       <c r="D56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G56" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="H56" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="I56" t="s">
         <v>64</v>
@@ -4892,10 +4913,10 @@
         <v>20</v>
       </c>
       <c r="K56" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L56" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="M56" t="s">
         <v>23</v>
@@ -4912,16 +4933,16 @@
         <v>283</v>
       </c>
       <c r="D57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F57" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G57" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="H57" t="s">
         <v>756</v>
@@ -4933,10 +4954,10 @@
         <v>20</v>
       </c>
       <c r="K57" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="L57" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="M57" t="s">
         <v>23</v>
@@ -4953,16 +4974,16 @@
         <v>283</v>
       </c>
       <c r="D58">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E58" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="F58" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G58" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="H58" t="s">
         <v>756</v>
@@ -4974,10 +4995,10 @@
         <v>20</v>
       </c>
       <c r="K58" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="L58" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M58" t="s">
         <v>23</v>
@@ -4994,16 +5015,16 @@
         <v>283</v>
       </c>
       <c r="D59">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E59" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="F59" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="G59" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="H59" t="s">
         <v>756</v>
@@ -5015,10 +5036,10 @@
         <v>20</v>
       </c>
       <c r="K59" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="L59" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="M59" t="s">
         <v>23</v>
@@ -5026,43 +5047,43 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>320</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>321</v>
+        <v>283</v>
       </c>
       <c r="D60">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E60" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="F60" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="G60" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="H60" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="I60" t="s">
         <v>64</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K60" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="L60" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="M60" t="s">
-        <v>327</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
@@ -5076,16 +5097,16 @@
         <v>321</v>
       </c>
       <c r="D61">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E61" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F61" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="G61" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="H61" t="s">
         <v>757</v>
@@ -5097,10 +5118,10 @@
         <v>43</v>
       </c>
       <c r="K61" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L61" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M61" t="s">
         <v>327</v>
@@ -5117,16 +5138,16 @@
         <v>321</v>
       </c>
       <c r="D62">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="F62" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G62" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H62" t="s">
         <v>757</v>
@@ -5138,10 +5159,10 @@
         <v>43</v>
       </c>
       <c r="K62" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L62" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="M62" t="s">
         <v>327</v>
@@ -5158,16 +5179,16 @@
         <v>321</v>
       </c>
       <c r="D63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E63" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="F63" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G63" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H63" t="s">
         <v>757</v>
@@ -5179,10 +5200,10 @@
         <v>43</v>
       </c>
       <c r="K63" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="L63" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="M63" t="s">
         <v>327</v>
@@ -5199,16 +5220,16 @@
         <v>321</v>
       </c>
       <c r="D64">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E64" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="F64" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="G64" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H64" t="s">
         <v>757</v>
@@ -5220,10 +5241,10 @@
         <v>43</v>
       </c>
       <c r="K64" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="L64" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="M64" t="s">
         <v>327</v>
@@ -5240,16 +5261,16 @@
         <v>321</v>
       </c>
       <c r="D65">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="F65" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="G65" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="H65" t="s">
         <v>757</v>
@@ -5261,10 +5282,10 @@
         <v>43</v>
       </c>
       <c r="K65" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="L65" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="M65" t="s">
         <v>327</v>
@@ -5281,16 +5302,16 @@
         <v>321</v>
       </c>
       <c r="D66">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F66" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G66" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="H66" t="s">
         <v>757</v>
@@ -5302,10 +5323,10 @@
         <v>43</v>
       </c>
       <c r="K66" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L66" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M66" t="s">
         <v>327</v>
@@ -5322,16 +5343,16 @@
         <v>321</v>
       </c>
       <c r="D67">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E67" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="F67" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="G67" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="H67" t="s">
         <v>757</v>
@@ -5343,10 +5364,10 @@
         <v>43</v>
       </c>
       <c r="K67" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="L67" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="M67" t="s">
         <v>327</v>
@@ -5363,16 +5384,16 @@
         <v>321</v>
       </c>
       <c r="D68">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E68" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F68" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G68" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H68" t="s">
         <v>757</v>
@@ -5384,10 +5405,10 @@
         <v>43</v>
       </c>
       <c r="K68" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="L68" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="M68" t="s">
         <v>327</v>
@@ -5401,19 +5422,19 @@
         <v>320</v>
       </c>
       <c r="C69" t="s">
-        <v>368</v>
+        <v>321</v>
       </c>
       <c r="D69">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F69" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G69" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H69" t="s">
         <v>757</v>
@@ -5425,10 +5446,10 @@
         <v>43</v>
       </c>
       <c r="K69" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="L69" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="M69" t="s">
         <v>327</v>
@@ -5445,16 +5466,16 @@
         <v>368</v>
       </c>
       <c r="D70">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F70" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G70" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H70" t="s">
         <v>757</v>
@@ -5466,10 +5487,10 @@
         <v>43</v>
       </c>
       <c r="K70" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="L70" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="M70" t="s">
         <v>327</v>
@@ -5486,16 +5507,16 @@
         <v>368</v>
       </c>
       <c r="D71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E71" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F71" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G71" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="H71" t="s">
         <v>757</v>
@@ -5507,10 +5528,10 @@
         <v>43</v>
       </c>
       <c r="K71" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L71" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M71" t="s">
         <v>327</v>
@@ -5527,16 +5548,16 @@
         <v>368</v>
       </c>
       <c r="D72">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E72" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="F72" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="G72" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="H72" t="s">
         <v>757</v>
@@ -5548,10 +5569,10 @@
         <v>43</v>
       </c>
       <c r="K72" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="L72" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="M72" t="s">
         <v>327</v>
@@ -5568,16 +5589,16 @@
         <v>368</v>
       </c>
       <c r="D73">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E73" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F73" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G73" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H73" t="s">
         <v>757</v>
@@ -5589,10 +5610,10 @@
         <v>43</v>
       </c>
       <c r="K73" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="L73" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="M73" t="s">
         <v>327</v>
@@ -5609,16 +5630,16 @@
         <v>368</v>
       </c>
       <c r="D74">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E74" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="F74" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="G74" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H74" t="s">
         <v>757</v>
@@ -5630,10 +5651,10 @@
         <v>43</v>
       </c>
       <c r="K74" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="L74" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="M74" t="s">
         <v>327</v>
@@ -5644,37 +5665,37 @@
         <v>319</v>
       </c>
       <c r="B75" t="s">
-        <v>399</v>
+        <v>320</v>
       </c>
       <c r="C75" t="s">
-        <v>399</v>
+        <v>368</v>
       </c>
       <c r="D75">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E75" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F75" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="G75" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="H75" t="s">
-        <v>751</v>
+        <v>757</v>
       </c>
       <c r="I75" t="s">
         <v>64</v>
       </c>
       <c r="J75" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K75" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="L75" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="M75" t="s">
         <v>327</v>
@@ -5691,16 +5712,16 @@
         <v>399</v>
       </c>
       <c r="D76">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F76" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G76" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="H76" t="s">
         <v>751</v>
@@ -5712,10 +5733,10 @@
         <v>20</v>
       </c>
       <c r="K76" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="L76" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="M76" t="s">
         <v>327</v>
@@ -5732,31 +5753,31 @@
         <v>399</v>
       </c>
       <c r="D77">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F77" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G77" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="H77" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="I77" t="s">
         <v>64</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K77" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L77" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M77" t="s">
         <v>327</v>
@@ -5773,16 +5794,16 @@
         <v>399</v>
       </c>
       <c r="D78">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E78" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F78" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G78" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H78" t="s">
         <v>757</v>
@@ -5794,10 +5815,10 @@
         <v>43</v>
       </c>
       <c r="K78" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="L78" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="M78" t="s">
         <v>327</v>
@@ -5814,16 +5835,16 @@
         <v>399</v>
       </c>
       <c r="D79">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E79" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F79" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G79" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H79" t="s">
         <v>757</v>
@@ -5835,10 +5856,10 @@
         <v>43</v>
       </c>
       <c r="K79" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="L79" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="M79" t="s">
         <v>327</v>
@@ -5849,37 +5870,37 @@
         <v>319</v>
       </c>
       <c r="B80" t="s">
-        <v>425</v>
+        <v>399</v>
       </c>
       <c r="C80" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="D80">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E80" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="F80" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G80" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="H80" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="I80" t="s">
         <v>64</v>
       </c>
       <c r="J80" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K80" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L80" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="M80" t="s">
         <v>327</v>
@@ -5896,16 +5917,16 @@
         <v>426</v>
       </c>
       <c r="D81">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E81" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="F81" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G81" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="H81" t="s">
         <v>758</v>
@@ -5917,10 +5938,10 @@
         <v>20</v>
       </c>
       <c r="K81" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="L81" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="M81" t="s">
         <v>327</v>
@@ -5937,19 +5958,19 @@
         <v>426</v>
       </c>
       <c r="D82">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E82" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="F82" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="G82" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H82" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="I82" t="s">
         <v>64</v>
@@ -5958,10 +5979,10 @@
         <v>20</v>
       </c>
       <c r="K82" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="L82" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="M82" t="s">
         <v>327</v>
@@ -5978,16 +5999,16 @@
         <v>426</v>
       </c>
       <c r="D83">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E83" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="F83" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="G83" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="H83" t="s">
         <v>749</v>
@@ -5999,10 +6020,10 @@
         <v>20</v>
       </c>
       <c r="K83" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="L83" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="M83" t="s">
         <v>327</v>
@@ -6019,16 +6040,16 @@
         <v>426</v>
       </c>
       <c r="D84">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E84" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="F84" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G84" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H84" t="s">
         <v>749</v>
@@ -6040,10 +6061,10 @@
         <v>20</v>
       </c>
       <c r="K84" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="L84" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="M84" t="s">
         <v>327</v>
@@ -6060,16 +6081,16 @@
         <v>426</v>
       </c>
       <c r="D85">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E85" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="F85" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="G85" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="H85" t="s">
         <v>749</v>
@@ -6081,10 +6102,10 @@
         <v>20</v>
       </c>
       <c r="K85" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="L85" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="M85" t="s">
         <v>327</v>
@@ -6098,22 +6119,22 @@
         <v>425</v>
       </c>
       <c r="C86" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="D86">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E86" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F86" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="G86" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="H86" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I86" t="s">
         <v>64</v>
@@ -6122,10 +6143,10 @@
         <v>20</v>
       </c>
       <c r="K86" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="L86" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="M86" t="s">
         <v>327</v>
@@ -6142,16 +6163,16 @@
         <v>457</v>
       </c>
       <c r="D87">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E87" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="F87" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G87" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="H87" t="s">
         <v>758</v>
@@ -6163,10 +6184,10 @@
         <v>20</v>
       </c>
       <c r="K87" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="L87" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="M87" t="s">
         <v>327</v>
@@ -6183,16 +6204,16 @@
         <v>457</v>
       </c>
       <c r="D88">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E88" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F88" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G88" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H88" t="s">
         <v>758</v>
@@ -6204,10 +6225,10 @@
         <v>20</v>
       </c>
       <c r="K88" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L88" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M88" t="s">
         <v>327</v>
@@ -6224,19 +6245,19 @@
         <v>457</v>
       </c>
       <c r="D89">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E89" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F89" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G89" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H89" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="I89" t="s">
         <v>64</v>
@@ -6245,10 +6266,10 @@
         <v>20</v>
       </c>
       <c r="K89" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="L89" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="M89" t="s">
         <v>327</v>
@@ -6265,16 +6286,16 @@
         <v>457</v>
       </c>
       <c r="D90">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E90" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F90" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G90" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H90" t="s">
         <v>749</v>
@@ -6286,10 +6307,10 @@
         <v>20</v>
       </c>
       <c r="K90" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="L90" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="M90" t="s">
         <v>327</v>
@@ -6306,16 +6327,16 @@
         <v>457</v>
       </c>
       <c r="D91">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E91" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="F91" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="G91" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H91" t="s">
         <v>749</v>
@@ -6327,10 +6348,10 @@
         <v>20</v>
       </c>
       <c r="K91" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="L91" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="M91" t="s">
         <v>327</v>
@@ -6347,16 +6368,16 @@
         <v>457</v>
       </c>
       <c r="D92">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E92" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="F92" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G92" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="H92" t="s">
         <v>749</v>
@@ -6368,10 +6389,10 @@
         <v>20</v>
       </c>
       <c r="K92" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L92" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="M92" t="s">
         <v>327</v>
@@ -6385,22 +6406,22 @@
         <v>425</v>
       </c>
       <c r="C93" t="s">
-        <v>493</v>
+        <v>457</v>
       </c>
       <c r="D93">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E93" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F93" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="G93" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="H93" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="I93" t="s">
         <v>64</v>
@@ -6409,10 +6430,10 @@
         <v>20</v>
       </c>
       <c r="K93" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="L93" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="M93" t="s">
         <v>327</v>
@@ -6429,16 +6450,16 @@
         <v>493</v>
       </c>
       <c r="D94">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E94" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="F94" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="G94" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="H94" t="s">
         <v>758</v>
@@ -6450,10 +6471,10 @@
         <v>20</v>
       </c>
       <c r="K94" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="L94" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="M94" t="s">
         <v>327</v>
@@ -6467,37 +6488,37 @@
         <v>425</v>
       </c>
       <c r="C95" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
       <c r="D95">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E95" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F95" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G95" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="H95" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I95" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="J95" t="s">
         <v>20</v>
       </c>
       <c r="K95" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="L95" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="M95" t="s">
-        <v>23</v>
+        <v>327</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.35">
@@ -6511,16 +6532,16 @@
         <v>504</v>
       </c>
       <c r="D96">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E96" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F96" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="G96" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H96" t="s">
         <v>759</v>
@@ -6532,10 +6553,10 @@
         <v>20</v>
       </c>
       <c r="K96" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="L96" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="M96" t="s">
         <v>23</v>
@@ -6552,16 +6573,16 @@
         <v>504</v>
       </c>
       <c r="D97">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E97" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F97" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G97" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="H97" t="s">
         <v>759</v>
@@ -6573,10 +6594,10 @@
         <v>20</v>
       </c>
       <c r="K97" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="L97" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="M97" t="s">
         <v>23</v>
@@ -6593,31 +6614,31 @@
         <v>504</v>
       </c>
       <c r="D98">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E98" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F98" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G98" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H98" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="I98" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="J98" t="s">
         <v>20</v>
       </c>
       <c r="K98" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="L98" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="M98" t="s">
         <v>23</v>
@@ -6634,16 +6655,16 @@
         <v>504</v>
       </c>
       <c r="D99">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E99" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F99" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G99" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="H99" t="s">
         <v>758</v>
@@ -6655,10 +6676,10 @@
         <v>20</v>
       </c>
       <c r="K99" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="L99" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M99" t="s">
         <v>23</v>
@@ -6675,19 +6696,19 @@
         <v>504</v>
       </c>
       <c r="D100">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E100" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F100" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G100" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="H100" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="I100" t="s">
         <v>64</v>
@@ -6696,10 +6717,10 @@
         <v>20</v>
       </c>
       <c r="K100" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="L100" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="M100" t="s">
         <v>23</v>
@@ -6716,16 +6737,16 @@
         <v>504</v>
       </c>
       <c r="D101">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E101" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F101" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G101" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="H101" t="s">
         <v>749</v>
@@ -6737,10 +6758,10 @@
         <v>20</v>
       </c>
       <c r="K101" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="L101" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="M101" t="s">
         <v>23</v>
@@ -6751,40 +6772,40 @@
         <v>319</v>
       </c>
       <c r="B102" t="s">
-        <v>540</v>
+        <v>425</v>
       </c>
       <c r="C102" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="D102">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E102" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F102" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G102" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="H102" t="s">
-        <v>540</v>
+        <v>749</v>
       </c>
       <c r="I102" t="s">
-        <v>161</v>
+        <v>64</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K102" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="L102" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M102" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.35">
@@ -6798,16 +6819,16 @@
         <v>540</v>
       </c>
       <c r="D103">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E103" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="F103" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="G103" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="H103" t="s">
         <v>540</v>
@@ -6819,10 +6840,10 @@
         <v>43</v>
       </c>
       <c r="K103" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="L103" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="M103" t="s">
         <v>46</v>
@@ -6839,16 +6860,16 @@
         <v>540</v>
       </c>
       <c r="D104">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E104" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F104" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G104" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="H104" t="s">
         <v>540</v>
@@ -6860,10 +6881,10 @@
         <v>43</v>
       </c>
       <c r="K104" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="L104" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="M104" t="s">
         <v>46</v>
@@ -6880,16 +6901,16 @@
         <v>540</v>
       </c>
       <c r="D105">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E105" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="F105" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G105" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="H105" t="s">
         <v>540</v>
@@ -6901,10 +6922,10 @@
         <v>43</v>
       </c>
       <c r="K105" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="L105" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="M105" t="s">
         <v>46</v>
@@ -6921,16 +6942,16 @@
         <v>540</v>
       </c>
       <c r="D106">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F106" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G106" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="H106" t="s">
         <v>540</v>
@@ -6942,10 +6963,10 @@
         <v>43</v>
       </c>
       <c r="K106" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="L106" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="M106" t="s">
         <v>46</v>
@@ -6962,16 +6983,16 @@
         <v>540</v>
       </c>
       <c r="D107">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E107" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F107" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G107" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="H107" t="s">
         <v>540</v>
@@ -6983,10 +7004,10 @@
         <v>43</v>
       </c>
       <c r="K107" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="L107" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="M107" t="s">
         <v>46</v>
@@ -7003,16 +7024,16 @@
         <v>540</v>
       </c>
       <c r="D108">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E108" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F108" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G108" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="H108" t="s">
         <v>540</v>
@@ -7024,10 +7045,10 @@
         <v>43</v>
       </c>
       <c r="K108" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="L108" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="M108" t="s">
         <v>46</v>
@@ -7044,16 +7065,16 @@
         <v>540</v>
       </c>
       <c r="D109">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E109" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="F109" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G109" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="H109" t="s">
         <v>540</v>
@@ -7065,10 +7086,10 @@
         <v>43</v>
       </c>
       <c r="K109" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="L109" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="M109" t="s">
         <v>46</v>
@@ -7085,16 +7106,16 @@
         <v>540</v>
       </c>
       <c r="D110">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E110" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F110" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G110" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="H110" t="s">
         <v>540</v>
@@ -7106,10 +7127,10 @@
         <v>43</v>
       </c>
       <c r="K110" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="L110" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="M110" t="s">
         <v>46</v>
@@ -7126,16 +7147,16 @@
         <v>540</v>
       </c>
       <c r="D111">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E111" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="F111" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="G111" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H111" t="s">
         <v>540</v>
@@ -7147,10 +7168,10 @@
         <v>43</v>
       </c>
       <c r="K111" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="L111" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="M111" t="s">
         <v>46</v>
@@ -7167,16 +7188,16 @@
         <v>540</v>
       </c>
       <c r="D112">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E112" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F112" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G112" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="H112" t="s">
         <v>540</v>
@@ -7188,10 +7209,10 @@
         <v>43</v>
       </c>
       <c r="K112" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="L112" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="M112" t="s">
         <v>46</v>
@@ -7208,28 +7229,31 @@
         <v>540</v>
       </c>
       <c r="D113">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E113" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="F113" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="G113" t="s">
-        <v>598</v>
+        <v>593</v>
+      </c>
+      <c r="H113" t="s">
+        <v>540</v>
       </c>
       <c r="I113" t="s">
-        <v>599</v>
+        <v>161</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
       </c>
       <c r="K113" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="L113" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="M113" t="s">
         <v>46</v>
@@ -7237,40 +7261,37 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>602</v>
+        <v>319</v>
       </c>
       <c r="B114" t="s">
-        <v>603</v>
+        <v>540</v>
       </c>
       <c r="C114" t="s">
-        <v>604</v>
+        <v>540</v>
       </c>
       <c r="D114">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E114" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="F114" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
       <c r="G114" t="s">
-        <v>607</v>
-      </c>
-      <c r="H114" t="s">
-        <v>760</v>
+        <v>598</v>
       </c>
       <c r="I114" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="J114" t="s">
         <v>43</v>
       </c>
       <c r="K114" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="L114" t="s">
-        <v>610</v>
+        <v>601</v>
       </c>
       <c r="M114" t="s">
         <v>46</v>
@@ -7287,34 +7308,34 @@
         <v>604</v>
       </c>
       <c r="D115">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E115" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F115" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G115" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="H115" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="I115" t="s">
-        <v>64</v>
+        <v>608</v>
       </c>
       <c r="J115" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K115" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="L115" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="M115" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.35">
@@ -7328,16 +7349,16 @@
         <v>604</v>
       </c>
       <c r="D116">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E116" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="F116" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="G116" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H116" t="s">
         <v>761</v>
@@ -7349,10 +7370,10 @@
         <v>20</v>
       </c>
       <c r="K116" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="L116" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="M116" t="s">
         <v>23</v>
@@ -7369,16 +7390,16 @@
         <v>604</v>
       </c>
       <c r="D117">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E117" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F117" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G117" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="H117" t="s">
         <v>761</v>
@@ -7390,10 +7411,10 @@
         <v>20</v>
       </c>
       <c r="K117" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="L117" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="M117" t="s">
         <v>23</v>
@@ -7410,16 +7431,16 @@
         <v>604</v>
       </c>
       <c r="D118">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E118" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="F118" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="G118" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="H118" t="s">
         <v>761</v>
@@ -7428,16 +7449,16 @@
         <v>64</v>
       </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="K118" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="L118" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="M118" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.35">
@@ -7451,16 +7472,16 @@
         <v>604</v>
       </c>
       <c r="D119">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E119" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="F119" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="G119" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="H119" t="s">
         <v>761</v>
@@ -7472,10 +7493,10 @@
         <v>43</v>
       </c>
       <c r="K119" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="L119" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="M119" t="s">
         <v>46</v>
@@ -7489,37 +7510,37 @@
         <v>603</v>
       </c>
       <c r="C120" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="D120">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E120" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="F120" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="G120" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="H120" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="I120" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J120" t="s">
         <v>43</v>
       </c>
       <c r="K120" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="L120" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
       <c r="M120" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.35">
@@ -7533,16 +7554,16 @@
         <v>636</v>
       </c>
       <c r="D121">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="F121" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="G121" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="H121" t="s">
         <v>762</v>
@@ -7554,10 +7575,10 @@
         <v>43</v>
       </c>
       <c r="K121" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="L121" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="M121" t="s">
         <v>327</v>
@@ -7574,16 +7595,16 @@
         <v>636</v>
       </c>
       <c r="D122">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E122" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="F122" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="G122" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="H122" t="s">
         <v>762</v>
@@ -7595,13 +7616,13 @@
         <v>43</v>
       </c>
       <c r="K122" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="L122" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="M122" t="s">
-        <v>46</v>
+        <v>327</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.35">
@@ -7615,16 +7636,16 @@
         <v>636</v>
       </c>
       <c r="D123">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
+        <v>647</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>648</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>649</v>
       </c>
       <c r="H123" t="s">
         <v>762</v>
@@ -7636,10 +7657,10 @@
         <v>43</v>
       </c>
       <c r="K123" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="L123" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M123" t="s">
         <v>46</v>
@@ -7656,16 +7677,16 @@
         <v>636</v>
       </c>
       <c r="D124">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H124" t="s">
         <v>762</v>
@@ -7677,10 +7698,10 @@
         <v>43</v>
       </c>
       <c r="K124" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="L124" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="M124" t="s">
         <v>46</v>
@@ -7697,16 +7718,16 @@
         <v>636</v>
       </c>
       <c r="D125">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E125" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F125" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G125" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H125" t="s">
         <v>762</v>
@@ -7718,10 +7739,10 @@
         <v>43</v>
       </c>
       <c r="K125" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L125" t="s">
-        <v>54</v>
+        <v>655</v>
       </c>
       <c r="M125" t="s">
         <v>46</v>
@@ -7738,16 +7759,16 @@
         <v>636</v>
       </c>
       <c r="D126">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E126" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G126" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H126" t="s">
         <v>762</v>
@@ -7759,10 +7780,10 @@
         <v>43</v>
       </c>
       <c r="K126" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="L126" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M126" t="s">
         <v>46</v>
@@ -7779,16 +7800,16 @@
         <v>636</v>
       </c>
       <c r="D127">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E127" t="s">
-        <v>658</v>
+        <v>34</v>
       </c>
       <c r="F127" t="s">
-        <v>659</v>
+        <v>55</v>
       </c>
       <c r="G127" t="s">
-        <v>660</v>
+        <v>56</v>
       </c>
       <c r="H127" t="s">
         <v>762</v>
@@ -7800,10 +7821,10 @@
         <v>43</v>
       </c>
       <c r="K127" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="L127" t="s">
-        <v>662</v>
+        <v>58</v>
       </c>
       <c r="M127" t="s">
         <v>46</v>
@@ -7820,16 +7841,16 @@
         <v>636</v>
       </c>
       <c r="D128">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E128" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F128" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="G128" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="H128" t="s">
         <v>762</v>
@@ -7841,10 +7862,10 @@
         <v>43</v>
       </c>
       <c r="K128" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="L128" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="M128" t="s">
         <v>46</v>
@@ -7861,16 +7882,16 @@
         <v>636</v>
       </c>
       <c r="D129">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E129" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="F129" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G129" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="H129" t="s">
         <v>762</v>
@@ -7882,10 +7903,10 @@
         <v>43</v>
       </c>
       <c r="K129" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="L129" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="M129" t="s">
         <v>46</v>
@@ -7902,16 +7923,16 @@
         <v>636</v>
       </c>
       <c r="D130">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E130" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F130" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="G130" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="H130" t="s">
         <v>762</v>
@@ -7923,13 +7944,13 @@
         <v>43</v>
       </c>
       <c r="K130" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="L130" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="M130" t="s">
-        <v>327</v>
+        <v>46</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.35">
@@ -7940,37 +7961,37 @@
         <v>603</v>
       </c>
       <c r="C131" t="s">
-        <v>678</v>
+        <v>636</v>
       </c>
       <c r="D131">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="F131" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="G131" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="H131" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="I131" t="s">
-        <v>161</v>
+        <v>42</v>
       </c>
       <c r="J131" t="s">
         <v>43</v>
       </c>
       <c r="K131" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="L131" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="M131" t="s">
-        <v>46</v>
+        <v>327</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.35">
@@ -7984,16 +8005,16 @@
         <v>678</v>
       </c>
       <c r="D132">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E132" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="F132" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G132" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="H132" t="s">
         <v>763</v>
@@ -8005,10 +8026,10 @@
         <v>43</v>
       </c>
       <c r="K132" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="L132" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="M132" t="s">
         <v>46</v>
@@ -8025,16 +8046,16 @@
         <v>678</v>
       </c>
       <c r="D133">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E133" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="F133" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="G133" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H133" t="s">
         <v>763</v>
@@ -8046,10 +8067,10 @@
         <v>43</v>
       </c>
       <c r="K133" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="L133" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="M133" t="s">
         <v>46</v>
@@ -8066,16 +8087,16 @@
         <v>678</v>
       </c>
       <c r="D134">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E134" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="F134" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="G134" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="H134" t="s">
         <v>763</v>
@@ -8087,10 +8108,10 @@
         <v>43</v>
       </c>
       <c r="K134" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="L134" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="M134" t="s">
         <v>46</v>
@@ -8107,16 +8128,16 @@
         <v>678</v>
       </c>
       <c r="D135">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="F135" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="G135" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="H135" t="s">
         <v>763</v>
@@ -8128,10 +8149,10 @@
         <v>43</v>
       </c>
       <c r="K135" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="L135" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="M135" t="s">
         <v>46</v>
@@ -8142,40 +8163,40 @@
         <v>602</v>
       </c>
       <c r="B136" t="s">
-        <v>704</v>
+        <v>603</v>
       </c>
       <c r="C136" t="s">
-        <v>705</v>
+        <v>678</v>
       </c>
       <c r="D136">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E136" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="F136" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="G136" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="H136" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I136" t="s">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="J136" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="K136" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="L136" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="M136" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.35">
@@ -8189,16 +8210,16 @@
         <v>705</v>
       </c>
       <c r="D137">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E137" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="F137" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="G137" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H137" t="s">
         <v>764</v>
@@ -8210,10 +8231,10 @@
         <v>20</v>
       </c>
       <c r="K137" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="L137" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="M137" t="s">
         <v>23</v>
@@ -8230,16 +8251,16 @@
         <v>705</v>
       </c>
       <c r="D138">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E138" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="F138" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G138" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="H138" t="s">
         <v>764</v>
@@ -8251,10 +8272,10 @@
         <v>20</v>
       </c>
       <c r="K138" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="L138" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="M138" t="s">
         <v>23</v>
@@ -8271,16 +8292,16 @@
         <v>705</v>
       </c>
       <c r="D139">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E139" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="F139" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G139" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="H139" t="s">
         <v>764</v>
@@ -8292,10 +8313,10 @@
         <v>20</v>
       </c>
       <c r="K139" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="L139" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="M139" t="s">
         <v>23</v>
@@ -8309,34 +8330,34 @@
         <v>704</v>
       </c>
       <c r="C140" t="s">
-        <v>726</v>
+        <v>705</v>
       </c>
       <c r="D140">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E140" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="F140" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
       <c r="G140" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="H140" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="I140" t="s">
-        <v>730</v>
+        <v>64</v>
       </c>
       <c r="J140" t="s">
         <v>20</v>
       </c>
       <c r="K140" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="L140" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="M140" t="s">
         <v>23</v>
@@ -8353,16 +8374,16 @@
         <v>726</v>
       </c>
       <c r="D141">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E141" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
       <c r="F141" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="G141" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="H141" t="s">
         <v>765</v>
@@ -8374,10 +8395,10 @@
         <v>20</v>
       </c>
       <c r="K141" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="L141" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="M141" t="s">
         <v>23</v>
@@ -8394,16 +8415,16 @@
         <v>726</v>
       </c>
       <c r="D142">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E142" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="F142" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G142" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="H142" t="s">
         <v>765</v>
@@ -8415,10 +8436,10 @@
         <v>20</v>
       </c>
       <c r="K142" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L142" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="M142" t="s">
         <v>23</v>
@@ -8435,16 +8456,16 @@
         <v>726</v>
       </c>
       <c r="D143">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E143" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="F143" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="G143" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="H143" t="s">
         <v>765</v>
@@ -8456,12 +8477,53 @@
         <v>20</v>
       </c>
       <c r="K143" t="s">
+        <v>741</v>
+      </c>
+      <c r="L143" t="s">
+        <v>742</v>
+      </c>
+      <c r="M143" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>602</v>
+      </c>
+      <c r="B144" t="s">
+        <v>704</v>
+      </c>
+      <c r="C144" t="s">
+        <v>726</v>
+      </c>
+      <c r="D144">
+        <v>142</v>
+      </c>
+      <c r="E144" t="s">
+        <v>743</v>
+      </c>
+      <c r="F144" t="s">
+        <v>744</v>
+      </c>
+      <c r="G144" t="s">
+        <v>745</v>
+      </c>
+      <c r="H144" t="s">
+        <v>765</v>
+      </c>
+      <c r="I144" t="s">
+        <v>730</v>
+      </c>
+      <c r="J144" t="s">
+        <v>20</v>
+      </c>
+      <c r="K144" t="s">
         <v>746</v>
       </c>
-      <c r="L143" t="s">
+      <c r="L144" t="s">
         <v>747</v>
       </c>
-      <c r="M143" t="s">
+      <c r="M144" t="s">
         <v>23</v>
       </c>
     </row>
@@ -8481,6 +8543,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="579d0760968303502ff8eb3a8a5e610f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6855c386bbcb23a4cad2dada315b1779" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -8729,17 +8802,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E88BA6A-AC61-4AC2-A996-5A1D6BDE06E6}">
   <ds:schemaRefs>
@@ -8749,6 +8811,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8432CF-B2BE-4FBE-BA17-BEF2C1145140}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B06C0B83-8F91-4FA8-B18E-5FF0700E1417}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8765,15 +8838,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1D8432CF-B2BE-4FBE-BA17-BEF2C1145140}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-viz/inputs/report_outline_1.xlsx
+++ b/data-viz/inputs/report_outline_1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctoruno\OneDrive - World Justice Project\EU Subnational\EU-S Data\reports\eu-gpp-report\data-viz\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF89303-B0F5-499A-BFBF-15711A380B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{6EF89303-B0F5-499A-BFBF-15711A380B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85E36D5E-133C-4F5E-AC5B-3B35030FFD94}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outline" sheetId="1" r:id="rId1"/>
@@ -2370,7 +2370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2380,12 +2380,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2405,7 +2399,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2705,23 +2699,23 @@
   <dimension ref="A1:M144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A119" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K134" sqref="K134"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="36.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" customWidth="1"/>
+    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2762,7 +2756,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2803,7 +2797,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2844,7 +2838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2885,7 +2879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2926,7 +2920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2936,7 +2930,7 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>5</v>
       </c>
       <c r="E6" t="s">
@@ -2967,7 +2961,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2977,7 +2971,7 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>6</v>
       </c>
       <c r="E7" t="s">
@@ -3008,7 +3002,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3018,7 +3012,7 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>7</v>
       </c>
       <c r="E8" t="s">
@@ -3049,7 +3043,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3059,7 +3053,7 @@
       <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
       <c r="E9" t="s">
@@ -3090,7 +3084,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3131,7 +3125,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3172,7 +3166,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3213,7 +3207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3254,7 +3248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3295,7 +3289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3336,7 +3330,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3377,7 +3371,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3418,7 +3412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3459,7 +3453,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3494,7 +3488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3529,7 +3523,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3564,7 +3558,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3599,7 +3593,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3640,7 +3634,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3681,7 +3675,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3716,7 +3710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3751,7 +3745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3786,7 +3780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3821,7 +3815,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3862,7 +3856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3897,7 +3891,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3932,7 +3926,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3973,7 +3967,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -4014,7 +4008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -4024,7 +4018,7 @@
       <c r="C34" t="s">
         <v>180</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>32</v>
       </c>
       <c r="E34" t="s">
@@ -4055,7 +4049,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -4096,7 +4090,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -4137,7 +4131,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -4178,7 +4172,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -4219,7 +4213,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -4260,7 +4254,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -4301,7 +4295,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -4342,7 +4336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -4383,7 +4377,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4424,7 +4418,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -4465,7 +4459,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -4506,7 +4500,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -4547,7 +4541,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -4588,7 +4582,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -4629,7 +4623,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -4670,7 +4664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -4711,7 +4705,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4752,7 +4746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -4793,7 +4787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -4834,7 +4828,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4875,7 +4869,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -4916,7 +4910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4957,7 +4951,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -4998,7 +4992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -5039,7 +5033,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -5080,7 +5074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -5121,7 +5115,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>318</v>
       </c>
@@ -5162,7 +5156,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>318</v>
       </c>
@@ -5203,7 +5197,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>318</v>
       </c>
@@ -5244,7 +5238,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>318</v>
       </c>
@@ -5285,7 +5279,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>318</v>
       </c>
@@ -5326,7 +5320,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>318</v>
       </c>
@@ -5367,7 +5361,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>318</v>
       </c>
@@ -5408,7 +5402,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>318</v>
       </c>
@@ -5449,7 +5443,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>318</v>
       </c>
@@ -5490,7 +5484,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>318</v>
       </c>
@@ -5531,7 +5525,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>318</v>
       </c>
@@ -5572,7 +5566,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>318</v>
       </c>
@@ -5613,7 +5607,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>318</v>
       </c>
@@ -5654,7 +5648,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>318</v>
       </c>
@@ -5695,7 +5689,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>318</v>
       </c>
@@ -5736,7 +5730,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>318</v>
       </c>
@@ -5777,7 +5771,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>318</v>
       </c>
@@ -5818,7 +5812,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>318</v>
       </c>
@@ -5859,7 +5853,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>318</v>
       </c>
@@ -5900,7 +5894,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>318</v>
       </c>
@@ -5941,7 +5935,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>318</v>
       </c>
@@ -5982,7 +5976,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>318</v>
       </c>
@@ -6023,7 +6017,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>318</v>
       </c>
@@ -6064,7 +6058,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>318</v>
       </c>
@@ -6105,7 +6099,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>318</v>
       </c>
@@ -6146,7 +6140,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>318</v>
       </c>
@@ -6187,7 +6181,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>318</v>
       </c>
@@ -6228,7 +6222,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>318</v>
       </c>
@@ -6269,7 +6263,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>318</v>
       </c>
@@ -6310,7 +6304,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>318</v>
       </c>
@@ -6351,7 +6345,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>318</v>
       </c>
@@ -6392,7 +6386,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>318</v>
       </c>
@@ -6433,7 +6427,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>318</v>
       </c>
@@ -6474,7 +6468,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>318</v>
       </c>
@@ -6515,7 +6509,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>318</v>
       </c>
@@ -6556,7 +6550,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>318</v>
       </c>
@@ -6597,7 +6591,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>318</v>
       </c>
@@ -6638,7 +6632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>318</v>
       </c>
@@ -6679,7 +6673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>318</v>
       </c>
@@ -6720,7 +6714,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>318</v>
       </c>
@@ -6761,7 +6755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>318</v>
       </c>
@@ -6802,7 +6796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>318</v>
       </c>
@@ -6843,7 +6837,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>318</v>
       </c>
@@ -6853,7 +6847,7 @@
       <c r="C103" t="s">
         <v>539</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="2">
         <v>101</v>
       </c>
       <c r="E103" t="s">
@@ -6884,7 +6878,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>318</v>
       </c>
@@ -6894,7 +6888,7 @@
       <c r="C104" t="s">
         <v>539</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="2">
         <v>102</v>
       </c>
       <c r="E104" t="s">
@@ -6925,7 +6919,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>318</v>
       </c>
@@ -6935,7 +6929,7 @@
       <c r="C105" t="s">
         <v>539</v>
       </c>
-      <c r="D105">
+      <c r="D105" s="2">
         <v>103</v>
       </c>
       <c r="E105" t="s">
@@ -6966,7 +6960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>318</v>
       </c>
@@ -6976,7 +6970,7 @@
       <c r="C106" t="s">
         <v>539</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="2">
         <v>104</v>
       </c>
       <c r="E106" t="s">
@@ -7007,7 +7001,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>318</v>
       </c>
@@ -7017,7 +7011,7 @@
       <c r="C107" t="s">
         <v>539</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="2">
         <v>105</v>
       </c>
       <c r="E107" t="s">
@@ -7048,7 +7042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>318</v>
       </c>
@@ -7058,7 +7052,7 @@
       <c r="C108" t="s">
         <v>539</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="2">
         <v>106</v>
       </c>
       <c r="E108" t="s">
@@ -7089,7 +7083,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>318</v>
       </c>
@@ -7099,7 +7093,7 @@
       <c r="C109" t="s">
         <v>539</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="2">
         <v>107</v>
       </c>
       <c r="E109" t="s">
@@ -7130,7 +7124,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>318</v>
       </c>
@@ -7140,7 +7134,7 @@
       <c r="C110" t="s">
         <v>539</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="2">
         <v>108</v>
       </c>
       <c r="E110" t="s">
@@ -7171,7 +7165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>318</v>
       </c>
@@ -7181,7 +7175,7 @@
       <c r="C111" t="s">
         <v>539</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="2">
         <v>109</v>
       </c>
       <c r="E111" t="s">
@@ -7212,7 +7206,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>318</v>
       </c>
@@ -7222,7 +7216,7 @@
       <c r="C112" t="s">
         <v>539</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="2">
         <v>110</v>
       </c>
       <c r="E112" t="s">
@@ -7253,7 +7247,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>318</v>
       </c>
@@ -7263,7 +7257,7 @@
       <c r="C113" t="s">
         <v>539</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="2">
         <v>111</v>
       </c>
       <c r="E113" t="s">
@@ -7294,7 +7288,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>318</v>
       </c>
@@ -7332,7 +7326,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>601</v>
       </c>
@@ -7373,7 +7367,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>601</v>
       </c>
@@ -7414,7 +7408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>601</v>
       </c>
@@ -7455,7 +7449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>601</v>
       </c>
@@ -7496,7 +7490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>601</v>
       </c>
@@ -7506,7 +7500,7 @@
       <c r="C119" t="s">
         <v>603</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="2">
         <v>117</v>
       </c>
       <c r="E119" t="s">
@@ -7537,7 +7531,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>601</v>
       </c>
@@ -7547,7 +7541,7 @@
       <c r="C120" t="s">
         <v>603</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="2">
         <v>118</v>
       </c>
       <c r="E120" t="s">
@@ -7578,7 +7572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>601</v>
       </c>
@@ -7619,7 +7613,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>601</v>
       </c>
@@ -7660,7 +7654,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>601</v>
       </c>
@@ -7670,7 +7664,7 @@
       <c r="C123" t="s">
         <v>635</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="2">
         <v>121</v>
       </c>
       <c r="E123" t="s">
@@ -7701,7 +7695,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>601</v>
       </c>
@@ -7711,7 +7705,7 @@
       <c r="C124" t="s">
         <v>635</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="2">
         <v>122</v>
       </c>
       <c r="E124" t="s">
@@ -7742,7 +7736,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>601</v>
       </c>
@@ -7752,7 +7746,7 @@
       <c r="C125" t="s">
         <v>635</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="2">
         <v>123</v>
       </c>
       <c r="E125" t="s">
@@ -7783,7 +7777,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>601</v>
       </c>
@@ -7793,7 +7787,7 @@
       <c r="C126" t="s">
         <v>635</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="2">
         <v>124</v>
       </c>
       <c r="E126" t="s">
@@ -7824,7 +7818,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>601</v>
       </c>
@@ -7834,7 +7828,7 @@
       <c r="C127" t="s">
         <v>635</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="2">
         <v>125</v>
       </c>
       <c r="E127" t="s">
@@ -7865,7 +7859,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>601</v>
       </c>
@@ -7875,7 +7869,7 @@
       <c r="C128" t="s">
         <v>635</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="2">
         <v>126</v>
       </c>
       <c r="E128" t="s">
@@ -7906,7 +7900,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>601</v>
       </c>
@@ -7916,7 +7910,7 @@
       <c r="C129" t="s">
         <v>635</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="2">
         <v>127</v>
       </c>
       <c r="E129" t="s">
@@ -7947,7 +7941,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>601</v>
       </c>
@@ -7957,7 +7951,7 @@
       <c r="C130" t="s">
         <v>635</v>
       </c>
-      <c r="D130">
+      <c r="D130" s="2">
         <v>128</v>
       </c>
       <c r="E130" t="s">
@@ -7988,7 +7982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>601</v>
       </c>
@@ -8029,7 +8023,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>601</v>
       </c>
@@ -8039,7 +8033,7 @@
       <c r="C132" t="s">
         <v>677</v>
       </c>
-      <c r="D132">
+      <c r="D132" s="2">
         <v>130</v>
       </c>
       <c r="E132" t="s">
@@ -8070,7 +8064,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>601</v>
       </c>
@@ -8080,7 +8074,7 @@
       <c r="C133" t="s">
         <v>677</v>
       </c>
-      <c r="D133">
+      <c r="D133" s="2">
         <v>131</v>
       </c>
       <c r="E133" t="s">
@@ -8111,7 +8105,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>601</v>
       </c>
@@ -8121,7 +8115,7 @@
       <c r="C134" t="s">
         <v>677</v>
       </c>
-      <c r="D134">
+      <c r="D134" s="2">
         <v>132</v>
       </c>
       <c r="E134" t="s">
@@ -8152,7 +8146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>601</v>
       </c>
@@ -8162,7 +8156,7 @@
       <c r="C135" t="s">
         <v>677</v>
       </c>
-      <c r="D135">
+      <c r="D135" s="2">
         <v>133</v>
       </c>
       <c r="E135" t="s">
@@ -8193,7 +8187,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>601</v>
       </c>
@@ -8203,7 +8197,7 @@
       <c r="C136" t="s">
         <v>677</v>
       </c>
-      <c r="D136">
+      <c r="D136" s="2">
         <v>134</v>
       </c>
       <c r="E136" t="s">
@@ -8234,7 +8228,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>601</v>
       </c>
@@ -8275,7 +8269,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>601</v>
       </c>
@@ -8316,7 +8310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>601</v>
       </c>
@@ -8357,7 +8351,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>601</v>
       </c>
@@ -8398,7 +8392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>601</v>
       </c>
@@ -8439,7 +8433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>601</v>
       </c>
@@ -8480,7 +8474,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>601</v>
       </c>
@@ -8521,7 +8515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>601</v>
       </c>

--- a/data-viz/inputs/report_outline_1.xlsx
+++ b/data-viz/inputs/report_outline_1.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{6EF89303-B0F5-499A-BFBF-15711A380B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{85E36D5E-133C-4F5E-AC5B-3B35030FFD94}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{6EF89303-B0F5-499A-BFBF-15711A380B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCFDC59E-7C7D-4654-8DDD-780EF40D9F17}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-135" yWindow="-16335" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outline" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">outline!$A$1:$M$144</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">outline!$A$1:$M$143</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1708" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="770">
   <si>
     <t>chapter</t>
   </si>
@@ -404,9 +404,6 @@
     <t>Distribution of reported legal problems in the last two years, by category</t>
   </si>
   <si>
-    <t>Ad-hoc</t>
-  </si>
-  <si>
     <t>Access to a dispute resolution mechanism (SDG indicator 16.3.3)</t>
   </si>
   <si>
@@ -455,9 +452,6 @@
     <t>q187,q189</t>
   </si>
   <si>
-    <t>% who expereinced a legal problem, finished their legal process, and think the process was fair, out of the % who experienced a legal problem and finished their legal process</t>
-  </si>
-  <si>
     <t>Graph 24. Fairness of the Resolution Process</t>
   </si>
   <si>
@@ -498,9 +492,6 @@
   </si>
   <si>
     <t>q187</t>
-  </si>
-  <si>
-    <t>AJR_state_resol</t>
   </si>
   <si>
     <t>% process is done with and problem fully resolved</t>
@@ -2339,22 +2330,28 @@
     <t>q154</t>
   </si>
   <si>
-    <t>q155</t>
-  </si>
-  <si>
     <t>Information and Advice</t>
   </si>
   <si>
-    <t>AJD_information</t>
-  </si>
-  <si>
-    <t>AJD_inst_advice</t>
-  </si>
-  <si>
     <t>% "A lot" or "Some"</t>
   </si>
   <si>
     <t>% "Very confident" or "Fairly confident"</t>
+  </si>
+  <si>
+    <t>Problem Selection</t>
+  </si>
+  <si>
+    <t>AJP_*_bin</t>
+  </si>
+  <si>
+    <t>AJP_*_bin, AJP_*_sev</t>
+  </si>
+  <si>
+    <t>Table</t>
+  </si>
+  <si>
+    <t>% who experienced a legal problem, finished their legal process, and think the process was fair, out of the % who experienced a legal problem and finished their legal process</t>
   </si>
 </sst>
 </file>
@@ -2370,7 +2367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2380,6 +2377,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2399,7 +2402,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2696,26 +2699,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M144"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G119" sqref="G119"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="8" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="47.33203125" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="27.21875" customWidth="1"/>
+    <col min="9" max="9" width="52.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2732,7 +2735,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -2756,7 +2759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2766,7 +2769,7 @@
       <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -2782,7 +2785,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="J2" t="s">
         <v>19</v>
@@ -2797,7 +2800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2807,7 +2810,7 @@
       <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -2823,7 +2826,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -2838,7 +2841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2848,7 +2851,7 @@
       <c r="C4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
@@ -2864,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>
@@ -2879,7 +2882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2889,7 +2892,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
@@ -2905,7 +2908,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="J5" t="s">
         <v>19</v>
@@ -2920,7 +2923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2930,7 +2933,7 @@
       <c r="C6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
@@ -2943,7 +2946,7 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I6" t="s">
         <v>41</v>
@@ -2961,7 +2964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -2971,7 +2974,7 @@
       <c r="C7" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
@@ -2984,7 +2987,7 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I7" t="s">
         <v>41</v>
@@ -3002,7 +3005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3012,7 +3015,7 @@
       <c r="C8" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
@@ -3025,7 +3028,7 @@
         <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I8" t="s">
         <v>41</v>
@@ -3043,7 +3046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3053,7 +3056,7 @@
       <c r="C9" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
@@ -3066,7 +3069,7 @@
         <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I9" t="s">
         <v>41</v>
@@ -3084,7 +3087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3094,7 +3097,7 @@
       <c r="C10" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
@@ -3107,7 +3110,7 @@
         <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I10" t="s">
         <v>63</v>
@@ -3125,7 +3128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3135,7 +3138,7 @@
       <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
@@ -3148,7 +3151,7 @@
         <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -3166,7 +3169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3176,7 +3179,7 @@
       <c r="C12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
@@ -3189,7 +3192,7 @@
         <v>73</v>
       </c>
       <c r="H12" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I12" t="s">
         <v>63</v>
@@ -3207,7 +3210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3217,7 +3220,7 @@
       <c r="C13" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
@@ -3230,7 +3233,7 @@
         <v>78</v>
       </c>
       <c r="H13" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I13" t="s">
         <v>63</v>
@@ -3248,7 +3251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3258,7 +3261,7 @@
       <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
@@ -3271,7 +3274,7 @@
         <v>83</v>
       </c>
       <c r="H14" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I14" t="s">
         <v>63</v>
@@ -3289,7 +3292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3299,7 +3302,7 @@
       <c r="C15" t="s">
         <v>59</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
@@ -3312,7 +3315,7 @@
         <v>88</v>
       </c>
       <c r="H15" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I15" t="s">
         <v>63</v>
@@ -3330,7 +3333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3340,7 +3343,7 @@
       <c r="C16" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
@@ -3353,7 +3356,7 @@
         <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I16" t="s">
         <v>63</v>
@@ -3371,7 +3374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3381,7 +3384,7 @@
       <c r="C17" t="s">
         <v>59</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
@@ -3394,7 +3397,7 @@
         <v>98</v>
       </c>
       <c r="H17" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I17" t="s">
         <v>63</v>
@@ -3412,7 +3415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3422,7 +3425,7 @@
       <c r="C18" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="2">
+      <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
@@ -3435,7 +3438,7 @@
         <v>103</v>
       </c>
       <c r="H18" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I18" t="s">
         <v>63</v>
@@ -3453,7 +3456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3463,16 +3466,22 @@
       <c r="C19" t="s">
         <v>106</v>
       </c>
-      <c r="D19" s="1">
+      <c r="D19" s="2">
         <v>18</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I19" t="s">
+      <c r="G19" s="2" t="s">
+        <v>766</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>109</v>
       </c>
       <c r="J19" t="s">
@@ -3488,7 +3497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3498,16 +3507,22 @@
       <c r="C20" t="s">
         <v>106</v>
       </c>
-      <c r="D20" s="1">
+      <c r="D20" s="2">
         <v>19</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I20" t="s">
+      <c r="G20" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>115</v>
       </c>
       <c r="J20" t="s">
@@ -3523,7 +3538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3533,16 +3548,22 @@
       <c r="C21" t="s">
         <v>106</v>
       </c>
-      <c r="D21" s="1">
+      <c r="D21" s="2">
         <v>20</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I21" t="s">
+      <c r="G21" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>119</v>
       </c>
       <c r="J21" t="s">
@@ -3555,10 +3576,10 @@
         <v>121</v>
       </c>
       <c r="M21" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3568,32 +3589,34 @@
       <c r="C22" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="1">
+      <c r="D22" s="2">
         <v>21</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2" t="s">
         <v>124</v>
-      </c>
-      <c r="I22" t="s">
-        <v>125</v>
       </c>
       <c r="J22" t="s">
         <v>19</v>
       </c>
       <c r="K22" t="s">
+        <v>125</v>
+      </c>
+      <c r="L22" t="s">
         <v>126</v>
-      </c>
-      <c r="L22" t="s">
-        <v>127</v>
       </c>
       <c r="M22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3603,38 +3626,36 @@
       <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="D23" s="1">
+      <c r="D23" s="2">
         <v>22</v>
       </c>
-      <c r="E23" t="s">
-        <v>128</v>
-      </c>
-      <c r="F23" t="s">
-        <v>764</v>
-      </c>
-      <c r="G23" t="s">
-        <v>767</v>
-      </c>
-      <c r="H23" t="s">
-        <v>766</v>
-      </c>
-      <c r="I23" t="s">
-        <v>130</v>
+      <c r="E23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="J23" t="s">
         <v>19</v>
       </c>
       <c r="K23" t="s">
+        <v>130</v>
+      </c>
+      <c r="L23" t="s">
         <v>131</v>
-      </c>
-      <c r="L23" t="s">
-        <v>132</v>
       </c>
       <c r="M23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3644,38 +3665,34 @@
       <c r="C24" t="s">
         <v>106</v>
       </c>
-      <c r="D24" s="1">
-        <v>22</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2">
+        <v>23</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F24" t="s">
-        <v>765</v>
-      </c>
-      <c r="G24" t="s">
-        <v>768</v>
-      </c>
-      <c r="H24" t="s">
-        <v>766</v>
-      </c>
-      <c r="I24" t="s">
-        <v>130</v>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="J24" t="s">
         <v>19</v>
       </c>
       <c r="K24" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="L24" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="M24" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3685,32 +3702,34 @@
       <c r="C25" t="s">
         <v>106</v>
       </c>
-      <c r="D25" s="1">
-        <v>23</v>
-      </c>
-      <c r="E25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" t="s">
-        <v>129</v>
-      </c>
-      <c r="I25" t="s">
-        <v>134</v>
+      <c r="D25" s="2">
+        <v>24</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2" t="s">
+        <v>769</v>
       </c>
       <c r="J25" t="s">
         <v>19</v>
       </c>
       <c r="K25" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L25" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3720,32 +3739,34 @@
       <c r="C26" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="1">
-        <v>24</v>
-      </c>
-      <c r="E26" t="s">
-        <v>137</v>
-      </c>
-      <c r="F26" t="s">
-        <v>138</v>
-      </c>
-      <c r="I26" t="s">
-        <v>139</v>
+      <c r="D26" s="2">
+        <v>25</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="J26" t="s">
         <v>19</v>
       </c>
       <c r="K26" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="L26" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="M26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3755,32 +3776,34 @@
       <c r="C27" t="s">
         <v>106</v>
       </c>
-      <c r="D27" s="1">
-        <v>25</v>
-      </c>
-      <c r="E27" t="s">
-        <v>142</v>
-      </c>
-      <c r="F27" t="s">
-        <v>143</v>
-      </c>
-      <c r="I27" t="s">
-        <v>144</v>
+      <c r="D27" s="2">
+        <v>26</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="J27" t="s">
         <v>19</v>
       </c>
       <c r="K27" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L27" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3790,32 +3813,36 @@
       <c r="C28" t="s">
         <v>106</v>
       </c>
-      <c r="D28" s="1">
-        <v>26</v>
-      </c>
-      <c r="E28" t="s">
-        <v>147</v>
-      </c>
-      <c r="F28" t="s">
-        <v>148</v>
-      </c>
-      <c r="I28" t="s">
-        <v>149</v>
+      <c r="D28" s="2">
+        <v>27</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>152</v>
       </c>
       <c r="J28" t="s">
         <v>19</v>
       </c>
       <c r="K28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="L28" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M28" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3825,38 +3852,34 @@
       <c r="C29" t="s">
         <v>106</v>
       </c>
-      <c r="D29" s="1">
-        <v>27</v>
-      </c>
-      <c r="E29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" t="s">
-        <v>154</v>
-      </c>
-      <c r="H29" t="s">
-        <v>751</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="D29" s="2">
+        <v>28</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>155</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J29" t="s">
         <v>19</v>
       </c>
       <c r="K29" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L29" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3866,459 +3889,467 @@
       <c r="C30" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="1">
-        <v>28</v>
-      </c>
-      <c r="E30" t="s">
-        <v>158</v>
-      </c>
-      <c r="F30" t="s">
-        <v>159</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="D30" s="2">
+        <v>29</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>160</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="J30" t="s">
         <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L30" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="C31" t="s">
-        <v>106</v>
-      </c>
-      <c r="D31" s="1">
-        <v>29</v>
+        <v>165</v>
+      </c>
+      <c r="D31">
+        <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>164</v>
+        <v>167</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" t="s">
+        <v>749</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="J31" t="s">
         <v>19</v>
       </c>
       <c r="K31" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>12</v>
       </c>
       <c r="B32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>168</v>
-      </c>
-      <c r="D32" s="2">
-        <v>30</v>
+        <v>165</v>
+      </c>
+      <c r="D32">
+        <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F32" t="s">
+        <v>173</v>
+      </c>
+      <c r="G32" t="s">
+        <v>174</v>
+      </c>
+      <c r="H32" t="s">
+        <v>749</v>
+      </c>
+      <c r="I32" t="s">
         <v>169</v>
-      </c>
-      <c r="F32" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" t="s">
-        <v>752</v>
-      </c>
-      <c r="I32" t="s">
-        <v>172</v>
       </c>
       <c r="J32" t="s">
         <v>19</v>
       </c>
       <c r="K32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>12</v>
       </c>
       <c r="B33" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" s="2">
-        <v>31</v>
+        <v>177</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F33" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G33" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H33" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I33" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="J33" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K33" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L33" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M33" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="2">
-        <v>32</v>
+        <v>177</v>
+      </c>
+      <c r="D34">
+        <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G34" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H34" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I34" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
       </c>
       <c r="K34" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L34" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M34" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C35" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G35" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H35" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J35" t="s">
         <v>42</v>
       </c>
       <c r="K35" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="L35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M35" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C36" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G36" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I36" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J36" t="s">
         <v>42</v>
       </c>
       <c r="K36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L36" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>12</v>
       </c>
       <c r="B37" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C37" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F37" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H37" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J37" t="s">
         <v>42</v>
       </c>
       <c r="K37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="L37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>12</v>
       </c>
       <c r="B38" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F38" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G38" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H38" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I38" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J38" t="s">
         <v>42</v>
       </c>
       <c r="K38" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="L38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="M38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>12</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H39" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="I39" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J39" t="s">
         <v>42</v>
       </c>
       <c r="K39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M39" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
       <c r="B40" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="D40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H40" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I40" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K40" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M40" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>12</v>
       </c>
       <c r="B41" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>216</v>
-      </c>
-      <c r="D41" s="2">
-        <v>39</v>
+        <v>213</v>
+      </c>
+      <c r="D41">
+        <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G41" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H41" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I41" t="s">
         <v>63</v>
@@ -4327,39 +4358,39 @@
         <v>19</v>
       </c>
       <c r="K41" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L41" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>12</v>
       </c>
       <c r="B42" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>216</v>
-      </c>
-      <c r="D42" s="2">
-        <v>40</v>
+        <v>213</v>
+      </c>
+      <c r="D42">
+        <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F42" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G42" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H42" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I42" t="s">
         <v>63</v>
@@ -4368,39 +4399,39 @@
         <v>19</v>
       </c>
       <c r="K42" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M42" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>12</v>
       </c>
       <c r="B43" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
-      </c>
-      <c r="D43" s="2">
-        <v>41</v>
+        <v>213</v>
+      </c>
+      <c r="D43">
+        <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F43" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G43" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H43" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I43" t="s">
         <v>63</v>
@@ -4409,39 +4440,39 @@
         <v>19</v>
       </c>
       <c r="K43" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L43" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M43" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C44" t="s">
-        <v>216</v>
-      </c>
-      <c r="D44" s="2">
-        <v>42</v>
+        <v>213</v>
+      </c>
+      <c r="D44">
+        <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F44" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G44" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H44" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I44" t="s">
         <v>63</v>
@@ -4450,39 +4481,39 @@
         <v>19</v>
       </c>
       <c r="K44" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L44" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M44" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C45" t="s">
-        <v>216</v>
-      </c>
-      <c r="D45" s="2">
-        <v>43</v>
+        <v>213</v>
+      </c>
+      <c r="D45">
+        <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F45" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="G45" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="H45" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I45" t="s">
         <v>63</v>
@@ -4491,39 +4522,39 @@
         <v>19</v>
       </c>
       <c r="K45" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L45" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C46" t="s">
-        <v>216</v>
-      </c>
-      <c r="D46" s="2">
-        <v>44</v>
+        <v>213</v>
+      </c>
+      <c r="D46">
+        <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G46" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H46" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I46" t="s">
         <v>63</v>
@@ -4532,39 +4563,39 @@
         <v>19</v>
       </c>
       <c r="K46" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L46" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M46" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C47" t="s">
-        <v>216</v>
-      </c>
-      <c r="D47" s="2">
-        <v>45</v>
+        <v>213</v>
+      </c>
+      <c r="D47">
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F47" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G47" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H47" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I47" t="s">
         <v>63</v>
@@ -4573,285 +4604,285 @@
         <v>19</v>
       </c>
       <c r="K47" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="L47" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="M47" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C48" t="s">
-        <v>216</v>
-      </c>
-      <c r="D48" s="2">
-        <v>46</v>
+        <v>213</v>
+      </c>
+      <c r="D48">
+        <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F48" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G48" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H48" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I48" t="s">
-        <v>63</v>
+        <v>764</v>
       </c>
       <c r="J48" t="s">
         <v>19</v>
       </c>
       <c r="K48" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L48" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M48" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>12</v>
       </c>
       <c r="B49" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C49" t="s">
-        <v>216</v>
-      </c>
-      <c r="D49" s="2">
-        <v>47</v>
+        <v>213</v>
+      </c>
+      <c r="D49">
+        <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F49" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G49" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H49" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I49" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J49" t="s">
         <v>19</v>
       </c>
       <c r="K49" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L49" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M49" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>12</v>
       </c>
       <c r="B50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>216</v>
-      </c>
-      <c r="D50" s="2">
-        <v>48</v>
+        <v>263</v>
+      </c>
+      <c r="D50">
+        <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F50" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H50" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I50" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J50" t="s">
         <v>19</v>
       </c>
       <c r="K50" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="L50" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="M50" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>12</v>
       </c>
       <c r="B51" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C51" t="s">
-        <v>266</v>
-      </c>
-      <c r="D51" s="2">
-        <v>49</v>
+        <v>263</v>
+      </c>
+      <c r="D51">
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F51" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G51" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H51" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I51" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J51" t="s">
         <v>19</v>
       </c>
       <c r="K51" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L51" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>12</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>266</v>
-      </c>
-      <c r="D52" s="2">
-        <v>50</v>
+        <v>263</v>
+      </c>
+      <c r="D52">
+        <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F52" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G52" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H52" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I52" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J52" t="s">
         <v>19</v>
       </c>
       <c r="K52" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="L52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M52" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>12</v>
       </c>
       <c r="B53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C53" t="s">
-        <v>266</v>
-      </c>
-      <c r="D53" s="2">
-        <v>51</v>
+        <v>279</v>
+      </c>
+      <c r="D53">
+        <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="F53" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="G53" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="H53" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="I53" t="s">
-        <v>770</v>
+        <v>63</v>
       </c>
       <c r="J53" t="s">
         <v>19</v>
       </c>
       <c r="K53" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L53" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M53" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>12</v>
       </c>
       <c r="B54" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>282</v>
-      </c>
-      <c r="D54" s="2">
-        <v>52</v>
+        <v>279</v>
+      </c>
+      <c r="D54">
+        <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="F54" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="G54" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H54" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I54" t="s">
         <v>63</v>
@@ -4860,39 +4891,39 @@
         <v>19</v>
       </c>
       <c r="K54" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L54" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M54" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>12</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>282</v>
-      </c>
-      <c r="D55" s="2">
-        <v>53</v>
+        <v>279</v>
+      </c>
+      <c r="D55">
+        <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F55" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G55" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="H55" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="I55" t="s">
         <v>63</v>
@@ -4901,244 +4932,244 @@
         <v>19</v>
       </c>
       <c r="K55" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>12</v>
       </c>
       <c r="B56" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C56" t="s">
-        <v>282</v>
-      </c>
-      <c r="D56" s="2">
-        <v>54</v>
+        <v>279</v>
+      </c>
+      <c r="D56">
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F56" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H56" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I56" t="s">
-        <v>63</v>
+        <v>764</v>
       </c>
       <c r="J56" t="s">
         <v>19</v>
       </c>
       <c r="K56" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="L56" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="M56" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C57" t="s">
-        <v>282</v>
-      </c>
-      <c r="D57" s="2">
-        <v>55</v>
+        <v>279</v>
+      </c>
+      <c r="D57">
+        <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F57" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="G57" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H57" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I57" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J57" t="s">
         <v>19</v>
       </c>
       <c r="K57" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="L57" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M57" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C58" t="s">
-        <v>282</v>
-      </c>
-      <c r="D58" s="2">
-        <v>56</v>
+        <v>279</v>
+      </c>
+      <c r="D58">
+        <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F58" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G58" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="H58" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I58" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J58" t="s">
         <v>19</v>
       </c>
       <c r="K58" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L58" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M58" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C59" t="s">
-        <v>282</v>
-      </c>
-      <c r="D59" s="2">
-        <v>57</v>
+        <v>279</v>
+      </c>
+      <c r="D59">
+        <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="F59" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G59" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="H59" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="I59" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J59" t="s">
         <v>19</v>
       </c>
       <c r="K59" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L59" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M59" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>12</v>
+        <v>315</v>
       </c>
       <c r="B60" t="s">
-        <v>167</v>
+        <v>316</v>
       </c>
       <c r="C60" t="s">
-        <v>282</v>
-      </c>
-      <c r="D60" s="2">
-        <v>58</v>
+        <v>317</v>
+      </c>
+      <c r="D60">
+        <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F60" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G60" t="s">
+        <v>320</v>
+      </c>
+      <c r="H60" t="s">
+        <v>753</v>
+      </c>
+      <c r="I60" t="s">
+        <v>63</v>
+      </c>
+      <c r="J60" t="s">
+        <v>42</v>
+      </c>
+      <c r="K60" t="s">
+        <v>321</v>
+      </c>
+      <c r="L60" t="s">
+        <v>322</v>
+      </c>
+      <c r="M60" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>315</v>
       </c>
-      <c r="H60" t="s">
-        <v>755</v>
-      </c>
-      <c r="I60" t="s">
-        <v>770</v>
-      </c>
-      <c r="J60" t="s">
-        <v>19</v>
-      </c>
-      <c r="K60" t="s">
+      <c r="B61" t="s">
         <v>316</v>
       </c>
-      <c r="L60" t="s">
+      <c r="C61" t="s">
         <v>317</v>
       </c>
-      <c r="M60" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>318</v>
-      </c>
-      <c r="B61" t="s">
-        <v>319</v>
-      </c>
-      <c r="C61" t="s">
-        <v>320</v>
-      </c>
-      <c r="D61" s="2">
-        <v>59</v>
+      <c r="D61">
+        <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F61" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G61" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H61" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I61" t="s">
         <v>63</v>
@@ -5147,39 +5178,39 @@
         <v>42</v>
       </c>
       <c r="K61" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="L61" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="M61" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B62" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C62" t="s">
-        <v>320</v>
-      </c>
-      <c r="D62" s="2">
-        <v>60</v>
+        <v>317</v>
+      </c>
+      <c r="D62">
+        <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="F62" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G62" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="H62" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I62" t="s">
         <v>63</v>
@@ -5188,39 +5219,39 @@
         <v>42</v>
       </c>
       <c r="K62" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L62" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M62" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B63" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C63" t="s">
-        <v>320</v>
-      </c>
-      <c r="D63" s="2">
-        <v>61</v>
+        <v>317</v>
+      </c>
+      <c r="D63">
+        <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F63" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G63" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H63" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I63" t="s">
         <v>63</v>
@@ -5229,39 +5260,39 @@
         <v>42</v>
       </c>
       <c r="K63" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L63" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M63" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B64" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C64" t="s">
-        <v>320</v>
-      </c>
-      <c r="D64" s="2">
-        <v>62</v>
+        <v>317</v>
+      </c>
+      <c r="D64">
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F64" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G64" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H64" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I64" t="s">
         <v>63</v>
@@ -5270,39 +5301,39 @@
         <v>42</v>
       </c>
       <c r="K64" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="L64" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="M64" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B65" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C65" t="s">
-        <v>320</v>
-      </c>
-      <c r="D65" s="2">
-        <v>63</v>
+        <v>317</v>
+      </c>
+      <c r="D65">
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F65" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G65" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H65" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I65" t="s">
         <v>63</v>
@@ -5311,39 +5342,39 @@
         <v>42</v>
       </c>
       <c r="K65" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="L65" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M65" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B66" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C66" t="s">
-        <v>320</v>
-      </c>
-      <c r="D66" s="2">
-        <v>64</v>
+        <v>317</v>
+      </c>
+      <c r="D66">
+        <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F66" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G66" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="H66" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I66" t="s">
         <v>63</v>
@@ -5352,39 +5383,39 @@
         <v>42</v>
       </c>
       <c r="K66" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="L66" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="M66" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B67" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C67" t="s">
-        <v>320</v>
-      </c>
-      <c r="D67" s="2">
-        <v>65</v>
+        <v>317</v>
+      </c>
+      <c r="D67">
+        <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F67" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G67" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="H67" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I67" t="s">
         <v>63</v>
@@ -5393,39 +5424,39 @@
         <v>42</v>
       </c>
       <c r="K67" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L67" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M67" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B68" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C68" t="s">
-        <v>320</v>
-      </c>
-      <c r="D68" s="2">
-        <v>66</v>
+        <v>317</v>
+      </c>
+      <c r="D68">
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F68" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G68" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H68" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I68" t="s">
         <v>63</v>
@@ -5434,39 +5465,39 @@
         <v>42</v>
       </c>
       <c r="K68" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L68" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M68" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B69" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C69" t="s">
-        <v>320</v>
-      </c>
-      <c r="D69" s="2">
-        <v>67</v>
+        <v>364</v>
+      </c>
+      <c r="D69">
+        <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F69" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G69" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H69" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I69" t="s">
         <v>63</v>
@@ -5475,39 +5506,39 @@
         <v>42</v>
       </c>
       <c r="K69" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L69" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="M69" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B70" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C70" t="s">
-        <v>367</v>
-      </c>
-      <c r="D70" s="2">
-        <v>68</v>
+        <v>364</v>
+      </c>
+      <c r="D70">
+        <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F70" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G70" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="H70" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I70" t="s">
         <v>63</v>
@@ -5516,39 +5547,39 @@
         <v>42</v>
       </c>
       <c r="K70" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="L70" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M70" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B71" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C71" t="s">
-        <v>367</v>
-      </c>
-      <c r="D71" s="2">
-        <v>69</v>
+        <v>364</v>
+      </c>
+      <c r="D71">
+        <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F71" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G71" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="H71" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I71" t="s">
         <v>63</v>
@@ -5557,39 +5588,39 @@
         <v>42</v>
       </c>
       <c r="K71" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="L71" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="M71" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B72" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C72" t="s">
-        <v>367</v>
-      </c>
-      <c r="D72" s="2">
-        <v>70</v>
+        <v>364</v>
+      </c>
+      <c r="D72">
+        <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F72" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G72" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="H72" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I72" t="s">
         <v>63</v>
@@ -5598,39 +5629,39 @@
         <v>42</v>
       </c>
       <c r="K72" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L72" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M72" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B73" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C73" t="s">
-        <v>367</v>
-      </c>
-      <c r="D73" s="2">
-        <v>71</v>
+        <v>364</v>
+      </c>
+      <c r="D73">
+        <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F73" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G73" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="H73" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I73" t="s">
         <v>63</v>
@@ -5639,39 +5670,39 @@
         <v>42</v>
       </c>
       <c r="K73" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="L73" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="M73" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B74" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C74" t="s">
-        <v>367</v>
-      </c>
-      <c r="D74" s="2">
-        <v>72</v>
+        <v>364</v>
+      </c>
+      <c r="D74">
+        <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F74" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G74" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="H74" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I74" t="s">
         <v>63</v>
@@ -5680,80 +5711,80 @@
         <v>42</v>
       </c>
       <c r="K74" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="L74" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M74" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B75" t="s">
-        <v>319</v>
+        <v>395</v>
       </c>
       <c r="C75" t="s">
-        <v>367</v>
-      </c>
-      <c r="D75" s="2">
-        <v>73</v>
+        <v>395</v>
+      </c>
+      <c r="D75">
+        <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F75" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="G75" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="H75" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="I75" t="s">
         <v>63</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K75" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="L75" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="M75" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B76" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C76" t="s">
-        <v>398</v>
-      </c>
-      <c r="D76" s="2">
-        <v>74</v>
+        <v>395</v>
+      </c>
+      <c r="D76">
+        <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F76" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G76" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H76" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="I76" t="s">
         <v>63</v>
@@ -5762,80 +5793,80 @@
         <v>19</v>
       </c>
       <c r="K76" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L76" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M76" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B77" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C77" t="s">
-        <v>398</v>
-      </c>
-      <c r="D77" s="2">
-        <v>75</v>
+        <v>395</v>
+      </c>
+      <c r="D77">
+        <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F77" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="G77" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="H77" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="I77" t="s">
         <v>63</v>
       </c>
       <c r="J77" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K77" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="L77" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M77" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B78" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C78" t="s">
-        <v>398</v>
-      </c>
-      <c r="D78" s="2">
-        <v>76</v>
+        <v>395</v>
+      </c>
+      <c r="D78">
+        <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F78" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="G78" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="H78" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I78" t="s">
         <v>63</v>
@@ -5844,39 +5875,39 @@
         <v>42</v>
       </c>
       <c r="K78" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L78" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M78" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B79" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C79" t="s">
-        <v>398</v>
-      </c>
-      <c r="D79" s="2">
-        <v>77</v>
+        <v>395</v>
+      </c>
+      <c r="D79">
+        <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F79" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G79" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H79" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="I79" t="s">
         <v>63</v>
@@ -5885,80 +5916,80 @@
         <v>42</v>
       </c>
       <c r="K79" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="L79" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M79" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B80" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="C80" t="s">
-        <v>398</v>
-      </c>
-      <c r="D80" s="2">
-        <v>78</v>
+        <v>422</v>
+      </c>
+      <c r="D80">
+        <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F80" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G80" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H80" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I80" t="s">
         <v>63</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K80" t="s">
+        <v>426</v>
+      </c>
+      <c r="L80" t="s">
+        <v>427</v>
+      </c>
+      <c r="M80" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>315</v>
+      </c>
+      <c r="B81" t="s">
+        <v>421</v>
+      </c>
+      <c r="C81" t="s">
         <v>422</v>
       </c>
-      <c r="L80" t="s">
-        <v>423</v>
-      </c>
-      <c r="M80" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>318</v>
-      </c>
-      <c r="B81" t="s">
-        <v>424</v>
-      </c>
-      <c r="C81" t="s">
-        <v>425</v>
-      </c>
-      <c r="D81" s="2">
-        <v>79</v>
+      <c r="D81">
+        <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F81" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G81" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H81" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I81" t="s">
         <v>63</v>
@@ -5967,39 +5998,39 @@
         <v>19</v>
       </c>
       <c r="K81" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L81" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M81" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B82" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C82" t="s">
-        <v>425</v>
-      </c>
-      <c r="D82" s="2">
-        <v>80</v>
+        <v>422</v>
+      </c>
+      <c r="D82">
+        <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F82" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G82" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H82" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="I82" t="s">
         <v>63</v>
@@ -6008,39 +6039,39 @@
         <v>19</v>
       </c>
       <c r="K82" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="L82" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="M82" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B83" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C83" t="s">
-        <v>425</v>
-      </c>
-      <c r="D83" s="2">
-        <v>81</v>
+        <v>422</v>
+      </c>
+      <c r="D83">
+        <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F83" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="G83" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="H83" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I83" t="s">
         <v>63</v>
@@ -6049,39 +6080,39 @@
         <v>19</v>
       </c>
       <c r="K83" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="L83" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M83" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B84" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C84" t="s">
-        <v>425</v>
-      </c>
-      <c r="D84" s="2">
-        <v>82</v>
+        <v>422</v>
+      </c>
+      <c r="D84">
+        <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F84" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G84" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H84" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I84" t="s">
         <v>63</v>
@@ -6090,39 +6121,39 @@
         <v>19</v>
       </c>
       <c r="K84" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="L84" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M84" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B85" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C85" t="s">
-        <v>425</v>
-      </c>
-      <c r="D85" s="2">
-        <v>83</v>
+        <v>422</v>
+      </c>
+      <c r="D85">
+        <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F85" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="G85" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H85" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I85" t="s">
         <v>63</v>
@@ -6131,39 +6162,39 @@
         <v>19</v>
       </c>
       <c r="K85" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L85" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M85" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C86" t="s">
-        <v>425</v>
-      </c>
-      <c r="D86" s="2">
-        <v>84</v>
+        <v>453</v>
+      </c>
+      <c r="D86">
+        <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F86" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="G86" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H86" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="I86" t="s">
         <v>63</v>
@@ -6172,39 +6203,39 @@
         <v>19</v>
       </c>
       <c r="K86" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L86" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M86" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B87" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C87" t="s">
-        <v>456</v>
-      </c>
-      <c r="D87" s="2">
-        <v>85</v>
+        <v>453</v>
+      </c>
+      <c r="D87">
+        <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F87" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="G87" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="H87" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I87" t="s">
         <v>63</v>
@@ -6213,39 +6244,39 @@
         <v>19</v>
       </c>
       <c r="K87" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="L87" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="M87" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B88" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C88" t="s">
-        <v>456</v>
-      </c>
-      <c r="D88" s="2">
-        <v>86</v>
+        <v>453</v>
+      </c>
+      <c r="D88">
+        <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F88" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="G88" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="H88" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I88" t="s">
         <v>63</v>
@@ -6254,39 +6285,39 @@
         <v>19</v>
       </c>
       <c r="K88" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L88" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M88" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B89" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C89" t="s">
-        <v>456</v>
-      </c>
-      <c r="D89" s="2">
-        <v>87</v>
+        <v>453</v>
+      </c>
+      <c r="D89">
+        <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F89" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="G89" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="H89" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="I89" t="s">
         <v>63</v>
@@ -6295,39 +6326,39 @@
         <v>19</v>
       </c>
       <c r="K89" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="L89" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M89" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B90" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C90" t="s">
-        <v>456</v>
-      </c>
-      <c r="D90" s="2">
-        <v>88</v>
+        <v>453</v>
+      </c>
+      <c r="D90">
+        <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F90" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G90" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="H90" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I90" t="s">
         <v>63</v>
@@ -6336,39 +6367,39 @@
         <v>19</v>
       </c>
       <c r="K90" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="L90" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M90" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B91" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C91" t="s">
-        <v>456</v>
-      </c>
-      <c r="D91" s="2">
-        <v>89</v>
+        <v>453</v>
+      </c>
+      <c r="D91">
+        <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F91" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="G91" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="H91" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I91" t="s">
         <v>63</v>
@@ -6377,39 +6408,39 @@
         <v>19</v>
       </c>
       <c r="K91" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="L91" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="M91" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B92" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C92" t="s">
-        <v>456</v>
-      </c>
-      <c r="D92" s="2">
-        <v>90</v>
+        <v>453</v>
+      </c>
+      <c r="D92">
+        <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F92" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G92" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="H92" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I92" t="s">
         <v>63</v>
@@ -6418,39 +6449,39 @@
         <v>19</v>
       </c>
       <c r="K92" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L92" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M92" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C93" t="s">
-        <v>456</v>
-      </c>
-      <c r="D93" s="2">
-        <v>91</v>
+        <v>489</v>
+      </c>
+      <c r="D93">
+        <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F93" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G93" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H93" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="I93" t="s">
         <v>63</v>
@@ -6459,39 +6490,39 @@
         <v>19</v>
       </c>
       <c r="K93" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="L93" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M93" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B94" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C94" t="s">
-        <v>492</v>
-      </c>
-      <c r="D94" s="2">
-        <v>92</v>
+        <v>489</v>
+      </c>
+      <c r="D94">
+        <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F94" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="G94" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="H94" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I94" t="s">
         <v>63</v>
@@ -6500,203 +6531,203 @@
         <v>19</v>
       </c>
       <c r="K94" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="L94" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="M94" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B95" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C95" t="s">
-        <v>492</v>
-      </c>
-      <c r="D95" s="2">
-        <v>93</v>
+        <v>500</v>
+      </c>
+      <c r="D95">
+        <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F95" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="G95" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="H95" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I95" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="J95" t="s">
         <v>19</v>
       </c>
       <c r="K95" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="L95" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="M95" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B96" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C96" t="s">
-        <v>503</v>
-      </c>
-      <c r="D96" s="2">
-        <v>94</v>
+        <v>500</v>
+      </c>
+      <c r="D96">
+        <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F96" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="G96" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="H96" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="I96" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J96" t="s">
         <v>19</v>
       </c>
       <c r="K96" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="L96" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M96" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B97" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C97" t="s">
-        <v>503</v>
-      </c>
-      <c r="D97" s="2">
-        <v>95</v>
+        <v>500</v>
+      </c>
+      <c r="D97">
+        <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F97" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="G97" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="H97" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="I97" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J97" t="s">
         <v>19</v>
       </c>
       <c r="K97" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="L97" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="M97" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B98" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C98" t="s">
-        <v>503</v>
-      </c>
-      <c r="D98" s="2">
-        <v>96</v>
+        <v>500</v>
+      </c>
+      <c r="D98">
+        <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F98" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="G98" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="H98" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="I98" t="s">
-        <v>160</v>
+        <v>63</v>
       </c>
       <c r="J98" t="s">
         <v>19</v>
       </c>
       <c r="K98" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="L98" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M98" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B99" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C99" t="s">
-        <v>503</v>
-      </c>
-      <c r="D99" s="2">
-        <v>97</v>
+        <v>500</v>
+      </c>
+      <c r="D99">
+        <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F99" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G99" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="H99" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="I99" t="s">
         <v>63</v>
@@ -6705,39 +6736,39 @@
         <v>19</v>
       </c>
       <c r="K99" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="L99" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M99" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B100" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C100" t="s">
-        <v>503</v>
-      </c>
-      <c r="D100" s="2">
-        <v>98</v>
+        <v>500</v>
+      </c>
+      <c r="D100">
+        <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F100" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G100" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="H100" t="s">
-        <v>757</v>
+        <v>745</v>
       </c>
       <c r="I100" t="s">
         <v>63</v>
@@ -6746,39 +6777,39 @@
         <v>19</v>
       </c>
       <c r="K100" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="L100" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M100" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B101" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C101" t="s">
-        <v>503</v>
-      </c>
-      <c r="D101" s="2">
-        <v>99</v>
+        <v>500</v>
+      </c>
+      <c r="D101">
+        <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F101" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="G101" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="H101" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="I101" t="s">
         <v>63</v>
@@ -6787,610 +6818,610 @@
         <v>19</v>
       </c>
       <c r="K101" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="L101" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="M101" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B102" t="s">
-        <v>424</v>
+        <v>536</v>
       </c>
       <c r="C102" t="s">
-        <v>503</v>
-      </c>
-      <c r="D102" s="2">
-        <v>100</v>
+        <v>536</v>
+      </c>
+      <c r="D102">
+        <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F102" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="G102" t="s">
+        <v>539</v>
+      </c>
+      <c r="H102" t="s">
         <v>536</v>
       </c>
-      <c r="H102" t="s">
-        <v>748</v>
-      </c>
       <c r="I102" t="s">
-        <v>63</v>
+        <v>157</v>
       </c>
       <c r="J102" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K102" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="L102" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M102" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B103" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C103" t="s">
-        <v>539</v>
-      </c>
-      <c r="D103" s="2">
-        <v>101</v>
+        <v>536</v>
+      </c>
+      <c r="D103">
+        <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F103" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="G103" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="H103" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I103" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J103" t="s">
         <v>42</v>
       </c>
       <c r="K103" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="L103" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M103" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C104" t="s">
-        <v>539</v>
-      </c>
-      <c r="D104" s="2">
-        <v>102</v>
+        <v>536</v>
+      </c>
+      <c r="D104">
+        <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F104" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="G104" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="H104" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I104" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J104" t="s">
         <v>42</v>
       </c>
       <c r="K104" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="L104" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="M104" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B105" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C105" t="s">
-        <v>539</v>
-      </c>
-      <c r="D105" s="2">
-        <v>103</v>
+        <v>536</v>
+      </c>
+      <c r="D105">
+        <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F105" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G105" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="H105" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I105" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J105" t="s">
         <v>42</v>
       </c>
       <c r="K105" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="L105" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M105" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B106" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C106" t="s">
-        <v>539</v>
-      </c>
-      <c r="D106" s="2">
-        <v>104</v>
+        <v>536</v>
+      </c>
+      <c r="D106">
+        <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F106" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="G106" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="H106" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I106" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J106" t="s">
         <v>42</v>
       </c>
       <c r="K106" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L106" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="M106" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B107" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C107" t="s">
-        <v>539</v>
-      </c>
-      <c r="D107" s="2">
-        <v>105</v>
+        <v>536</v>
+      </c>
+      <c r="D107">
+        <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F107" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="G107" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="H107" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I107" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J107" t="s">
         <v>42</v>
       </c>
       <c r="K107" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="L107" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="M107" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B108" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C108" t="s">
-        <v>539</v>
-      </c>
-      <c r="D108" s="2">
-        <v>106</v>
+        <v>536</v>
+      </c>
+      <c r="D108">
+        <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F108" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G108" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H108" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I108" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J108" t="s">
         <v>42</v>
       </c>
       <c r="K108" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L108" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M108" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B109" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C109" t="s">
-        <v>539</v>
-      </c>
-      <c r="D109" s="2">
-        <v>107</v>
+        <v>536</v>
+      </c>
+      <c r="D109">
+        <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F109" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G109" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H109" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I109" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J109" t="s">
         <v>42</v>
       </c>
       <c r="K109" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="L109" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="M109" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B110" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C110" t="s">
-        <v>539</v>
-      </c>
-      <c r="D110" s="2">
-        <v>108</v>
+        <v>536</v>
+      </c>
+      <c r="D110">
+        <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="F110" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="G110" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="H110" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I110" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J110" t="s">
         <v>42</v>
       </c>
       <c r="K110" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="L110" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="M110" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B111" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C111" t="s">
-        <v>539</v>
-      </c>
-      <c r="D111" s="2">
-        <v>109</v>
+        <v>536</v>
+      </c>
+      <c r="D111">
+        <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="F111" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="G111" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="H111" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I111" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J111" t="s">
         <v>42</v>
       </c>
       <c r="K111" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="L111" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="M111" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B112" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C112" t="s">
-        <v>539</v>
-      </c>
-      <c r="D112" s="2">
-        <v>110</v>
+        <v>536</v>
+      </c>
+      <c r="D112">
+        <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="F112" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="G112" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="H112" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="I112" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J112" t="s">
         <v>42</v>
       </c>
       <c r="K112" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L112" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M112" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B113" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="C113" t="s">
-        <v>539</v>
-      </c>
-      <c r="D113" s="2">
-        <v>111</v>
+        <v>536</v>
+      </c>
+      <c r="D113" s="1">
+        <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="F113" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="G113" t="s">
-        <v>592</v>
-      </c>
-      <c r="H113" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="I113" t="s">
-        <v>160</v>
+        <v>595</v>
       </c>
       <c r="J113" t="s">
         <v>42</v>
       </c>
       <c r="K113" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="L113" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="M113" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>318</v>
+        <v>598</v>
       </c>
       <c r="B114" t="s">
-        <v>539</v>
+        <v>599</v>
       </c>
       <c r="C114" t="s">
-        <v>539</v>
-      </c>
-      <c r="D114" s="1">
-        <v>112</v>
+        <v>600</v>
+      </c>
+      <c r="D114">
+        <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="F114" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="G114" t="s">
-        <v>597</v>
+        <v>603</v>
+      </c>
+      <c r="H114" t="s">
+        <v>756</v>
       </c>
       <c r="I114" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="J114" t="s">
         <v>42</v>
       </c>
       <c r="K114" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="L114" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="M114" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B115" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C115" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D115">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="F115" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="G115" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="H115" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I115" t="s">
-        <v>607</v>
+        <v>63</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="K115" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="L115" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="M115" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B116" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C116" t="s">
-        <v>603</v>
-      </c>
-      <c r="D116" s="2">
-        <v>114</v>
+        <v>600</v>
+      </c>
+      <c r="D116">
+        <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F116" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="G116" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="H116" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I116" t="s">
         <v>63</v>
@@ -7399,39 +7430,39 @@
         <v>19</v>
       </c>
       <c r="K116" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="L116" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="M116" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B117" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C117" t="s">
-        <v>603</v>
-      </c>
-      <c r="D117" s="2">
-        <v>115</v>
+        <v>600</v>
+      </c>
+      <c r="D117">
+        <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="F117" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="G117" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="H117" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I117" t="s">
         <v>63</v>
@@ -7440,80 +7471,80 @@
         <v>19</v>
       </c>
       <c r="K117" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="L117" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="M117" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B118" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C118" t="s">
-        <v>603</v>
-      </c>
-      <c r="D118" s="2">
-        <v>116</v>
+        <v>600</v>
+      </c>
+      <c r="D118">
+        <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="F118" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="G118" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="H118" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I118" t="s">
         <v>63</v>
       </c>
       <c r="J118" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="K118" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="L118" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="M118" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B119" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C119" t="s">
-        <v>603</v>
-      </c>
-      <c r="D119" s="2">
-        <v>117</v>
+        <v>600</v>
+      </c>
+      <c r="D119">
+        <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="F119" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="G119" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="H119" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="I119" t="s">
         <v>63</v>
@@ -7522,80 +7553,80 @@
         <v>42</v>
       </c>
       <c r="K119" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="L119" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="M119" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B120" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C120" t="s">
-        <v>603</v>
-      </c>
-      <c r="D120" s="2">
-        <v>118</v>
+        <v>632</v>
+      </c>
+      <c r="D120">
+        <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="F120" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="G120" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="H120" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="I120" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="J120" t="s">
         <v>42</v>
       </c>
       <c r="K120" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="L120" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="M120" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B121" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C121" t="s">
-        <v>635</v>
-      </c>
-      <c r="D121" s="2">
-        <v>119</v>
+        <v>632</v>
+      </c>
+      <c r="D121">
+        <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="F121" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="G121" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="H121" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I121" t="s">
         <v>41</v>
@@ -7604,39 +7635,39 @@
         <v>42</v>
       </c>
       <c r="K121" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L121" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M121" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B122" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C122" t="s">
-        <v>635</v>
-      </c>
-      <c r="D122" s="2">
-        <v>120</v>
+        <v>632</v>
+      </c>
+      <c r="D122">
+        <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F122" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G122" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H122" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I122" t="s">
         <v>41</v>
@@ -7645,39 +7676,39 @@
         <v>42</v>
       </c>
       <c r="K122" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L122" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M122" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B123" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C123" t="s">
-        <v>635</v>
-      </c>
-      <c r="D123" s="2">
-        <v>121</v>
+        <v>632</v>
+      </c>
+      <c r="D123">
+        <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>646</v>
+        <v>15</v>
       </c>
       <c r="F123" t="s">
-        <v>647</v>
+        <v>39</v>
       </c>
       <c r="G123" t="s">
-        <v>648</v>
+        <v>40</v>
       </c>
       <c r="H123" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I123" t="s">
         <v>41</v>
@@ -7686,39 +7717,39 @@
         <v>42</v>
       </c>
       <c r="K123" t="s">
+        <v>648</v>
+      </c>
+      <c r="L123" t="s">
         <v>649</v>
-      </c>
-      <c r="L123" t="s">
-        <v>650</v>
       </c>
       <c r="M123" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B124" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C124" t="s">
-        <v>635</v>
-      </c>
-      <c r="D124" s="2">
-        <v>122</v>
+        <v>632</v>
+      </c>
+      <c r="D124">
+        <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F124" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G124" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="H124" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I124" t="s">
         <v>41</v>
@@ -7727,39 +7758,39 @@
         <v>42</v>
       </c>
       <c r="K124" t="s">
+        <v>650</v>
+      </c>
+      <c r="L124" t="s">
         <v>651</v>
-      </c>
-      <c r="L124" t="s">
-        <v>652</v>
       </c>
       <c r="M124" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B125" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C125" t="s">
-        <v>635</v>
-      </c>
-      <c r="D125" s="2">
-        <v>123</v>
+        <v>632</v>
+      </c>
+      <c r="D125">
+        <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G125" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H125" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I125" t="s">
         <v>41</v>
@@ -7768,39 +7799,39 @@
         <v>42</v>
       </c>
       <c r="K125" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="L125" t="s">
-        <v>654</v>
+        <v>53</v>
       </c>
       <c r="M125" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B126" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C126" t="s">
-        <v>635</v>
-      </c>
-      <c r="D126" s="2">
-        <v>124</v>
+        <v>632</v>
+      </c>
+      <c r="D126">
+        <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F126" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G126" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H126" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I126" t="s">
         <v>41</v>
@@ -7809,39 +7840,39 @@
         <v>42</v>
       </c>
       <c r="K126" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="L126" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M126" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B127" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C127" t="s">
-        <v>635</v>
-      </c>
-      <c r="D127" s="2">
-        <v>125</v>
+        <v>632</v>
+      </c>
+      <c r="D127">
+        <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>33</v>
+        <v>654</v>
       </c>
       <c r="F127" t="s">
-        <v>54</v>
+        <v>655</v>
       </c>
       <c r="G127" t="s">
-        <v>55</v>
+        <v>656</v>
       </c>
       <c r="H127" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I127" t="s">
         <v>41</v>
@@ -7850,39 +7881,39 @@
         <v>42</v>
       </c>
       <c r="K127" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="L127" t="s">
-        <v>57</v>
+        <v>658</v>
       </c>
       <c r="M127" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B128" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C128" t="s">
-        <v>635</v>
-      </c>
-      <c r="D128" s="2">
-        <v>126</v>
+        <v>632</v>
+      </c>
+      <c r="D128">
+        <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F128" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G128" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H128" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I128" t="s">
         <v>41</v>
@@ -7891,39 +7922,39 @@
         <v>42</v>
       </c>
       <c r="K128" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="L128" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="M128" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B129" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C129" t="s">
-        <v>635</v>
-      </c>
-      <c r="D129" s="2">
-        <v>127</v>
+        <v>632</v>
+      </c>
+      <c r="D129">
+        <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F129" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G129" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="H129" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I129" t="s">
         <v>41</v>
@@ -7932,39 +7963,39 @@
         <v>42</v>
       </c>
       <c r="K129" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="L129" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M129" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B130" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C130" t="s">
-        <v>635</v>
-      </c>
-      <c r="D130" s="2">
-        <v>128</v>
+        <v>632</v>
+      </c>
+      <c r="D130">
+        <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="F130" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G130" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="H130" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="I130" t="s">
         <v>41</v>
@@ -7973,285 +8004,285 @@
         <v>42</v>
       </c>
       <c r="K130" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="L130" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M130" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B131" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C131" t="s">
-        <v>635</v>
-      </c>
-      <c r="D131" s="2">
-        <v>129</v>
+        <v>674</v>
+      </c>
+      <c r="D131">
+        <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="F131" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="G131" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="H131" t="s">
-        <v>749</v>
+        <v>758</v>
       </c>
       <c r="I131" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="J131" t="s">
         <v>42</v>
       </c>
       <c r="K131" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="L131" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="M131" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B132" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C132" t="s">
-        <v>677</v>
-      </c>
-      <c r="D132" s="2">
-        <v>130</v>
+        <v>674</v>
+      </c>
+      <c r="D132">
+        <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="F132" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="G132" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H132" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I132" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J132" t="s">
         <v>42</v>
       </c>
       <c r="K132" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="L132" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="M132" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B133" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C133" t="s">
-        <v>677</v>
-      </c>
-      <c r="D133" s="2">
-        <v>131</v>
+        <v>674</v>
+      </c>
+      <c r="D133">
+        <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="F133" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="G133" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H133" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I133" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J133" t="s">
         <v>42</v>
       </c>
       <c r="K133" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="L133" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="M133" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B134" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C134" t="s">
-        <v>677</v>
-      </c>
-      <c r="D134" s="2">
-        <v>132</v>
+        <v>674</v>
+      </c>
+      <c r="D134">
+        <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="F134" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="G134" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H134" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I134" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J134" t="s">
         <v>42</v>
       </c>
       <c r="K134" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="L134" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="M134" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B135" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C135" t="s">
-        <v>677</v>
-      </c>
-      <c r="D135" s="2">
-        <v>133</v>
+        <v>674</v>
+      </c>
+      <c r="D135">
+        <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="F135" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="G135" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="H135" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I135" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J135" t="s">
         <v>42</v>
       </c>
       <c r="K135" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="L135" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="M135" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B136" t="s">
-        <v>602</v>
+        <v>700</v>
       </c>
       <c r="C136" t="s">
-        <v>677</v>
-      </c>
-      <c r="D136" s="2">
-        <v>134</v>
+        <v>701</v>
+      </c>
+      <c r="D136">
+        <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="F136" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="G136" t="s">
+        <v>704</v>
+      </c>
+      <c r="H136" t="s">
+        <v>759</v>
+      </c>
+      <c r="I136" t="s">
+        <v>63</v>
+      </c>
+      <c r="J136" t="s">
+        <v>19</v>
+      </c>
+      <c r="K136" t="s">
+        <v>705</v>
+      </c>
+      <c r="L136" t="s">
+        <v>706</v>
+      </c>
+      <c r="M136" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>598</v>
+      </c>
+      <c r="B137" t="s">
         <v>700</v>
       </c>
-      <c r="H136" t="s">
-        <v>761</v>
-      </c>
-      <c r="I136" t="s">
-        <v>160</v>
-      </c>
-      <c r="J136" t="s">
-        <v>42</v>
-      </c>
-      <c r="K136" t="s">
+      <c r="C137" t="s">
         <v>701</v>
       </c>
-      <c r="L136" t="s">
-        <v>702</v>
-      </c>
-      <c r="M136" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>601</v>
-      </c>
-      <c r="B137" t="s">
-        <v>703</v>
-      </c>
-      <c r="C137" t="s">
-        <v>704</v>
-      </c>
-      <c r="D137" s="2">
-        <v>135</v>
+      <c r="D137">
+        <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="F137" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="G137" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="H137" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I137" t="s">
         <v>63</v>
@@ -8260,39 +8291,39 @@
         <v>19</v>
       </c>
       <c r="K137" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="L137" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="M137" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B138" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C138" t="s">
-        <v>704</v>
-      </c>
-      <c r="D138" s="2">
-        <v>136</v>
+        <v>701</v>
+      </c>
+      <c r="D138">
+        <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="F138" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="G138" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="H138" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I138" t="s">
         <v>63</v>
@@ -8301,39 +8332,39 @@
         <v>19</v>
       </c>
       <c r="K138" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="L138" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="M138" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B139" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C139" t="s">
-        <v>704</v>
-      </c>
-      <c r="D139" s="2">
-        <v>137</v>
+        <v>701</v>
+      </c>
+      <c r="D139">
+        <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="F139" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="G139" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="H139" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I139" t="s">
         <v>63</v>
@@ -8342,222 +8373,181 @@
         <v>19</v>
       </c>
       <c r="K139" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="L139" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="M139" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B140" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C140" t="s">
-        <v>704</v>
-      </c>
-      <c r="D140" s="2">
-        <v>138</v>
+        <v>722</v>
+      </c>
+      <c r="D140">
+        <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="F140" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="G140" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="H140" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I140" t="s">
-        <v>63</v>
+        <v>726</v>
       </c>
       <c r="J140" t="s">
         <v>19</v>
       </c>
       <c r="K140" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="L140" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="M140" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B141" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C141" t="s">
-        <v>725</v>
-      </c>
-      <c r="D141" s="2">
-        <v>139</v>
+        <v>722</v>
+      </c>
+      <c r="D141">
+        <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>729</v>
+      </c>
+      <c r="F141" t="s">
+        <v>730</v>
+      </c>
+      <c r="G141" t="s">
+        <v>731</v>
+      </c>
+      <c r="H141" t="s">
+        <v>760</v>
+      </c>
+      <c r="I141" t="s">
         <v>726</v>
-      </c>
-      <c r="F141" t="s">
-        <v>727</v>
-      </c>
-      <c r="G141" t="s">
-        <v>728</v>
-      </c>
-      <c r="H141" t="s">
-        <v>763</v>
-      </c>
-      <c r="I141" t="s">
-        <v>729</v>
       </c>
       <c r="J141" t="s">
         <v>19</v>
       </c>
       <c r="K141" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="L141" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="M141" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B142" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C142" t="s">
-        <v>725</v>
-      </c>
-      <c r="D142" s="2">
-        <v>140</v>
+        <v>722</v>
+      </c>
+      <c r="D142">
+        <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="F142" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="G142" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="H142" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I142" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J142" t="s">
         <v>19</v>
       </c>
       <c r="K142" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="L142" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="M142" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B143" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C143" t="s">
-        <v>725</v>
-      </c>
-      <c r="D143" s="2">
-        <v>141</v>
+        <v>722</v>
+      </c>
+      <c r="D143">
+        <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="F143" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="G143" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="H143" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I143" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="J143" t="s">
         <v>19</v>
       </c>
       <c r="K143" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="L143" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="M143" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>601</v>
-      </c>
-      <c r="B144" t="s">
-        <v>703</v>
-      </c>
-      <c r="C144" t="s">
-        <v>725</v>
-      </c>
-      <c r="D144" s="2">
-        <v>142</v>
-      </c>
-      <c r="E144" t="s">
-        <v>742</v>
-      </c>
-      <c r="F144" t="s">
-        <v>743</v>
-      </c>
-      <c r="G144" t="s">
-        <v>744</v>
-      </c>
-      <c r="H144" t="s">
-        <v>763</v>
-      </c>
-      <c r="I144" t="s">
-        <v>729</v>
-      </c>
-      <c r="J144" t="s">
-        <v>19</v>
-      </c>
-      <c r="K144" t="s">
-        <v>745</v>
-      </c>
-      <c r="L144" t="s">
-        <v>746</v>
-      </c>
-      <c r="M144" t="s">
-        <v>22</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:M144" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:M143" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>

--- a/data-viz/inputs/report_outline_1.xlsx
+++ b/data-viz/inputs/report_outline_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{6EF89303-B0F5-499A-BFBF-15711A380B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCFDC59E-7C7D-4654-8DDD-780EF40D9F17}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{6EF89303-B0F5-499A-BFBF-15711A380B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF170BF1-A17D-4A40-AD70-B77ED99749F2}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-16335" windowWidth="29070" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="outline" sheetId="1" r:id="rId1"/>
@@ -2703,22 +2703,22 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I36" sqref="I36"/>
+      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.109375" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="5" max="5" width="47.33203125" customWidth="1"/>
-    <col min="6" max="6" width="5.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.21875" customWidth="1"/>
-    <col min="8" max="8" width="27.21875" customWidth="1"/>
-    <col min="9" max="9" width="52.77734375" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="47.28515625" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="23.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1"/>
+    <col min="9" max="9" width="85.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -2923,7 +2923,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -2964,7 +2964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -3046,7 +3046,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -3374,7 +3374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -3579,7 +3579,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -3616,7 +3616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -3729,7 +3729,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -3879,7 +3879,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -3916,7 +3916,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -4039,7 +4039,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -4203,7 +4203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -4490,7 +4490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -4572,7 +4572,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -4695,7 +4695,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>12</v>
       </c>
@@ -4818,7 +4818,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>12</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>12</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>12</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>12</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>12</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -5105,7 +5105,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>315</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>315</v>
       </c>
@@ -5187,7 +5187,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>315</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>315</v>
       </c>
@@ -5269,7 +5269,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>315</v>
       </c>
@@ -5310,7 +5310,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>315</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>315</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>315</v>
       </c>
@@ -5433,7 +5433,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>315</v>
       </c>
@@ -5474,7 +5474,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>315</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>315</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>315</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>315</v>
       </c>
@@ -5638,7 +5638,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>315</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>315</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>315</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>315</v>
       </c>
@@ -5802,7 +5802,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>315</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>315</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>315</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>315</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>315</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>315</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>315</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>315</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>315</v>
       </c>
@@ -6171,7 +6171,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>315</v>
       </c>
@@ -6212,7 +6212,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>315</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>315</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>315</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>315</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>315</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>315</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>315</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>315</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>315</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>315</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>315</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>315</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>315</v>
       </c>
@@ -6745,7 +6745,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>315</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>315</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>315</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>315</v>
       </c>
@@ -6909,7 +6909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>315</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>315</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>315</v>
       </c>
@@ -7032,7 +7032,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>315</v>
       </c>
@@ -7073,7 +7073,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>315</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>315</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>315</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>315</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>315</v>
       </c>
@@ -7278,7 +7278,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>315</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>598</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>598</v>
       </c>
@@ -7398,7 +7398,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>598</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>598</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>598</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>598</v>
       </c>
@@ -7562,7 +7562,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>598</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>598</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>598</v>
       </c>
@@ -7685,7 +7685,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>598</v>
       </c>
@@ -7726,7 +7726,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>598</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>598</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>598</v>
       </c>
@@ -7849,7 +7849,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>598</v>
       </c>
@@ -7890,7 +7890,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>598</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>598</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>598</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>598</v>
       </c>
@@ -8054,7 +8054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>598</v>
       </c>
@@ -8095,7 +8095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>598</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>598</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>598</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>598</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>598</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>598</v>
       </c>
@@ -8341,7 +8341,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>598</v>
       </c>
@@ -8382,7 +8382,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>598</v>
       </c>
@@ -8423,7 +8423,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>598</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>598</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>598</v>
       </c>

--- a/data-viz/inputs/report_outline_1.xlsx
+++ b/data-viz/inputs/report_outline_1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-gpp-report/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{6EF89303-B0F5-499A-BFBF-15711A380B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF170BF1-A17D-4A40-AD70-B77ED99749F2}"/>
+  <xr:revisionPtr revIDLastSave="77" documentId="13_ncr:1_{6EF89303-B0F5-499A-BFBF-15711A380B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6095669-6BCD-4E74-8B29-EC3CADA849A8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,11 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">outline!$A$1:$M$143</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="781">
   <si>
     <t>chapter</t>
   </si>
@@ -53,6 +56,9 @@
     <t>question</t>
   </si>
   <si>
+    <t>horacio_id</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -95,6 +101,9 @@
     <t>Trust</t>
   </si>
   <si>
+    <t>% "A lot" or "Some"</t>
+  </si>
+  <si>
     <t>Positive</t>
   </si>
   <si>
@@ -161,6 +170,9 @@
     <t>COR_judges</t>
   </si>
   <si>
+    <t>Corruption Perceptions</t>
+  </si>
+  <si>
     <t>% "Most of them" or "All of them"</t>
   </si>
   <si>
@@ -227,6 +239,9 @@
     <t>JSE_rightsaware</t>
   </si>
   <si>
+    <t>Justice System Evaluation</t>
+  </si>
+  <si>
     <t>% "Strongly agree" or "Agree"</t>
   </si>
   <si>
@@ -365,6 +380,12 @@
     <t>q076-q113</t>
   </si>
   <si>
+    <t>prevalence1</t>
+  </si>
+  <si>
+    <t>Problem Selection</t>
+  </si>
+  <si>
     <t>% "Yes" to at least one question</t>
   </si>
   <si>
@@ -383,6 +404,9 @@
     <t>q076-q151</t>
   </si>
   <si>
+    <t>prevalence2</t>
+  </si>
+  <si>
     <t>% "Yes" to at least one question &amp; Seriousness&gt;=4</t>
   </si>
   <si>
@@ -395,6 +419,9 @@
     <t>Prevalence by category of legal problems</t>
   </si>
   <si>
+    <t>AJP_*_bin, AJP_*_sev</t>
+  </si>
+  <si>
     <t>TABLE % "Yes" by 12 categories of legal problem</t>
   </si>
   <si>
@@ -404,12 +431,21 @@
     <t>Distribution of reported legal problems in the last two years, by category</t>
   </si>
   <si>
+    <t>Table</t>
+  </si>
+  <si>
     <t>Access to a dispute resolution mechanism (SDG indicator 16.3.3)</t>
   </si>
   <si>
     <t>q168,q169</t>
   </si>
   <si>
+    <t xml:space="preserve">AJR_resolution, AJR_noresol_reason, </t>
+  </si>
+  <si>
+    <t>Problem Resolution</t>
+  </si>
+  <si>
     <t>% who experienced a legal problem, needed help from a dispute resolution mechanism, and got it, out of the total who experienced a legal problem and needed help from a dispute resolution mechanism</t>
   </si>
   <si>
@@ -422,19 +458,34 @@
     <t>Access to appropriate information and advice</t>
   </si>
   <si>
+    <t>q154</t>
+  </si>
+  <si>
+    <t>AJE_infosource</t>
+  </si>
+  <si>
+    <t>Problem Evaluation</t>
+  </si>
+  <si>
+    <t>% who experienced a legal problem and accessed appropriate information and advice</t>
+  </si>
+  <si>
+    <t>Graph 22. Access to Appropriate Information and Advice</t>
+  </si>
+  <si>
+    <t>Percentage of respondents who experienced a legal problem and had access to appropriate information and advice</t>
+  </si>
+  <si>
+    <t>Access to appropriate assistance and representation</t>
+  </si>
+  <si>
     <t>q154,q155</t>
   </si>
   <si>
-    <t>% who experienced a legal problem and accessed appropriate information and advice</t>
-  </si>
-  <si>
-    <t>Graph 22. Access to Appropriate Information and Advice</t>
-  </si>
-  <si>
-    <t>Percentage of respondents who experienced a legal problem and had access to appropriate information and advice</t>
-  </si>
-  <si>
-    <t>Access to appropriate assistance and representation</t>
+    <t>AJD_inst_advice, AJD_adviser_*, AJD_noadvice_reason</t>
+  </si>
+  <si>
+    <t>Problem Description</t>
   </si>
   <si>
     <t>% who experienced a legal problem and accessed appropriate assistance and representation</t>
@@ -452,6 +503,12 @@
     <t>q187,q189</t>
   </si>
   <si>
+    <t>AJR_fair</t>
+  </si>
+  <si>
+    <t>% who experienced a legal problem, finished their legal process, and think the process was fair, out of the % who experienced a legal problem and finished their legal process</t>
+  </si>
+  <si>
     <t>Graph 24. Fairness of the Resolution Process</t>
   </si>
   <si>
@@ -464,6 +521,9 @@
     <t>q187,q193</t>
   </si>
   <si>
+    <t>AJR_solvingtime</t>
+  </si>
+  <si>
     <t>% &lt;=12 months</t>
   </si>
   <si>
@@ -479,6 +539,9 @@
     <t>q187,q194,q195</t>
   </si>
   <si>
+    <t>AJR_solvingcosts, AJR_costdiff</t>
+  </si>
+  <si>
     <t>% did not incurr in costs or was very or somewhat easy to find the money</t>
   </si>
   <si>
@@ -494,6 +557,9 @@
     <t>q187</t>
   </si>
   <si>
+    <t>AJR_state_*</t>
+  </si>
+  <si>
     <t>% process is done with and problem fully resolved</t>
   </si>
   <si>
@@ -509,6 +575,12 @@
     <t>A5</t>
   </si>
   <si>
+    <t>A5_*</t>
+  </si>
+  <si>
+    <t>Demographics</t>
+  </si>
+  <si>
     <t>% "Yes"</t>
   </si>
   <si>
@@ -545,6 +617,9 @@
     <t>SEC_walking</t>
   </si>
   <si>
+    <t>Security</t>
+  </si>
+  <si>
     <t>% "Very safe" or "Safe"</t>
   </si>
   <si>
@@ -581,6 +656,9 @@
     <t>SEC_street</t>
   </si>
   <si>
+    <t>Security Violence</t>
+  </si>
+  <si>
     <t>Graph 32. Witnessing street violence</t>
   </si>
   <si>
@@ -689,6 +767,9 @@
     <t>LEP_safecom</t>
   </si>
   <si>
+    <t>Law Enforcement Performance</t>
+  </si>
+  <si>
     <t>Graph 39. Police and community safety</t>
   </si>
   <si>
@@ -804,6 +885,12 @@
   </si>
   <si>
     <t>CJP_effective</t>
+  </si>
+  <si>
+    <t>Criminal Justice Performance</t>
+  </si>
+  <si>
+    <t>% "Very confident" or "Fairly confident"</t>
   </si>
   <si>
     <t>Graph 47. Effectiveness of criminal prosecution</t>
@@ -1003,6 +1090,9 @@
     <t>PAB_censorinfo</t>
   </si>
   <si>
+    <t>Perceptions on Authoritarian Behavior</t>
+  </si>
+  <si>
     <t>Graph 1. Censorship of Information from Abroad</t>
   </si>
   <si>
@@ -1319,6 +1409,9 @@
     <t>CPA_freemedia</t>
   </si>
   <si>
+    <t>Civic Participation A</t>
+  </si>
+  <si>
     <t>Graph 21. Media Independence and Freedom in Reporting News</t>
   </si>
   <si>
@@ -1347,6 +1440,9 @@
   </si>
   <si>
     <t>CPB_freemedia</t>
+  </si>
+  <si>
+    <t>Civic Participation B</t>
   </si>
   <si>
     <t>Graph 23. Freedom of Media to Expose Corruption Cases</t>
@@ -1552,6 +1648,9 @@
   </si>
   <si>
     <t>CP_protest</t>
+  </si>
+  <si>
+    <t>Civic Participation A Civic Participation B</t>
   </si>
   <si>
     <t>Graph 36. Participation in Legal Demonstrations and Protest Marches</t>
@@ -1856,6 +1955,9 @@
     <t>COR_3year_change</t>
   </si>
   <si>
+    <t>Corruption Change</t>
+  </si>
+  <si>
     <t>% "Significantly increased" or "Increased"</t>
   </si>
   <si>
@@ -1874,6 +1976,9 @@
     <t>ORC_citizen_fight</t>
   </si>
   <si>
+    <t>Opinions regarding Corruption</t>
+  </si>
+  <si>
     <t>Graph 2. Citizens' Role in Anti-Corruption Efforts</t>
   </si>
   <si>
@@ -2078,6 +2183,9 @@
     <t>BRB_permit_B</t>
   </si>
   <si>
+    <t>Bribe Victimization</t>
+  </si>
+  <si>
     <t>Graph 18. Permit Requests and Document Processing in Local Government Offices</t>
   </si>
   <si>
@@ -2159,6 +2267,9 @@
     <t>IPR_rights</t>
   </si>
   <si>
+    <t>Information Provision</t>
+  </si>
+  <si>
     <t>Graph 23. Availability of Information about Rights</t>
   </si>
   <si>
@@ -2222,6 +2333,9 @@
     <t>IRE_govtbudget</t>
   </si>
   <si>
+    <t>Information Requests</t>
+  </si>
+  <si>
     <t>% "Very likely" or "Likely"</t>
   </si>
   <si>
@@ -2274,97 +2388,25 @@
   </si>
   <si>
     <t>Percentage of respondents who believe it is likely or very likely that a government agency would grant access to sources of campaign financing of elected officials and legislators, assuming a proper request is made</t>
-  </si>
-  <si>
-    <t>horacio_id</t>
-  </si>
-  <si>
-    <t>Civic Participation B</t>
-  </si>
-  <si>
-    <t>Corruption Perceptions</t>
-  </si>
-  <si>
-    <t>Justice System Evaluation</t>
-  </si>
-  <si>
-    <t>Problem Resolution</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>Security Violence</t>
-  </si>
-  <si>
-    <t>Law Enforcement Performance</t>
-  </si>
-  <si>
-    <t>Criminal Justice Performance</t>
-  </si>
-  <si>
-    <t>Perceptions on Authoritarian Behavior</t>
-  </si>
-  <si>
-    <t>Civic Participation A</t>
-  </si>
-  <si>
-    <t>Civic Participation A Civic Participation B</t>
-  </si>
-  <si>
-    <t>Corruption Change</t>
-  </si>
-  <si>
-    <t>Opinions regarding Corruption</t>
-  </si>
-  <si>
-    <t>Bribe Victimization</t>
-  </si>
-  <si>
-    <t>Information Provision</t>
-  </si>
-  <si>
-    <t>Information Requests</t>
-  </si>
-  <si>
-    <t>q154</t>
-  </si>
-  <si>
-    <t>Information and Advice</t>
-  </si>
-  <si>
-    <t>% "A lot" or "Some"</t>
-  </si>
-  <si>
-    <t>% "Very confident" or "Fairly confident"</t>
-  </si>
-  <si>
-    <t>Problem Selection</t>
-  </si>
-  <si>
-    <t>AJP_*_bin</t>
-  </si>
-  <si>
-    <t>AJP_*_bin, AJP_*_sev</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>% who experienced a legal problem, finished their legal process, and think the process was fair, out of the % who experienced a legal problem and finished their legal process</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2399,10 +2441,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2701,9 +2746,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A113" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2712,7 +2757,7 @@
     <col min="2" max="2" width="24.7109375" customWidth="1"/>
     <col min="3" max="3" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="47.28515625" customWidth="1"/>
-    <col min="6" max="6" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
     <col min="9" max="9" width="85.85546875" customWidth="1"/>
@@ -2735,5815 +2780,5847 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>744</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>763</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
         <v>24</v>
-      </c>
-      <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>763</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>763</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>763</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H6" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L6" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="M6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K7" t="s">
+        <v>51</v>
+      </c>
+      <c r="L7" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" t="s">
         <v>48</v>
-      </c>
-      <c r="L7" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D8">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D9">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="L9" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" t="s">
         <v>66</v>
       </c>
-      <c r="F11" t="s">
+      <c r="I11" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>747</v>
-      </c>
-      <c r="I11" t="s">
-        <v>63</v>
-      </c>
       <c r="J11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K11" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D12">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="G13" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="H13" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I13" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K13" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L13" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D14">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="L14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F15" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G15" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K15" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L15" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D16">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G16" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H16" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K16" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L16" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D17">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G17" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H17" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I17" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J17" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L17" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F18" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H18" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I18" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K18" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D19" s="2">
         <v>18</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>766</v>
+        <v>113</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>765</v>
+        <v>114</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="J19" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D20" s="2">
         <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="F20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>765</v>
-      </c>
       <c r="I20" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J20" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K20" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="L20" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D21" s="2">
         <v>20</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>767</v>
+        <v>126</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>765</v>
+        <v>114</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J21" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="L21" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="M21" t="s">
-        <v>768</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B22" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D22" s="2">
         <v>21</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I22" s="2" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="J22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K22" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="L22" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D23" s="2">
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="G23" s="2"/>
+        <v>139</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="H23" s="2" t="s">
-        <v>762</v>
+        <v>141</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="J23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L23" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D24" s="2">
         <v>23</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="I24" s="2" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="J24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K24" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="L24" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D25" s="2">
         <v>24</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I25" s="2" t="s">
-        <v>769</v>
+        <v>155</v>
       </c>
       <c r="J25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K25" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="L25" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2">
         <v>25</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I26" s="2" t="s">
-        <v>142</v>
+        <v>161</v>
       </c>
       <c r="J26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="L26" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2">
         <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="I27" s="2" t="s">
-        <v>147</v>
+        <v>167</v>
       </c>
       <c r="J27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K27" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D28" s="2">
         <v>27</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G28" s="2"/>
+        <v>171</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="H28" s="2" t="s">
-        <v>748</v>
+        <v>134</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="J28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K28" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="L28" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D29" s="2">
         <v>28</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="I29" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K29" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D30" s="2">
         <v>29</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>179</v>
+      </c>
       <c r="I30" s="2" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K30" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="L30" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D31">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F31" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G31" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H31" t="s">
-        <v>749</v>
+        <v>192</v>
       </c>
       <c r="I31" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="J31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K31" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="L31" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="D32">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="F32" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="G32" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="H32" t="s">
-        <v>749</v>
+        <v>192</v>
       </c>
       <c r="I32" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="J32" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K32" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="L32" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="M32" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D33">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="F33" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="G33" t="s">
+        <v>204</v>
+      </c>
+      <c r="H33" t="s">
+        <v>205</v>
+      </c>
+      <c r="I33" t="s">
         <v>180</v>
       </c>
-      <c r="H33" t="s">
-        <v>750</v>
-      </c>
-      <c r="I33" t="s">
-        <v>157</v>
-      </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K33" t="s">
-        <v>181</v>
+        <v>206</v>
       </c>
       <c r="L33" t="s">
-        <v>182</v>
+        <v>207</v>
       </c>
       <c r="M33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D34">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>208</v>
       </c>
       <c r="F34" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="G34" t="s">
-        <v>185</v>
+        <v>210</v>
       </c>
       <c r="H34" t="s">
-        <v>750</v>
+        <v>205</v>
       </c>
       <c r="I34" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K34" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="L34" t="s">
-        <v>187</v>
+        <v>212</v>
       </c>
       <c r="M34" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D35">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="G35" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="H35" t="s">
-        <v>750</v>
+        <v>205</v>
       </c>
       <c r="I35" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K35" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="L35" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="M35" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D36">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G36" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="H36" t="s">
-        <v>750</v>
+        <v>205</v>
       </c>
       <c r="I36" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K36" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="L36" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="M36" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D37">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="F37" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G37" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="H37" t="s">
-        <v>750</v>
+        <v>205</v>
       </c>
       <c r="I37" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K37" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="L37" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="M37" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D38">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="G38" t="s">
+        <v>230</v>
+      </c>
+      <c r="H38" t="s">
         <v>205</v>
       </c>
-      <c r="H38" t="s">
-        <v>750</v>
-      </c>
       <c r="I38" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K38" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="L38" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="M38" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="D39">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="F39" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>750</v>
+        <v>205</v>
       </c>
       <c r="I39" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K39" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="L39" t="s">
-        <v>212</v>
+        <v>237</v>
       </c>
       <c r="M39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B40" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D40">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>214</v>
+        <v>239</v>
       </c>
       <c r="F40" t="s">
-        <v>215</v>
+        <v>240</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="H40" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I40" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J40" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K40" t="s">
-        <v>217</v>
+        <v>243</v>
       </c>
       <c r="L40" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B41" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C41" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D41">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>219</v>
+        <v>245</v>
       </c>
       <c r="F41" t="s">
-        <v>220</v>
+        <v>246</v>
       </c>
       <c r="G41" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="H41" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I41" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J41" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K41" t="s">
-        <v>222</v>
+        <v>248</v>
       </c>
       <c r="L41" t="s">
-        <v>223</v>
+        <v>249</v>
       </c>
       <c r="M41" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C42" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D42">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>250</v>
       </c>
       <c r="F42" t="s">
-        <v>225</v>
+        <v>251</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>252</v>
       </c>
       <c r="H42" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I42" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J42" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K42" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="L42" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="M42" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B43" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C43" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D43">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="F43" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="G43" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="H43" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K43" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="L43" t="s">
-        <v>233</v>
+        <v>259</v>
       </c>
       <c r="M43" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B44" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C44" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D44">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>260</v>
       </c>
       <c r="F44" t="s">
-        <v>235</v>
+        <v>261</v>
       </c>
       <c r="G44" t="s">
-        <v>236</v>
+        <v>262</v>
       </c>
       <c r="H44" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I44" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J44" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K44" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="L44" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C45" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D45">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="F45" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="G45" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="H45" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I45" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K45" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="L45" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B46" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D46">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="F46" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="G46" t="s">
-        <v>246</v>
+        <v>272</v>
       </c>
       <c r="H46" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I46" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J46" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K46" t="s">
-        <v>247</v>
+        <v>273</v>
       </c>
       <c r="L46" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="M46" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B47" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D47">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="F47" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="G47" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="H47" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I47" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K47" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="L47" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="M47" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B48" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C48" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D48">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="F48" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="G48" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="H48" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I48" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K48" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="L48" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="M48" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="D49">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="G49" t="s">
-        <v>260</v>
+        <v>288</v>
       </c>
       <c r="H49" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I49" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K49" t="s">
-        <v>261</v>
+        <v>289</v>
       </c>
       <c r="L49" t="s">
-        <v>262</v>
+        <v>290</v>
       </c>
       <c r="M49" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D50">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>292</v>
       </c>
       <c r="F50" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G50" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="H50" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I50" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K50" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="L50" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="M50" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D51">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="F51" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="G51" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="H51" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I51" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J51" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K51" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="L51" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="M51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="D52">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="F52" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="G52" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="H52" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I52" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K52" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="L52" t="s">
-        <v>278</v>
+        <v>306</v>
       </c>
       <c r="M52" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C53" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D53">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>308</v>
       </c>
       <c r="F53" t="s">
-        <v>281</v>
+        <v>309</v>
       </c>
       <c r="G53" t="s">
-        <v>282</v>
+        <v>310</v>
       </c>
       <c r="H53" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I53" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J53" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K53" t="s">
-        <v>283</v>
+        <v>311</v>
       </c>
       <c r="L53" t="s">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C54" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D54">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>285</v>
+        <v>313</v>
       </c>
       <c r="F54" t="s">
-        <v>286</v>
+        <v>314</v>
       </c>
       <c r="G54" t="s">
-        <v>287</v>
+        <v>315</v>
       </c>
       <c r="H54" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I54" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K54" t="s">
-        <v>288</v>
+        <v>316</v>
       </c>
       <c r="L54" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="M54" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B55" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C55" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D55">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="F55" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="G55" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="H55" t="s">
-        <v>751</v>
+        <v>242</v>
       </c>
       <c r="I55" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J55" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K55" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="L55" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="M55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B56" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C56" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D56">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="F56" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
       <c r="G56" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="H56" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I56" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K56" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="L56" t="s">
-        <v>299</v>
+        <v>327</v>
       </c>
       <c r="M56" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C57" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D57">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="G57" t="s">
-        <v>302</v>
+        <v>330</v>
       </c>
       <c r="H57" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I57" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J57" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K57" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="L57" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="M57" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C58" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D58">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="F58" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="G58" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="H58" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I58" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K58" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="L58" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="C59" t="s">
-        <v>279</v>
+        <v>307</v>
       </c>
       <c r="D59">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="F59" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="G59" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="H59" t="s">
-        <v>752</v>
+        <v>282</v>
       </c>
       <c r="I59" t="s">
-        <v>764</v>
+        <v>283</v>
       </c>
       <c r="J59" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K59" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="L59" t="s">
-        <v>314</v>
+        <v>342</v>
       </c>
       <c r="M59" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B60" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C60" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D60">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>318</v>
+        <v>346</v>
       </c>
       <c r="F60" t="s">
-        <v>319</v>
+        <v>347</v>
       </c>
       <c r="G60" t="s">
-        <v>320</v>
+        <v>348</v>
       </c>
       <c r="H60" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I60" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K60" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="L60" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="M60" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B61" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C61" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D61">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="F61" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="G61" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="H61" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I61" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K61" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="L61" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
       <c r="M61" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B62" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C62" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D62">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="F62" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="G62" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="H62" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I62" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K62" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="L62" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="M62" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B63" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C63" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D63">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="F63" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="G63" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="H63" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I63" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K63" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="L63" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="M63" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B64" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C64" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D64">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="F64" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="G64" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="H64" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I64" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K64" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="L64" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="M64" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B65" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C65" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D65">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="F65" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
       <c r="G65" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="H65" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I65" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K65" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="L65" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="M65" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C66" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D66">
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>378</v>
+      </c>
+      <c r="F66" t="s">
+        <v>379</v>
+      </c>
+      <c r="G66" t="s">
+        <v>380</v>
+      </c>
+      <c r="H66" t="s">
         <v>349</v>
       </c>
-      <c r="F66" t="s">
-        <v>350</v>
-      </c>
-      <c r="G66" t="s">
-        <v>351</v>
-      </c>
-      <c r="H66" t="s">
-        <v>753</v>
-      </c>
       <c r="I66" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K66" t="s">
+        <v>381</v>
+      </c>
+      <c r="L66" t="s">
+        <v>382</v>
+      </c>
+      <c r="M66" t="s">
         <v>352</v>
-      </c>
-      <c r="L66" t="s">
-        <v>353</v>
-      </c>
-      <c r="M66" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B67" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C67" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D67">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
       <c r="F67" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="G67" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="H67" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I67" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K67" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="L67" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="M67" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B68" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C68" t="s">
-        <v>317</v>
+        <v>345</v>
       </c>
       <c r="D68">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>359</v>
+        <v>388</v>
       </c>
       <c r="F68" t="s">
-        <v>360</v>
+        <v>389</v>
       </c>
       <c r="G68" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="H68" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I68" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K68" t="s">
-        <v>362</v>
+        <v>391</v>
       </c>
       <c r="L68" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="M68" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B69" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C69" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D69">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>365</v>
+        <v>394</v>
       </c>
       <c r="F69" t="s">
-        <v>366</v>
+        <v>395</v>
       </c>
       <c r="G69" t="s">
-        <v>367</v>
+        <v>396</v>
       </c>
       <c r="H69" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I69" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K69" t="s">
-        <v>368</v>
+        <v>397</v>
       </c>
       <c r="L69" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="M69" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B70" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C70" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D70">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="F70" t="s">
-        <v>371</v>
+        <v>400</v>
       </c>
       <c r="G70" t="s">
-        <v>372</v>
+        <v>401</v>
       </c>
       <c r="H70" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I70" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K70" t="s">
-        <v>373</v>
+        <v>402</v>
       </c>
       <c r="L70" t="s">
-        <v>374</v>
+        <v>403</v>
       </c>
       <c r="M70" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C71" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D71">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>375</v>
+        <v>404</v>
       </c>
       <c r="F71" t="s">
-        <v>376</v>
+        <v>405</v>
       </c>
       <c r="G71" t="s">
-        <v>377</v>
+        <v>406</v>
       </c>
       <c r="H71" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I71" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K71" t="s">
-        <v>378</v>
+        <v>407</v>
       </c>
       <c r="L71" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="M71" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C72" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D72">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>380</v>
+        <v>409</v>
       </c>
       <c r="F72" t="s">
-        <v>381</v>
+        <v>410</v>
       </c>
       <c r="G72" t="s">
-        <v>382</v>
+        <v>411</v>
       </c>
       <c r="H72" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I72" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K72" t="s">
-        <v>383</v>
+        <v>412</v>
       </c>
       <c r="L72" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="M72" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C73" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D73">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="F73" t="s">
-        <v>386</v>
+        <v>415</v>
       </c>
       <c r="G73" t="s">
-        <v>387</v>
+        <v>416</v>
       </c>
       <c r="H73" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I73" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K73" t="s">
-        <v>388</v>
+        <v>417</v>
       </c>
       <c r="L73" t="s">
-        <v>389</v>
+        <v>418</v>
       </c>
       <c r="M73" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B74" t="s">
-        <v>316</v>
+        <v>344</v>
       </c>
       <c r="C74" t="s">
-        <v>364</v>
+        <v>393</v>
       </c>
       <c r="D74">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>390</v>
+        <v>419</v>
       </c>
       <c r="F74" t="s">
-        <v>391</v>
+        <v>420</v>
       </c>
       <c r="G74" t="s">
-        <v>392</v>
+        <v>421</v>
       </c>
       <c r="H74" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I74" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K74" t="s">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="L74" t="s">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="M74" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B75" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="C75" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D75">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>396</v>
+        <v>425</v>
       </c>
       <c r="F75" t="s">
-        <v>397</v>
+        <v>426</v>
       </c>
       <c r="G75" t="s">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="H75" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I75" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J75" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K75" t="s">
-        <v>399</v>
+        <v>428</v>
       </c>
       <c r="L75" t="s">
-        <v>400</v>
+        <v>429</v>
       </c>
       <c r="M75" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B76" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="C76" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D76">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>401</v>
+        <v>430</v>
       </c>
       <c r="F76" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="G76" t="s">
-        <v>403</v>
+        <v>432</v>
       </c>
       <c r="H76" t="s">
-        <v>747</v>
+        <v>66</v>
       </c>
       <c r="I76" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J76" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K76" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="L76" t="s">
-        <v>405</v>
+        <v>434</v>
       </c>
       <c r="M76" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B77" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="C77" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D77">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>406</v>
+        <v>435</v>
       </c>
       <c r="F77" t="s">
-        <v>407</v>
+        <v>436</v>
       </c>
       <c r="G77" t="s">
-        <v>408</v>
+        <v>437</v>
       </c>
       <c r="H77" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I77" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K77" t="s">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="L77" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="M77" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B78" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="C78" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D78">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>411</v>
+        <v>440</v>
       </c>
       <c r="F78" t="s">
-        <v>412</v>
+        <v>441</v>
       </c>
       <c r="G78" t="s">
-        <v>413</v>
+        <v>442</v>
       </c>
       <c r="H78" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I78" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K78" t="s">
-        <v>414</v>
+        <v>443</v>
       </c>
       <c r="L78" t="s">
-        <v>415</v>
+        <v>444</v>
       </c>
       <c r="M78" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B79" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="C79" t="s">
-        <v>395</v>
+        <v>424</v>
       </c>
       <c r="D79">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>416</v>
+        <v>445</v>
       </c>
       <c r="F79" t="s">
-        <v>417</v>
+        <v>446</v>
       </c>
       <c r="G79" t="s">
-        <v>418</v>
+        <v>447</v>
       </c>
       <c r="H79" t="s">
-        <v>753</v>
+        <v>349</v>
       </c>
       <c r="I79" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K79" t="s">
-        <v>419</v>
+        <v>448</v>
       </c>
       <c r="L79" t="s">
-        <v>420</v>
+        <v>449</v>
       </c>
       <c r="M79" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B80" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C80" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="D80">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>423</v>
+        <v>452</v>
       </c>
       <c r="F80" t="s">
-        <v>424</v>
+        <v>453</v>
       </c>
       <c r="G80" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="H80" t="s">
-        <v>754</v>
+        <v>455</v>
       </c>
       <c r="I80" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J80" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K80" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="L80" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="M80" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B81" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C81" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="D81">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="F81" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="G81" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="H81" t="s">
-        <v>754</v>
+        <v>455</v>
       </c>
       <c r="I81" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J81" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K81" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="L81" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="M81" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B82" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C82" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="D82">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="F82" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="G82" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="H82" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I82" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J82" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K82" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
       <c r="L82" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="M82" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B83" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C83" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="D83">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
       <c r="F83" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="G83" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
       <c r="H83" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I83" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J83" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K83" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="L83" t="s">
-        <v>442</v>
+        <v>473</v>
       </c>
       <c r="M83" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B84" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C84" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="D84">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="F84" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
       <c r="G84" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="H84" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I84" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J84" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K84" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="L84" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="M84" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B85" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C85" t="s">
-        <v>422</v>
+        <v>451</v>
       </c>
       <c r="D85">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
       <c r="F85" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="G85" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
       <c r="H85" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I85" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J85" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K85" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="L85" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
       <c r="M85" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B86" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C86" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D86">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
       <c r="F86" t="s">
+        <v>486</v>
+      </c>
+      <c r="G86" t="s">
+        <v>487</v>
+      </c>
+      <c r="H86" t="s">
         <v>455</v>
       </c>
-      <c r="G86" t="s">
-        <v>456</v>
-      </c>
-      <c r="H86" t="s">
-        <v>754</v>
-      </c>
       <c r="I86" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J86" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K86" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="L86" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="M86" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B87" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C87" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D87">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="F87" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
       <c r="G87" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="H87" t="s">
-        <v>754</v>
+        <v>455</v>
       </c>
       <c r="I87" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J87" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K87" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
       <c r="L87" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="M87" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B88" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C88" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D88">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
       <c r="F88" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="G88" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
       <c r="H88" t="s">
-        <v>754</v>
+        <v>455</v>
       </c>
       <c r="I88" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J88" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K88" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="L88" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
       <c r="M88" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B89" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C89" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D89">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="F89" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
       <c r="G89" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="H89" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I89" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J89" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K89" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
       <c r="L89" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="M89" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B90" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C90" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D90">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
       <c r="F90" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="G90" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
       <c r="H90" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I90" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J90" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K90" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="L90" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
       <c r="M90" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B91" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C91" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D91">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="F91" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
       <c r="G91" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="H91" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I91" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J91" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K91" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
       <c r="L91" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="M91" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B92" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C92" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="D92">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
       <c r="F92" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="G92" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
       <c r="H92" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I92" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K92" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="L92" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
       <c r="M92" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C93" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="D93">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
       <c r="F93" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="G93" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
       <c r="H93" t="s">
-        <v>754</v>
+        <v>455</v>
       </c>
       <c r="I93" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J93" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K93" t="s">
-        <v>493</v>
+        <v>524</v>
       </c>
       <c r="L93" t="s">
-        <v>494</v>
+        <v>525</v>
       </c>
       <c r="M93" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B94" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C94" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="D94">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="F94" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
       <c r="G94" t="s">
-        <v>497</v>
+        <v>528</v>
       </c>
       <c r="H94" t="s">
-        <v>754</v>
+        <v>455</v>
       </c>
       <c r="I94" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J94" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K94" t="s">
-        <v>498</v>
+        <v>529</v>
       </c>
       <c r="L94" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="M94" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B95" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C95" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="D95">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>501</v>
+        <v>532</v>
       </c>
       <c r="F95" t="s">
-        <v>502</v>
+        <v>533</v>
       </c>
       <c r="G95" t="s">
-        <v>503</v>
+        <v>534</v>
       </c>
       <c r="H95" t="s">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="I95" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J95" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K95" t="s">
-        <v>504</v>
+        <v>536</v>
       </c>
       <c r="L95" t="s">
-        <v>505</v>
+        <v>537</v>
       </c>
       <c r="M95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B96" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C96" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="D96">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>506</v>
+        <v>538</v>
       </c>
       <c r="F96" t="s">
-        <v>507</v>
+        <v>539</v>
       </c>
       <c r="G96" t="s">
-        <v>508</v>
+        <v>540</v>
       </c>
       <c r="H96" t="s">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="I96" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J96" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K96" t="s">
-        <v>509</v>
+        <v>541</v>
       </c>
       <c r="L96" t="s">
-        <v>510</v>
+        <v>542</v>
       </c>
       <c r="M96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B97" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C97" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="D97">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
       <c r="F97" t="s">
-        <v>512</v>
+        <v>544</v>
       </c>
       <c r="G97" t="s">
-        <v>513</v>
+        <v>545</v>
       </c>
       <c r="H97" t="s">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="I97" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J97" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K97" t="s">
-        <v>514</v>
+        <v>546</v>
       </c>
       <c r="L97" t="s">
-        <v>515</v>
+        <v>547</v>
       </c>
       <c r="M97" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B98" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C98" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="D98">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>516</v>
+        <v>548</v>
       </c>
       <c r="F98" t="s">
-        <v>517</v>
+        <v>549</v>
       </c>
       <c r="G98" t="s">
-        <v>518</v>
+        <v>550</v>
       </c>
       <c r="H98" t="s">
-        <v>754</v>
+        <v>455</v>
       </c>
       <c r="I98" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J98" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K98" t="s">
-        <v>519</v>
+        <v>551</v>
       </c>
       <c r="L98" t="s">
-        <v>520</v>
+        <v>552</v>
       </c>
       <c r="M98" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B99" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C99" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="D99">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>521</v>
+        <v>553</v>
       </c>
       <c r="F99" t="s">
-        <v>522</v>
+        <v>554</v>
       </c>
       <c r="G99" t="s">
-        <v>523</v>
+        <v>555</v>
       </c>
       <c r="H99" t="s">
-        <v>754</v>
+        <v>455</v>
       </c>
       <c r="I99" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J99" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K99" t="s">
-        <v>524</v>
+        <v>556</v>
       </c>
       <c r="L99" t="s">
-        <v>525</v>
+        <v>557</v>
       </c>
       <c r="M99" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B100" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C100" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="D100">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>526</v>
+        <v>558</v>
       </c>
       <c r="F100" t="s">
-        <v>527</v>
+        <v>559</v>
       </c>
       <c r="G100" t="s">
-        <v>528</v>
+        <v>560</v>
       </c>
       <c r="H100" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I100" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J100" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K100" t="s">
-        <v>529</v>
+        <v>561</v>
       </c>
       <c r="L100" t="s">
-        <v>530</v>
+        <v>562</v>
       </c>
       <c r="M100" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B101" t="s">
-        <v>421</v>
+        <v>450</v>
       </c>
       <c r="C101" t="s">
-        <v>500</v>
+        <v>531</v>
       </c>
       <c r="D101">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>531</v>
+        <v>563</v>
       </c>
       <c r="F101" t="s">
-        <v>532</v>
+        <v>564</v>
       </c>
       <c r="G101" t="s">
-        <v>533</v>
+        <v>565</v>
       </c>
       <c r="H101" t="s">
-        <v>745</v>
+        <v>466</v>
       </c>
       <c r="I101" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J101" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K101" t="s">
-        <v>534</v>
+        <v>566</v>
       </c>
       <c r="L101" t="s">
-        <v>535</v>
+        <v>567</v>
       </c>
       <c r="M101" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B102" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C102" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D102">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>537</v>
+        <v>569</v>
       </c>
       <c r="F102" t="s">
-        <v>538</v>
+        <v>570</v>
       </c>
       <c r="G102" t="s">
-        <v>539</v>
+        <v>571</v>
       </c>
       <c r="H102" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I102" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J102" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K102" t="s">
-        <v>540</v>
+        <v>572</v>
       </c>
       <c r="L102" t="s">
-        <v>541</v>
+        <v>573</v>
       </c>
       <c r="M102" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B103" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C103" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D103">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>542</v>
+        <v>574</v>
       </c>
       <c r="F103" t="s">
-        <v>543</v>
+        <v>575</v>
       </c>
       <c r="G103" t="s">
-        <v>544</v>
+        <v>576</v>
       </c>
       <c r="H103" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I103" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K103" t="s">
-        <v>545</v>
+        <v>577</v>
       </c>
       <c r="L103" t="s">
-        <v>546</v>
+        <v>578</v>
       </c>
       <c r="M103" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B104" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C104" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D104">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>547</v>
+        <v>579</v>
       </c>
       <c r="F104" t="s">
-        <v>548</v>
+        <v>580</v>
       </c>
       <c r="G104" t="s">
-        <v>549</v>
+        <v>581</v>
       </c>
       <c r="H104" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I104" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K104" t="s">
-        <v>550</v>
+        <v>582</v>
       </c>
       <c r="L104" t="s">
-        <v>551</v>
+        <v>583</v>
       </c>
       <c r="M104" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B105" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C105" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D105">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>552</v>
+        <v>584</v>
       </c>
       <c r="F105" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="G105" t="s">
-        <v>554</v>
+        <v>586</v>
       </c>
       <c r="H105" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I105" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K105" t="s">
-        <v>555</v>
+        <v>587</v>
       </c>
       <c r="L105" t="s">
-        <v>556</v>
+        <v>588</v>
       </c>
       <c r="M105" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B106" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C106" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D106">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>557</v>
+        <v>589</v>
       </c>
       <c r="F106" t="s">
-        <v>558</v>
+        <v>590</v>
       </c>
       <c r="G106" t="s">
-        <v>559</v>
+        <v>591</v>
       </c>
       <c r="H106" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I106" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K106" t="s">
-        <v>560</v>
+        <v>592</v>
       </c>
       <c r="L106" t="s">
-        <v>561</v>
+        <v>593</v>
       </c>
       <c r="M106" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B107" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C107" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D107">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>562</v>
+        <v>594</v>
       </c>
       <c r="F107" t="s">
-        <v>563</v>
+        <v>595</v>
       </c>
       <c r="G107" t="s">
-        <v>564</v>
+        <v>596</v>
       </c>
       <c r="H107" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I107" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K107" t="s">
-        <v>565</v>
+        <v>597</v>
       </c>
       <c r="L107" t="s">
-        <v>566</v>
+        <v>598</v>
       </c>
       <c r="M107" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B108" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C108" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D108">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>567</v>
+        <v>599</v>
       </c>
       <c r="F108" t="s">
+        <v>600</v>
+      </c>
+      <c r="G108" t="s">
+        <v>601</v>
+      </c>
+      <c r="H108" t="s">
         <v>568</v>
       </c>
-      <c r="G108" t="s">
-        <v>569</v>
-      </c>
-      <c r="H108" t="s">
-        <v>536</v>
-      </c>
       <c r="I108" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K108" t="s">
-        <v>570</v>
+        <v>602</v>
       </c>
       <c r="L108" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="M108" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B109" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C109" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D109">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>572</v>
+        <v>604</v>
       </c>
       <c r="F109" t="s">
-        <v>573</v>
+        <v>605</v>
       </c>
       <c r="G109" t="s">
-        <v>574</v>
+        <v>606</v>
       </c>
       <c r="H109" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I109" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J109" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K109" t="s">
-        <v>575</v>
+        <v>607</v>
       </c>
       <c r="L109" t="s">
-        <v>576</v>
+        <v>608</v>
       </c>
       <c r="M109" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B110" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C110" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D110">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>577</v>
+        <v>609</v>
       </c>
       <c r="F110" t="s">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="G110" t="s">
-        <v>579</v>
+        <v>611</v>
       </c>
       <c r="H110" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I110" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K110" t="s">
-        <v>580</v>
+        <v>612</v>
       </c>
       <c r="L110" t="s">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="M110" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B111" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C111" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D111">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>582</v>
+        <v>614</v>
       </c>
       <c r="F111" t="s">
-        <v>583</v>
+        <v>615</v>
       </c>
       <c r="G111" t="s">
-        <v>584</v>
+        <v>616</v>
       </c>
       <c r="H111" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I111" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K111" t="s">
-        <v>585</v>
+        <v>617</v>
       </c>
       <c r="L111" t="s">
-        <v>586</v>
+        <v>618</v>
       </c>
       <c r="M111" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B112" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C112" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D112">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>587</v>
+        <v>619</v>
       </c>
       <c r="F112" t="s">
-        <v>588</v>
+        <v>620</v>
       </c>
       <c r="G112" t="s">
-        <v>589</v>
+        <v>621</v>
       </c>
       <c r="H112" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="I112" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J112" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K112" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="L112" t="s">
-        <v>591</v>
+        <v>623</v>
       </c>
       <c r="M112" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>315</v>
+        <v>343</v>
       </c>
       <c r="B113" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="C113" t="s">
-        <v>536</v>
+        <v>568</v>
       </c>
       <c r="D113" s="1">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>592</v>
+        <v>624</v>
       </c>
       <c r="F113" t="s">
-        <v>593</v>
+        <v>625</v>
       </c>
       <c r="G113" t="s">
-        <v>594</v>
+        <v>626</v>
       </c>
       <c r="I113" t="s">
-        <v>595</v>
+        <v>627</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K113" t="s">
-        <v>596</v>
+        <v>628</v>
       </c>
       <c r="L113" t="s">
-        <v>597</v>
+        <v>629</v>
       </c>
       <c r="M113" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B114" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C114" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D114">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>601</v>
+        <v>633</v>
       </c>
       <c r="F114" t="s">
-        <v>602</v>
+        <v>634</v>
       </c>
       <c r="G114" t="s">
-        <v>603</v>
+        <v>635</v>
       </c>
       <c r="H114" t="s">
-        <v>756</v>
+        <v>636</v>
       </c>
       <c r="I114" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K114" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="L114" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="M114" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B115" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C115" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D115">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="F115" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="G115" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="H115" t="s">
-        <v>757</v>
+        <v>643</v>
       </c>
       <c r="I115" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J115" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K115" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="L115" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="M115" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B116" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C116" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D116">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="F116" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="G116" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="H116" t="s">
-        <v>757</v>
+        <v>643</v>
       </c>
       <c r="I116" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J116" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K116" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="L116" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="M116" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B117" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C117" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D117">
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="F117" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="G117" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="H117" t="s">
-        <v>757</v>
+        <v>643</v>
       </c>
       <c r="I117" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K117" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="L117" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="M117" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B118" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C118" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D118">
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="F118" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="G118" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="H118" t="s">
-        <v>757</v>
+        <v>643</v>
       </c>
       <c r="I118" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K118" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="L118" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="M118" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B119" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C119" t="s">
-        <v>600</v>
+        <v>632</v>
       </c>
       <c r="D119">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="F119" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="G119" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="H119" t="s">
-        <v>757</v>
+        <v>643</v>
       </c>
       <c r="I119" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K119" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="L119" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="M119" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B120" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C120" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D120">
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>633</v>
+        <v>667</v>
       </c>
       <c r="F120" t="s">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="G120" t="s">
-        <v>635</v>
+        <v>669</v>
       </c>
       <c r="H120" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I120" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K120" t="s">
-        <v>636</v>
+        <v>670</v>
       </c>
       <c r="L120" t="s">
-        <v>637</v>
+        <v>671</v>
       </c>
       <c r="M120" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B121" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C121" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D121">
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>638</v>
+        <v>672</v>
       </c>
       <c r="F121" t="s">
-        <v>639</v>
+        <v>673</v>
       </c>
       <c r="G121" t="s">
-        <v>640</v>
+        <v>674</v>
       </c>
       <c r="H121" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I121" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K121" t="s">
-        <v>641</v>
+        <v>675</v>
       </c>
       <c r="L121" t="s">
-        <v>642</v>
+        <v>676</v>
       </c>
       <c r="M121" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B122" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C122" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D122">
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>643</v>
+        <v>677</v>
       </c>
       <c r="F122" t="s">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="G122" t="s">
-        <v>645</v>
+        <v>679</v>
       </c>
       <c r="H122" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I122" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J122" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K122" t="s">
-        <v>646</v>
+        <v>680</v>
       </c>
       <c r="L122" t="s">
-        <v>647</v>
+        <v>681</v>
       </c>
       <c r="M122" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B123" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C123" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D123">
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H123" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I123" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J123" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K123" t="s">
-        <v>648</v>
+        <v>682</v>
       </c>
       <c r="L123" t="s">
-        <v>649</v>
+        <v>683</v>
       </c>
       <c r="M123" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B124" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C124" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D124">
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="G124" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="H124" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I124" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J124" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K124" t="s">
-        <v>650</v>
+        <v>684</v>
       </c>
       <c r="L124" t="s">
-        <v>651</v>
+        <v>685</v>
       </c>
       <c r="M124" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B125" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C125" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D125">
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F125" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G125" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H125" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I125" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J125" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K125" t="s">
-        <v>652</v>
+        <v>686</v>
       </c>
       <c r="L125" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M125" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B126" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C126" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D126">
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F126" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="G126" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H126" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I126" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J126" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K126" t="s">
-        <v>653</v>
+        <v>687</v>
       </c>
       <c r="L126" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M126" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B127" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C127" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D127">
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>654</v>
+        <v>688</v>
       </c>
       <c r="F127" t="s">
-        <v>655</v>
+        <v>689</v>
       </c>
       <c r="G127" t="s">
-        <v>656</v>
+        <v>690</v>
       </c>
       <c r="H127" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I127" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J127" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K127" t="s">
-        <v>657</v>
+        <v>691</v>
       </c>
       <c r="L127" t="s">
-        <v>658</v>
+        <v>692</v>
       </c>
       <c r="M127" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B128" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C128" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D128">
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>659</v>
+        <v>693</v>
       </c>
       <c r="F128" t="s">
-        <v>660</v>
+        <v>694</v>
       </c>
       <c r="G128" t="s">
-        <v>661</v>
+        <v>695</v>
       </c>
       <c r="H128" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I128" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K128" t="s">
-        <v>662</v>
+        <v>696</v>
       </c>
       <c r="L128" t="s">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="M128" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B129" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C129" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D129">
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>664</v>
+        <v>698</v>
       </c>
       <c r="F129" t="s">
-        <v>665</v>
+        <v>699</v>
       </c>
       <c r="G129" t="s">
-        <v>666</v>
+        <v>700</v>
       </c>
       <c r="H129" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I129" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J129" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K129" t="s">
-        <v>667</v>
+        <v>701</v>
       </c>
       <c r="L129" t="s">
-        <v>668</v>
+        <v>702</v>
       </c>
       <c r="M129" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B130" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C130" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="D130">
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>669</v>
+        <v>703</v>
       </c>
       <c r="F130" t="s">
-        <v>670</v>
+        <v>704</v>
       </c>
       <c r="G130" t="s">
-        <v>671</v>
+        <v>705</v>
       </c>
       <c r="H130" t="s">
-        <v>746</v>
+        <v>43</v>
       </c>
       <c r="I130" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J130" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K130" t="s">
-        <v>672</v>
+        <v>706</v>
       </c>
       <c r="L130" t="s">
-        <v>673</v>
+        <v>707</v>
       </c>
       <c r="M130" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B131" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C131" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="D131">
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>675</v>
+        <v>709</v>
       </c>
       <c r="F131" t="s">
-        <v>676</v>
+        <v>710</v>
       </c>
       <c r="G131" t="s">
-        <v>677</v>
+        <v>711</v>
       </c>
       <c r="H131" t="s">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="I131" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J131" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K131" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="L131" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="M131" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B132" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C132" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="D132">
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="F132" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="G132" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
       <c r="H132" t="s">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="I132" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J132" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K132" t="s">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="L132" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="M132" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B133" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C133" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="D133">
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
       <c r="F133" t="s">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="G133" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="H133" t="s">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="I133" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J133" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K133" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="L133" t="s">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="M133" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B134" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C134" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="D134">
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="F134" t="s">
-        <v>691</v>
+        <v>726</v>
       </c>
       <c r="G134" t="s">
-        <v>692</v>
+        <v>727</v>
       </c>
       <c r="H134" t="s">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="I134" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J134" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K134" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="L134" t="s">
-        <v>694</v>
+        <v>729</v>
       </c>
       <c r="M134" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B135" t="s">
-        <v>599</v>
+        <v>631</v>
       </c>
       <c r="C135" t="s">
-        <v>674</v>
+        <v>708</v>
       </c>
       <c r="D135">
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>695</v>
+        <v>730</v>
       </c>
       <c r="F135" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="G135" t="s">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="H135" t="s">
-        <v>758</v>
+        <v>712</v>
       </c>
       <c r="I135" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="J135" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K135" t="s">
-        <v>698</v>
+        <v>733</v>
       </c>
       <c r="L135" t="s">
-        <v>699</v>
+        <v>734</v>
       </c>
       <c r="M135" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B136" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C136" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="D136">
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="F136" t="s">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="G136" t="s">
-        <v>704</v>
+        <v>739</v>
       </c>
       <c r="H136" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="I136" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K136" t="s">
-        <v>705</v>
+        <v>741</v>
       </c>
       <c r="L136" t="s">
-        <v>706</v>
+        <v>742</v>
       </c>
       <c r="M136" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B137" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C137" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="D137">
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>707</v>
+        <v>743</v>
       </c>
       <c r="F137" t="s">
-        <v>708</v>
+        <v>744</v>
       </c>
       <c r="G137" t="s">
-        <v>709</v>
+        <v>745</v>
       </c>
       <c r="H137" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="I137" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J137" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K137" t="s">
-        <v>710</v>
+        <v>746</v>
       </c>
       <c r="L137" t="s">
-        <v>711</v>
+        <v>747</v>
       </c>
       <c r="M137" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B138" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C138" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="D138">
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>712</v>
+        <v>748</v>
       </c>
       <c r="F138" t="s">
-        <v>713</v>
+        <v>749</v>
       </c>
       <c r="G138" t="s">
-        <v>714</v>
+        <v>750</v>
       </c>
       <c r="H138" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="I138" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J138" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K138" t="s">
-        <v>715</v>
+        <v>751</v>
       </c>
       <c r="L138" t="s">
-        <v>716</v>
+        <v>752</v>
       </c>
       <c r="M138" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B139" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C139" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="D139">
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>717</v>
+        <v>753</v>
       </c>
       <c r="F139" t="s">
-        <v>718</v>
+        <v>754</v>
       </c>
       <c r="G139" t="s">
-        <v>719</v>
+        <v>755</v>
       </c>
       <c r="H139" t="s">
-        <v>759</v>
+        <v>740</v>
       </c>
       <c r="I139" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="J139" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K139" t="s">
-        <v>720</v>
+        <v>756</v>
       </c>
       <c r="L139" t="s">
-        <v>721</v>
+        <v>757</v>
       </c>
       <c r="M139" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B140" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C140" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="D140">
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>723</v>
+        <v>759</v>
       </c>
       <c r="F140" t="s">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="G140" t="s">
-        <v>725</v>
+        <v>761</v>
       </c>
       <c r="H140" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I140" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="J140" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K140" t="s">
-        <v>727</v>
+        <v>764</v>
       </c>
       <c r="L140" t="s">
-        <v>728</v>
+        <v>765</v>
       </c>
       <c r="M140" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B141" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C141" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="D141">
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>729</v>
+        <v>766</v>
       </c>
       <c r="F141" t="s">
-        <v>730</v>
+        <v>767</v>
       </c>
       <c r="G141" t="s">
-        <v>731</v>
+        <v>768</v>
       </c>
       <c r="H141" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I141" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="J141" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K141" t="s">
-        <v>732</v>
+        <v>769</v>
       </c>
       <c r="L141" t="s">
-        <v>733</v>
+        <v>770</v>
       </c>
       <c r="M141" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B142" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C142" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="D142">
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>734</v>
+        <v>771</v>
       </c>
       <c r="F142" t="s">
-        <v>735</v>
+        <v>772</v>
       </c>
       <c r="G142" t="s">
-        <v>736</v>
+        <v>773</v>
       </c>
       <c r="H142" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I142" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="J142" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K142" t="s">
-        <v>737</v>
+        <v>774</v>
       </c>
       <c r="L142" t="s">
-        <v>738</v>
+        <v>775</v>
       </c>
       <c r="M142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>598</v>
+        <v>630</v>
       </c>
       <c r="B143" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="C143" t="s">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="D143">
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>739</v>
+        <v>776</v>
       </c>
       <c r="F143" t="s">
-        <v>740</v>
+        <v>777</v>
       </c>
       <c r="G143" t="s">
-        <v>741</v>
+        <v>778</v>
       </c>
       <c r="H143" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="I143" t="s">
-        <v>726</v>
+        <v>763</v>
       </c>
       <c r="J143" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K143" t="s">
-        <v>742</v>
+        <v>779</v>
       </c>
       <c r="L143" t="s">
-        <v>743</v>
+        <v>780</v>
       </c>
       <c r="M143" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
